--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -38,7 +38,7 @@
     <t>备份源</t>
   </si>
   <si>
-    <t>占用</t>
+    <t>已复制数据的大小</t>
   </si>
   <si>
     <t>总大小</t>
@@ -59,10 +59,10 @@
     <t>240825#ST4000NE001-HDD-4T(2)</t>
   </si>
   <si>
-    <t>1335 GiB</t>
+    <t>1177 GB</t>
   </si>
   <si>
-    <t>2252.8 GiB</t>
+    <t>2252.8 GB</t>
   </si>
   <si>
     <t>全盘备份</t>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>250718#000038L5(1)</t>
-  </si>
-  <si>
-    <t>? GiB</t>
   </si>
   <si>
     <t>210301#MTFDHBA256TDV-SSD-256G
@@ -1271,21 +1268,22 @@
   <sheetPr/>
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="5" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:8">
+    <row r="1" ht="36" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:8">
+    <row r="2" ht="36" customHeight="1" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:8">
+    <row r="3" ht="36" customHeight="1" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1345,9 +1343,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+    <row r="4" ht="36" customHeight="1" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1363,13 +1359,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -1378,10 +1374,10 @@
         <v>45859</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:8">
+    <row r="5" ht="36" customHeight="1" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1393,7 +1389,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:8">
+    <row r="6" ht="36" customHeight="1" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1403,7 +1399,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:8">
+    <row r="7" ht="36" customHeight="1" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1413,7 +1409,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:8">
+    <row r="8" ht="36" customHeight="1" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1423,7 +1419,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:8">
+    <row r="9" ht="36" customHeight="1" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1433,7 +1429,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:8">
+    <row r="10" ht="36" customHeight="1" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1443,7 +1439,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:8">
+    <row r="11" ht="36" customHeight="1" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1453,7 +1449,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:8">
+    <row r="12" ht="36" customHeight="1" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1463,7 +1459,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:8">
+    <row r="13" ht="36" customHeight="1" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1473,7 +1469,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:8">
+    <row r="14" ht="36" customHeight="1" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1483,7 +1479,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:8">
+    <row r="15" ht="36" customHeight="1" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1493,7 +1489,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:8">
+    <row r="16" ht="36" customHeight="1" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1503,7 +1499,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:8">
+    <row r="17" ht="36" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1513,7 +1509,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:8">
+    <row r="18" ht="36" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1523,7 +1519,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:8">
+    <row r="19" ht="36" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1533,7 +1529,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:8">
+    <row r="20" ht="36" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1543,7 +1539,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:8">
+    <row r="21" ht="36" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1553,7 +1549,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:8">
+    <row r="22" ht="36" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1563,7 +1559,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:8">
+    <row r="23" ht="36" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1573,7 +1569,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:8">
+    <row r="24" ht="36" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1583,7 +1579,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:8">
+    <row r="25" ht="36" customHeight="1" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1593,7 +1589,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:8">
+    <row r="26" ht="36" customHeight="1" spans="1:8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1603,7 +1599,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:8">
+    <row r="27" ht="36" customHeight="1" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1613,7 +1609,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:8">
+    <row r="28" ht="36" customHeight="1" spans="1:8">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1623,7 +1619,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:8">
+    <row r="29" ht="36" customHeight="1" spans="1:8">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1633,7 +1629,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:8">
+    <row r="30" ht="36" customHeight="1" spans="1:8">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1643,7 +1639,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:8">
+    <row r="31" ht="36" customHeight="1" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1653,7 +1649,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:8">
+    <row r="32" ht="36" customHeight="1" spans="1:8">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1663,7 +1659,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:8">
+    <row r="33" ht="36" customHeight="1" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1673,7 +1669,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:8">
+    <row r="34" ht="36" customHeight="1" spans="1:8">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1683,7 +1679,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:8">
+    <row r="35" ht="36" customHeight="1" spans="1:8">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1693,7 +1689,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:8">
+    <row r="36" ht="36" customHeight="1" spans="1:8">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1703,7 +1699,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:8">
+    <row r="37" ht="36" customHeight="1" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1713,7 +1709,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:8">
+    <row r="38" ht="36" customHeight="1" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1723,7 +1719,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:8">
+    <row r="39" ht="36" customHeight="1" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1733,7 +1729,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" ht="18" customHeight="1" spans="1:8">
+    <row r="40" ht="36" customHeight="1" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1743,7 +1739,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:8">
+    <row r="41" ht="36" customHeight="1" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1753,7 +1749,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:8">
+    <row r="42" ht="36" customHeight="1" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1763,7 +1759,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" ht="18" customHeight="1" spans="1:8">
+    <row r="43" ht="36" customHeight="1" spans="1:8">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1773,7 +1769,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:8">
+    <row r="44" ht="36" customHeight="1" spans="1:8">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1783,7 +1779,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:8">
+    <row r="45" ht="36" customHeight="1" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1793,7 +1789,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" ht="18" customHeight="1" spans="1:8">
+    <row r="46" ht="36" customHeight="1" spans="1:8">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1803,7 +1799,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:8">
+    <row r="47" ht="36" customHeight="1" spans="1:8">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1813,7 +1809,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:8">
+    <row r="48" ht="36" customHeight="1" spans="1:8">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1823,7 +1819,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" ht="18" customHeight="1" spans="1:8">
+    <row r="49" ht="36" customHeight="1" spans="1:8">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1833,7 +1829,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:8">
+    <row r="50" ht="36" customHeight="1" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1843,7 +1839,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:8">
+    <row r="51" ht="36" customHeight="1" spans="1:8">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1853,7 +1849,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="1:8">
+    <row r="52" ht="36" customHeight="1" spans="1:8">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1863,7 +1859,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:8">
+    <row r="53" ht="36" customHeight="1" spans="1:8">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1873,7 +1869,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:8">
+    <row r="54" ht="36" customHeight="1" spans="1:8">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1883,7 +1879,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:8">
+    <row r="55" ht="36" customHeight="1" spans="1:8">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1893,7 +1889,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:8">
+    <row r="56" ht="36" customHeight="1" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1903,7 +1899,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:8">
+    <row r="57" ht="36" customHeight="1" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1913,7 +1909,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:8">
+    <row r="58" ht="36" customHeight="1" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1923,7 +1919,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" ht="18" customHeight="1" spans="1:8">
+    <row r="59" ht="36" customHeight="1" spans="1:8">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1933,7 +1929,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" ht="18" customHeight="1" spans="1:8">
+    <row r="60" ht="36" customHeight="1" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1943,7 +1939,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" ht="18" customHeight="1" spans="1:8">
+    <row r="61" ht="36" customHeight="1" spans="1:8">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1953,7 +1949,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" ht="18" customHeight="1" spans="1:8">
+    <row r="62" ht="36" customHeight="1" spans="1:8">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1963,7 +1959,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:8">
+    <row r="63" ht="36" customHeight="1" spans="1:8">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1973,7 +1969,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" ht="18" customHeight="1" spans="1:8">
+    <row r="64" ht="36" customHeight="1" spans="1:8">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1983,7 +1979,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" ht="18" customHeight="1" spans="1:8">
+    <row r="65" ht="36" customHeight="1" spans="1:8">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1993,7 +1989,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" ht="18" customHeight="1" spans="1:8">
+    <row r="66" ht="36" customHeight="1" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2003,7 +1999,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" ht="18" customHeight="1" spans="1:8">
+    <row r="67" ht="36" customHeight="1" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2013,7 +2009,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" ht="18" customHeight="1" spans="1:8">
+    <row r="68" ht="36" customHeight="1" spans="1:8">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2023,7 +2019,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:8">
+    <row r="69" ht="36" customHeight="1" spans="1:8">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2033,7 +2029,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" ht="18" customHeight="1" spans="1:8">
+    <row r="70" ht="36" customHeight="1" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2043,7 +2039,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:8">
+    <row r="71" ht="36" customHeight="1" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2053,7 +2049,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:8">
+    <row r="72" ht="36" customHeight="1" spans="1:8">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2063,7 +2059,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" ht="18" customHeight="1" spans="1:8">
+    <row r="73" ht="36" customHeight="1" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2073,7 +2069,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:8">
+    <row r="74" ht="36" customHeight="1" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2083,7 +2079,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:8">
+    <row r="75" ht="36" customHeight="1" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2093,7 +2089,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" ht="18" customHeight="1" spans="1:8">
+    <row r="76" ht="36" customHeight="1" spans="1:8">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2103,7 +2099,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" ht="18" customHeight="1" spans="1:8">
+    <row r="77" ht="36" customHeight="1" spans="1:8">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2113,7 +2109,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" ht="18" customHeight="1" spans="1:8">
+    <row r="78" ht="36" customHeight="1" spans="1:8">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2123,7 +2119,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:8">
+    <row r="79" ht="36" customHeight="1" spans="1:8">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2133,7 +2129,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" ht="18" customHeight="1" spans="1:8">
+    <row r="80" ht="36" customHeight="1" spans="1:8">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2143,7 +2139,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" ht="18" customHeight="1" spans="1:8">
+    <row r="81" ht="36" customHeight="1" spans="1:8">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2153,7 +2149,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" ht="18" customHeight="1" spans="1:8">
+    <row r="82" ht="36" customHeight="1" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2163,7 +2159,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" ht="18" customHeight="1" spans="1:8">
+    <row r="83" ht="36" customHeight="1" spans="1:8">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2173,7 +2169,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" ht="18" customHeight="1" spans="1:8">
+    <row r="84" ht="36" customHeight="1" spans="1:8">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2183,7 +2179,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" ht="18" customHeight="1" spans="1:8">
+    <row r="85" ht="36" customHeight="1" spans="1:8">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2193,7 +2189,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" ht="18" customHeight="1" spans="1:8">
+    <row r="86" ht="36" customHeight="1" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2203,7 +2199,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" ht="18" customHeight="1" spans="1:8">
+    <row r="87" ht="36" customHeight="1" spans="1:8">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2213,7 +2209,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" ht="18" customHeight="1" spans="1:8">
+    <row r="88" ht="36" customHeight="1" spans="1:8">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2223,7 +2219,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" ht="18" customHeight="1" spans="1:8">
+    <row r="89" ht="36" customHeight="1" spans="1:8">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2233,7 +2229,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" ht="18" customHeight="1" spans="1:8">
+    <row r="90" ht="36" customHeight="1" spans="1:8">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2243,7 +2239,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" ht="18" customHeight="1" spans="1:8">
+    <row r="91" ht="36" customHeight="1" spans="1:8">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2253,7 +2249,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" ht="18" customHeight="1" spans="1:8">
+    <row r="92" ht="36" customHeight="1" spans="1:8">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2263,7 +2259,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" ht="18" customHeight="1" spans="1:8">
+    <row r="93" ht="36" customHeight="1" spans="1:8">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2273,7 +2269,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" ht="18" customHeight="1" spans="1:8">
+    <row r="94" ht="36" customHeight="1" spans="1:8">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2283,7 +2279,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" ht="18" customHeight="1" spans="1:8">
+    <row r="95" ht="36" customHeight="1" spans="1:8">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2293,7 +2289,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" ht="18" customHeight="1" spans="1:8">
+    <row r="96" ht="36" customHeight="1" spans="1:8">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2303,7 +2299,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" ht="18" customHeight="1" spans="1:8">
+    <row r="97" ht="36" customHeight="1" spans="1:8">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2313,7 +2309,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="1:8">
+    <row r="98" ht="36" customHeight="1" spans="1:8">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2323,7 +2319,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" ht="18" customHeight="1" spans="1:8">
+    <row r="99" ht="36" customHeight="1" spans="1:8">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2333,7 +2329,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" ht="18" customHeight="1" spans="1:8">
+    <row r="100" ht="36" customHeight="1" spans="1:8">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2343,7 +2339,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" ht="18" customHeight="1" spans="1:8">
+    <row r="101" ht="36" customHeight="1" spans="1:8">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2353,7 +2349,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" ht="18" customHeight="1" spans="1:8">
+    <row r="102" ht="36" customHeight="1" spans="1:8">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2363,7 +2359,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" ht="18" customHeight="1" spans="1:8">
+    <row r="103" ht="36" customHeight="1" spans="1:8">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2373,7 +2369,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" ht="18" customHeight="1" spans="1:8">
+    <row r="104" ht="36" customHeight="1" spans="1:8">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2383,7 +2379,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:8">
+    <row r="105" ht="36" customHeight="1" spans="1:8">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2393,7 +2389,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" ht="18" customHeight="1" spans="1:8">
+    <row r="106" ht="36" customHeight="1" spans="1:8">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2403,7 +2399,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" ht="18" customHeight="1" spans="1:8">
+    <row r="107" ht="36" customHeight="1" spans="1:8">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2413,7 +2409,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" ht="18" customHeight="1" spans="1:8">
+    <row r="108" ht="36" customHeight="1" spans="1:8">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2423,7 +2419,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" ht="18" customHeight="1" spans="1:8">
+    <row r="109" ht="36" customHeight="1" spans="1:8">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2433,7 +2429,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" ht="18" customHeight="1" spans="1:8">
+    <row r="110" ht="36" customHeight="1" spans="1:8">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2443,7 +2439,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" ht="18" customHeight="1" spans="1:8">
+    <row r="111" ht="36" customHeight="1" spans="1:8">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2453,7 +2449,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" ht="18" customHeight="1" spans="1:8">
+    <row r="112" ht="36" customHeight="1" spans="1:8">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2463,7 +2459,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" ht="18" customHeight="1" spans="1:8">
+    <row r="113" ht="36" customHeight="1" spans="1:8">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2473,7 +2469,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" ht="18" customHeight="1" spans="1:8">
+    <row r="114" ht="36" customHeight="1" spans="1:8">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2483,7 +2479,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:8">
+    <row r="115" ht="36" customHeight="1" spans="1:8">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2493,7 +2489,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" ht="18" customHeight="1" spans="1:8">
+    <row r="116" ht="36" customHeight="1" spans="1:8">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2503,7 +2499,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" ht="18" customHeight="1" spans="1:8">
+    <row r="117" ht="36" customHeight="1" spans="1:8">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2513,7 +2509,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" ht="18" customHeight="1" spans="1:8">
+    <row r="118" ht="36" customHeight="1" spans="1:8">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2523,7 +2519,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" ht="18" customHeight="1" spans="1:8">
+    <row r="119" ht="36" customHeight="1" spans="1:8">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2533,7 +2529,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" ht="18" customHeight="1" spans="1:8">
+    <row r="120" ht="36" customHeight="1" spans="1:8">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2543,7 +2539,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" ht="18" customHeight="1" spans="1:8">
+    <row r="121" ht="36" customHeight="1" spans="1:8">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2553,7 +2549,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" ht="18" customHeight="1" spans="1:8">
+    <row r="122" ht="36" customHeight="1" spans="1:8">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2563,7 +2559,7 @@
       <c r="G122" s="5"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" ht="18" customHeight="1" spans="1:8">
+    <row r="123" ht="36" customHeight="1" spans="1:8">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2573,7 +2569,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" ht="18" customHeight="1" spans="1:8">
+    <row r="124" ht="36" customHeight="1" spans="1:8">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2583,7 +2579,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" ht="18" customHeight="1" spans="1:8">
+    <row r="125" ht="36" customHeight="1" spans="1:8">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2593,7 +2589,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" ht="18" customHeight="1" spans="1:8">
+    <row r="126" ht="36" customHeight="1" spans="1:8">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2603,7 +2599,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" ht="18" customHeight="1" spans="1:8">
+    <row r="127" ht="36" customHeight="1" spans="1:8">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2613,7 +2609,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" ht="18" customHeight="1" spans="1:8">
+    <row r="128" ht="36" customHeight="1" spans="1:8">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2623,7 +2619,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" ht="18" customHeight="1" spans="1:8">
+    <row r="129" ht="36" customHeight="1" spans="1:8">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2633,7 +2629,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" ht="18" customHeight="1" spans="1:8">
+    <row r="130" ht="36" customHeight="1" spans="1:8">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2643,7 +2639,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" ht="18" customHeight="1" spans="1:8">
+    <row r="131" ht="36" customHeight="1" spans="1:8">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2653,7 +2649,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" ht="18" customHeight="1" spans="1:8">
+    <row r="132" ht="36" customHeight="1" spans="1:8">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2663,7 +2659,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" ht="18" customHeight="1" spans="1:8">
+    <row r="133" ht="36" customHeight="1" spans="1:8">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2673,7 +2669,7 @@
       <c r="G133" s="5"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" ht="18" customHeight="1" spans="1:8">
+    <row r="134" ht="36" customHeight="1" spans="1:8">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2683,7 +2679,7 @@
       <c r="G134" s="5"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" ht="18" customHeight="1" spans="1:8">
+    <row r="135" ht="36" customHeight="1" spans="1:8">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2693,7 +2689,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" ht="18" customHeight="1" spans="1:8">
+    <row r="136" ht="36" customHeight="1" spans="1:8">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2703,7 +2699,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" ht="18" customHeight="1" spans="1:8">
+    <row r="137" ht="36" customHeight="1" spans="1:8">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2713,7 +2709,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" ht="18" customHeight="1" spans="1:8">
+    <row r="138" ht="36" customHeight="1" spans="1:8">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2723,7 +2719,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" ht="18" customHeight="1" spans="1:8">
+    <row r="139" ht="36" customHeight="1" spans="1:8">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2733,7 +2729,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" ht="18" customHeight="1" spans="1:8">
+    <row r="140" ht="36" customHeight="1" spans="1:8">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2743,7 +2739,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" ht="18" customHeight="1" spans="1:8">
+    <row r="141" ht="36" customHeight="1" spans="1:8">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2753,7 +2749,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" ht="18" customHeight="1" spans="1:8">
+    <row r="142" ht="36" customHeight="1" spans="1:8">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2763,7 +2759,7 @@
       <c r="G142" s="5"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" ht="18" customHeight="1" spans="1:8">
+    <row r="143" ht="36" customHeight="1" spans="1:8">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2773,7 +2769,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" ht="18" customHeight="1" spans="1:8">
+    <row r="144" ht="36" customHeight="1" spans="1:8">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2783,7 +2779,7 @@
       <c r="G144" s="5"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" ht="18" customHeight="1" spans="1:8">
+    <row r="145" ht="36" customHeight="1" spans="1:8">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2793,7 +2789,7 @@
       <c r="G145" s="5"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" ht="18" customHeight="1" spans="1:8">
+    <row r="146" ht="36" customHeight="1" spans="1:8">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2803,7 +2799,7 @@
       <c r="G146" s="5"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" ht="18" customHeight="1" spans="1:8">
+    <row r="147" ht="36" customHeight="1" spans="1:8">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2813,7 +2809,7 @@
       <c r="G147" s="5"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" ht="18" customHeight="1" spans="1:8">
+    <row r="148" ht="36" customHeight="1" spans="1:8">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2823,7 +2819,7 @@
       <c r="G148" s="5"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" ht="18" customHeight="1" spans="1:8">
+    <row r="149" ht="36" customHeight="1" spans="1:8">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2833,7 +2829,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" ht="18" customHeight="1" spans="1:8">
+    <row r="150" ht="36" customHeight="1" spans="1:8">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2843,7 +2839,7 @@
       <c r="G150" s="5"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" ht="18" customHeight="1" spans="1:8">
+    <row r="151" ht="36" customHeight="1" spans="1:8">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2853,7 +2849,7 @@
       <c r="G151" s="5"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" ht="18" customHeight="1" spans="1:8">
+    <row r="152" ht="36" customHeight="1" spans="1:8">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2863,7 +2859,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" ht="18" customHeight="1" spans="1:8">
+    <row r="153" ht="36" customHeight="1" spans="1:8">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2873,7 +2869,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" ht="18" customHeight="1" spans="1:8">
+    <row r="154" ht="36" customHeight="1" spans="1:8">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2883,7 +2879,7 @@
       <c r="G154" s="5"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" ht="18" customHeight="1" spans="1:8">
+    <row r="155" ht="36" customHeight="1" spans="1:8">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2893,7 +2889,7 @@
       <c r="G155" s="5"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" ht="18" customHeight="1" spans="1:8">
+    <row r="156" ht="36" customHeight="1" spans="1:8">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2903,7 +2899,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" ht="18" customHeight="1" spans="1:8">
+    <row r="157" ht="36" customHeight="1" spans="1:8">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2913,7 +2909,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" ht="18" customHeight="1" spans="1:8">
+    <row r="158" ht="36" customHeight="1" spans="1:8">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2923,7 +2919,7 @@
       <c r="G158" s="5"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" ht="18" customHeight="1" spans="1:8">
+    <row r="159" ht="36" customHeight="1" spans="1:8">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2933,7 +2929,7 @@
       <c r="G159" s="5"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" ht="18" customHeight="1" spans="1:8">
+    <row r="160" ht="36" customHeight="1" spans="1:8">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2943,7 +2939,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" ht="18" customHeight="1" spans="1:8">
+    <row r="161" ht="36" customHeight="1" spans="1:8">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2953,7 +2949,7 @@
       <c r="G161" s="5"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" ht="18" customHeight="1" spans="1:8">
+    <row r="162" ht="36" customHeight="1" spans="1:8">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2963,7 +2959,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" ht="18" customHeight="1" spans="1:8">
+    <row r="163" ht="36" customHeight="1" spans="1:8">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2973,7 +2969,7 @@
       <c r="G163" s="5"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" ht="18" customHeight="1" spans="1:8">
+    <row r="164" ht="36" customHeight="1" spans="1:8">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -2983,7 +2979,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" ht="18" customHeight="1" spans="1:8">
+    <row r="165" ht="36" customHeight="1" spans="1:8">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -2993,7 +2989,7 @@
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" ht="18" customHeight="1" spans="1:8">
+    <row r="166" ht="36" customHeight="1" spans="1:8">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3003,7 +2999,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" ht="18" customHeight="1" spans="1:8">
+    <row r="167" ht="36" customHeight="1" spans="1:8">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3013,7 +3009,7 @@
       <c r="G167" s="5"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" ht="18" customHeight="1" spans="1:8">
+    <row r="168" ht="36" customHeight="1" spans="1:8">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3023,7 +3019,7 @@
       <c r="G168" s="5"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" ht="18" customHeight="1" spans="1:8">
+    <row r="169" ht="36" customHeight="1" spans="1:8">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3033,7 +3029,7 @@
       <c r="G169" s="5"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" ht="18" customHeight="1" spans="1:8">
+    <row r="170" ht="36" customHeight="1" spans="1:8">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3043,7 +3039,7 @@
       <c r="G170" s="5"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" ht="18" customHeight="1" spans="1:8">
+    <row r="171" ht="36" customHeight="1" spans="1:8">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3053,7 +3049,7 @@
       <c r="G171" s="5"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" ht="18" customHeight="1" spans="1:8">
+    <row r="172" ht="36" customHeight="1" spans="1:8">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3063,7 +3059,7 @@
       <c r="G172" s="5"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" ht="18" customHeight="1" spans="1:8">
+    <row r="173" ht="36" customHeight="1" spans="1:8">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3073,7 +3069,7 @@
       <c r="G173" s="5"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" ht="18" customHeight="1" spans="1:8">
+    <row r="174" ht="36" customHeight="1" spans="1:8">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3083,7 +3079,7 @@
       <c r="G174" s="5"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" ht="18" customHeight="1" spans="1:8">
+    <row r="175" ht="36" customHeight="1" spans="1:8">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3093,7 +3089,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" ht="18" customHeight="1" spans="1:8">
+    <row r="176" ht="36" customHeight="1" spans="1:8">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3103,7 +3099,7 @@
       <c r="G176" s="5"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" ht="18" customHeight="1" spans="1:8">
+    <row r="177" ht="36" customHeight="1" spans="1:8">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3113,7 +3109,7 @@
       <c r="G177" s="5"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" ht="18" customHeight="1" spans="1:8">
+    <row r="178" ht="36" customHeight="1" spans="1:8">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3123,7 +3119,7 @@
       <c r="G178" s="5"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" ht="18" customHeight="1" spans="1:8">
+    <row r="179" ht="36" customHeight="1" spans="1:8">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3133,7 +3129,7 @@
       <c r="G179" s="5"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" ht="18" customHeight="1" spans="1:8">
+    <row r="180" ht="36" customHeight="1" spans="1:8">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3143,7 +3139,7 @@
       <c r="G180" s="5"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" ht="18" customHeight="1" spans="1:8">
+    <row r="181" ht="36" customHeight="1" spans="1:8">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3153,7 +3149,7 @@
       <c r="G181" s="5"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" ht="18" customHeight="1" spans="1:8">
+    <row r="182" ht="36" customHeight="1" spans="1:8">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3163,7 +3159,7 @@
       <c r="G182" s="5"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" ht="18" customHeight="1" spans="1:8">
+    <row r="183" ht="36" customHeight="1" spans="1:8">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3173,7 +3169,7 @@
       <c r="G183" s="5"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" ht="18" customHeight="1" spans="1:8">
+    <row r="184" ht="36" customHeight="1" spans="1:8">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3183,7 +3179,7 @@
       <c r="G184" s="5"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" ht="18" customHeight="1" spans="1:8">
+    <row r="185" ht="36" customHeight="1" spans="1:8">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3193,7 +3189,7 @@
       <c r="G185" s="5"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" ht="18" customHeight="1" spans="1:8">
+    <row r="186" ht="36" customHeight="1" spans="1:8">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3203,7 +3199,7 @@
       <c r="G186" s="5"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" ht="18" customHeight="1" spans="1:8">
+    <row r="187" ht="36" customHeight="1" spans="1:8">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3213,7 +3209,7 @@
       <c r="G187" s="5"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" ht="18" customHeight="1" spans="1:8">
+    <row r="188" ht="36" customHeight="1" spans="1:8">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3223,7 +3219,7 @@
       <c r="G188" s="5"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" ht="18" customHeight="1" spans="1:8">
+    <row r="189" ht="36" customHeight="1" spans="1:8">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3233,7 +3229,7 @@
       <c r="G189" s="5"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" ht="18" customHeight="1" spans="1:8">
+    <row r="190" ht="36" customHeight="1" spans="1:8">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3243,7 +3239,7 @@
       <c r="G190" s="5"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" ht="18" customHeight="1" spans="1:8">
+    <row r="191" ht="36" customHeight="1" spans="1:8">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3253,7 +3249,7 @@
       <c r="G191" s="5"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" ht="18" customHeight="1" spans="1:8">
+    <row r="192" ht="36" customHeight="1" spans="1:8">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3263,7 +3259,7 @@
       <c r="G192" s="5"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" ht="18" customHeight="1" spans="1:8">
+    <row r="193" ht="36" customHeight="1" spans="1:8">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3273,7 +3269,7 @@
       <c r="G193" s="5"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" ht="18" customHeight="1" spans="1:8">
+    <row r="194" ht="36" customHeight="1" spans="1:8">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3283,7 +3279,7 @@
       <c r="G194" s="5"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" ht="18" customHeight="1" spans="1:8">
+    <row r="195" ht="36" customHeight="1" spans="1:8">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3293,7 +3289,7 @@
       <c r="G195" s="5"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" ht="18" customHeight="1" spans="1:8">
+    <row r="196" ht="36" customHeight="1" spans="1:8">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3303,7 +3299,7 @@
       <c r="G196" s="5"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" ht="18" customHeight="1" spans="1:8">
+    <row r="197" ht="36" customHeight="1" spans="1:8">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3313,7 +3309,7 @@
       <c r="G197" s="5"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" ht="18" customHeight="1" spans="1:8">
+    <row r="198" ht="36" customHeight="1" spans="1:8">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3323,7 +3319,7 @@
       <c r="G198" s="5"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" ht="18" customHeight="1" spans="1:8">
+    <row r="199" ht="36" customHeight="1" spans="1:8">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3333,7 +3329,7 @@
       <c r="G199" s="5"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" ht="18" customHeight="1" spans="1:8">
+    <row r="200" ht="36" customHeight="1" spans="1:8">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3343,7 +3339,7 @@
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" ht="18" customHeight="1" spans="1:8">
+    <row r="201" ht="36" customHeight="1" spans="1:8">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3353,7 +3349,7 @@
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" ht="18" customHeight="1" spans="1:8">
+    <row r="202" ht="36" customHeight="1" spans="1:8">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -3363,7 +3359,7 @@
       <c r="G202" s="5"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" ht="18" customHeight="1" spans="1:8">
+    <row r="203" ht="36" customHeight="1" spans="1:8">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -3373,7 +3369,7 @@
       <c r="G203" s="5"/>
       <c r="H203" s="4"/>
     </row>
-    <row r="204" ht="18" customHeight="1" spans="1:8">
+    <row r="204" ht="36" customHeight="1" spans="1:8">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -3383,7 +3379,7 @@
       <c r="G204" s="5"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" ht="18" customHeight="1" spans="1:8">
+    <row r="205" ht="36" customHeight="1" spans="1:8">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -3393,7 +3389,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" ht="18" customHeight="1" spans="1:8">
+    <row r="206" ht="36" customHeight="1" spans="1:8">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -3403,7 +3399,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" ht="18" customHeight="1" spans="1:8">
+    <row r="207" ht="36" customHeight="1" spans="1:8">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -3413,7 +3409,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" ht="18" customHeight="1" spans="1:8">
+    <row r="208" ht="36" customHeight="1" spans="1:8">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -3423,7 +3419,7 @@
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" ht="18" customHeight="1" spans="1:8">
+    <row r="209" ht="36" customHeight="1" spans="1:8">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -3433,7 +3429,7 @@
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" ht="18" customHeight="1" spans="1:8">
+    <row r="210" ht="36" customHeight="1" spans="1:8">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -3443,7 +3439,7 @@
       <c r="G210" s="5"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" ht="18" customHeight="1" spans="1:8">
+    <row r="211" ht="36" customHeight="1" spans="1:8">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -3453,7 +3449,7 @@
       <c r="G211" s="5"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" ht="18" customHeight="1" spans="1:8">
+    <row r="212" ht="36" customHeight="1" spans="1:8">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -3463,7 +3459,7 @@
       <c r="G212" s="5"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" ht="18" customHeight="1" spans="1:8">
+    <row r="213" ht="36" customHeight="1" spans="1:8">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -3473,7 +3469,7 @@
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" ht="18" customHeight="1" spans="1:8">
+    <row r="214" ht="36" customHeight="1" spans="1:8">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -3483,7 +3479,7 @@
       <c r="G214" s="5"/>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" ht="18" customHeight="1" spans="1:8">
+    <row r="215" ht="36" customHeight="1" spans="1:8">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -3493,7 +3489,7 @@
       <c r="G215" s="5"/>
       <c r="H215" s="4"/>
     </row>
-    <row r="216" ht="18" customHeight="1" spans="1:8">
+    <row r="216" ht="36" customHeight="1" spans="1:8">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -3503,7 +3499,7 @@
       <c r="G216" s="5"/>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" ht="18" customHeight="1" spans="1:8">
+    <row r="217" ht="36" customHeight="1" spans="1:8">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -3513,7 +3509,7 @@
       <c r="G217" s="5"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" ht="18" customHeight="1" spans="1:8">
+    <row r="218" ht="36" customHeight="1" spans="1:8">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -3523,7 +3519,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" ht="18" customHeight="1" spans="1:8">
+    <row r="219" ht="36" customHeight="1" spans="1:8">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -3533,7 +3529,7 @@
       <c r="G219" s="5"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" ht="18" customHeight="1" spans="1:8">
+    <row r="220" ht="36" customHeight="1" spans="1:8">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -3543,7 +3539,7 @@
       <c r="G220" s="5"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" ht="18" customHeight="1" spans="1:8">
+    <row r="221" ht="36" customHeight="1" spans="1:8">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -3553,7 +3549,7 @@
       <c r="G221" s="5"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" ht="18" customHeight="1" spans="1:8">
+    <row r="222" ht="36" customHeight="1" spans="1:8">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -3563,7 +3559,7 @@
       <c r="G222" s="5"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" ht="18" customHeight="1" spans="1:8">
+    <row r="223" ht="36" customHeight="1" spans="1:8">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -3573,7 +3569,7 @@
       <c r="G223" s="5"/>
       <c r="H223" s="4"/>
     </row>
-    <row r="224" ht="18" customHeight="1" spans="1:8">
+    <row r="224" ht="36" customHeight="1" spans="1:8">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -3583,7 +3579,7 @@
       <c r="G224" s="5"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" ht="18" customHeight="1" spans="1:8">
+    <row r="225" ht="36" customHeight="1" spans="1:8">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -3593,7 +3589,7 @@
       <c r="G225" s="5"/>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" ht="18" customHeight="1" spans="1:8">
+    <row r="226" ht="36" customHeight="1" spans="1:8">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -3603,7 +3599,7 @@
       <c r="G226" s="5"/>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" ht="18" customHeight="1" spans="1:8">
+    <row r="227" ht="36" customHeight="1" spans="1:8">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -3613,7 +3609,7 @@
       <c r="G227" s="5"/>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" ht="18" customHeight="1" spans="1:8">
+    <row r="228" ht="36" customHeight="1" spans="1:8">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -3623,7 +3619,7 @@
       <c r="G228" s="5"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" ht="18" customHeight="1" spans="1:8">
+    <row r="229" ht="36" customHeight="1" spans="1:8">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -3633,7 +3629,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" ht="18" customHeight="1" spans="1:8">
+    <row r="230" ht="36" customHeight="1" spans="1:8">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -3643,7 +3639,7 @@
       <c r="G230" s="5"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" ht="18" customHeight="1" spans="1:8">
+    <row r="231" ht="36" customHeight="1" spans="1:8">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -3653,7 +3649,7 @@
       <c r="G231" s="5"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" ht="18" customHeight="1" spans="1:8">
+    <row r="232" ht="36" customHeight="1" spans="1:8">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -3663,7 +3659,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" ht="18" customHeight="1" spans="1:8">
+    <row r="233" ht="36" customHeight="1" spans="1:8">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -3673,7 +3669,7 @@
       <c r="G233" s="5"/>
       <c r="H233" s="4"/>
     </row>
-    <row r="234" ht="18" customHeight="1" spans="1:8">
+    <row r="234" ht="36" customHeight="1" spans="1:8">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -3683,7 +3679,7 @@
       <c r="G234" s="5"/>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" ht="18" customHeight="1" spans="1:8">
+    <row r="235" ht="36" customHeight="1" spans="1:8">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -3693,7 +3689,7 @@
       <c r="G235" s="5"/>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" ht="18" customHeight="1" spans="1:8">
+    <row r="236" ht="36" customHeight="1" spans="1:8">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -3703,7 +3699,7 @@
       <c r="G236" s="5"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" ht="18" customHeight="1" spans="1:8">
+    <row r="237" ht="36" customHeight="1" spans="1:8">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -3713,7 +3709,7 @@
       <c r="G237" s="5"/>
       <c r="H237" s="4"/>
     </row>
-    <row r="238" ht="18" customHeight="1" spans="1:8">
+    <row r="238" ht="36" customHeight="1" spans="1:8">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -3723,7 +3719,7 @@
       <c r="G238" s="5"/>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" ht="18" customHeight="1" spans="1:8">
+    <row r="239" ht="36" customHeight="1" spans="1:8">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -3733,7 +3729,7 @@
       <c r="G239" s="5"/>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" ht="18" customHeight="1" spans="1:8">
+    <row r="240" ht="36" customHeight="1" spans="1:8">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -3743,7 +3739,7 @@
       <c r="G240" s="5"/>
       <c r="H240" s="4"/>
     </row>
-    <row r="241" ht="18" customHeight="1" spans="1:8">
+    <row r="241" ht="36" customHeight="1" spans="1:8">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -3753,7 +3749,7 @@
       <c r="G241" s="5"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" ht="18" customHeight="1" spans="1:8">
+    <row r="242" ht="36" customHeight="1" spans="1:8">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -3763,7 +3759,7 @@
       <c r="G242" s="5"/>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" ht="18" customHeight="1" spans="1:8">
+    <row r="243" ht="36" customHeight="1" spans="1:8">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -3773,7 +3769,7 @@
       <c r="G243" s="5"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" ht="18" customHeight="1" spans="1:8">
+    <row r="244" ht="36" customHeight="1" spans="1:8">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -3783,7 +3779,7 @@
       <c r="G244" s="5"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" ht="18" customHeight="1" spans="1:8">
+    <row r="245" ht="36" customHeight="1" spans="1:8">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -3793,7 +3789,7 @@
       <c r="G245" s="5"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" ht="18" customHeight="1" spans="1:8">
+    <row r="246" ht="36" customHeight="1" spans="1:8">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -3803,7 +3799,7 @@
       <c r="G246" s="5"/>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" ht="18" customHeight="1" spans="1:8">
+    <row r="247" ht="36" customHeight="1" spans="1:8">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -3813,7 +3809,7 @@
       <c r="G247" s="5"/>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" ht="18" customHeight="1" spans="1:8">
+    <row r="248" ht="36" customHeight="1" spans="1:8">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -3823,7 +3819,7 @@
       <c r="G248" s="5"/>
       <c r="H248" s="4"/>
     </row>
-    <row r="249" ht="18" customHeight="1" spans="1:8">
+    <row r="249" ht="36" customHeight="1" spans="1:8">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -3833,7 +3829,7 @@
       <c r="G249" s="5"/>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" ht="18" customHeight="1" spans="1:8">
+    <row r="250" ht="36" customHeight="1" spans="1:8">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -3843,7 +3839,7 @@
       <c r="G250" s="5"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" ht="18" customHeight="1" spans="1:8">
+    <row r="251" ht="36" customHeight="1" spans="1:8">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -3853,7 +3849,7 @@
       <c r="G251" s="5"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" ht="18" customHeight="1" spans="1:8">
+    <row r="252" ht="36" customHeight="1" spans="1:8">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -3863,7 +3859,7 @@
       <c r="G252" s="5"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" ht="18" customHeight="1" spans="1:8">
+    <row r="253" ht="36" customHeight="1" spans="1:8">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -3873,7 +3869,7 @@
       <c r="G253" s="5"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" ht="18" customHeight="1" spans="1:8">
+    <row r="254" ht="36" customHeight="1" spans="1:8">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -3883,7 +3879,7 @@
       <c r="G254" s="5"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" ht="18" customHeight="1" spans="1:8">
+    <row r="255" ht="36" customHeight="1" spans="1:8">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -3893,7 +3889,7 @@
       <c r="G255" s="5"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" ht="18" customHeight="1" spans="1:8">
+    <row r="256" ht="36" customHeight="1" spans="1:8">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -3903,7 +3899,7 @@
       <c r="G256" s="5"/>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" ht="18" customHeight="1" spans="1:8">
+    <row r="257" ht="36" customHeight="1" spans="1:8">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -3913,7 +3909,7 @@
       <c r="G257" s="5"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" ht="18" customHeight="1" spans="1:8">
+    <row r="258" ht="36" customHeight="1" spans="1:8">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -3923,7 +3919,7 @@
       <c r="G258" s="5"/>
       <c r="H258" s="4"/>
     </row>
-    <row r="259" ht="18" customHeight="1" spans="1:8">
+    <row r="259" ht="36" customHeight="1" spans="1:8">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -3933,7 +3929,7 @@
       <c r="G259" s="5"/>
       <c r="H259" s="4"/>
     </row>
-    <row r="260" ht="18" customHeight="1" spans="1:8">
+    <row r="260" ht="36" customHeight="1" spans="1:8">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -3943,7 +3939,7 @@
       <c r="G260" s="5"/>
       <c r="H260" s="4"/>
     </row>
-    <row r="261" ht="18" customHeight="1" spans="1:8">
+    <row r="261" ht="36" customHeight="1" spans="1:8">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -3953,7 +3949,7 @@
       <c r="G261" s="5"/>
       <c r="H261" s="4"/>
     </row>
-    <row r="262" ht="18" customHeight="1" spans="1:8">
+    <row r="262" ht="36" customHeight="1" spans="1:8">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -3963,7 +3959,7 @@
       <c r="G262" s="5"/>
       <c r="H262" s="4"/>
     </row>
-    <row r="263" ht="18" customHeight="1" spans="1:8">
+    <row r="263" ht="36" customHeight="1" spans="1:8">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -3973,7 +3969,7 @@
       <c r="G263" s="5"/>
       <c r="H263" s="4"/>
     </row>
-    <row r="264" ht="18" customHeight="1" spans="1:8">
+    <row r="264" ht="36" customHeight="1" spans="1:8">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -3983,7 +3979,7 @@
       <c r="G264" s="5"/>
       <c r="H264" s="4"/>
     </row>
-    <row r="265" ht="18" customHeight="1" spans="1:8">
+    <row r="265" ht="36" customHeight="1" spans="1:8">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -3993,7 +3989,7 @@
       <c r="G265" s="5"/>
       <c r="H265" s="4"/>
     </row>
-    <row r="266" ht="18" customHeight="1" spans="1:8">
+    <row r="266" ht="36" customHeight="1" spans="1:8">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -4003,7 +3999,7 @@
       <c r="G266" s="5"/>
       <c r="H266" s="4"/>
     </row>
-    <row r="267" ht="18" customHeight="1" spans="1:8">
+    <row r="267" ht="36" customHeight="1" spans="1:8">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -4013,7 +4009,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" ht="18" customHeight="1" spans="1:8">
+    <row r="268" ht="36" customHeight="1" spans="1:8">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -4023,7 +4019,7 @@
       <c r="G268" s="5"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" ht="18" customHeight="1" spans="1:8">
+    <row r="269" ht="36" customHeight="1" spans="1:8">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -4033,7 +4029,7 @@
       <c r="G269" s="5"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" ht="18" customHeight="1" spans="1:8">
+    <row r="270" ht="36" customHeight="1" spans="1:8">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -4043,7 +4039,7 @@
       <c r="G270" s="5"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" ht="18" customHeight="1" spans="1:8">
+    <row r="271" ht="36" customHeight="1" spans="1:8">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -4053,7 +4049,7 @@
       <c r="G271" s="5"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" ht="18" customHeight="1" spans="1:8">
+    <row r="272" ht="36" customHeight="1" spans="1:8">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -4063,7 +4059,7 @@
       <c r="G272" s="5"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" ht="18" customHeight="1" spans="1:8">
+    <row r="273" ht="36" customHeight="1" spans="1:8">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -4073,7 +4069,7 @@
       <c r="G273" s="5"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" ht="18" customHeight="1" spans="1:8">
+    <row r="274" ht="36" customHeight="1" spans="1:8">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -4083,7 +4079,7 @@
       <c r="G274" s="5"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" ht="18" customHeight="1" spans="1:8">
+    <row r="275" ht="36" customHeight="1" spans="1:8">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -4093,7 +4089,7 @@
       <c r="G275" s="5"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" ht="18" customHeight="1" spans="1:8">
+    <row r="276" ht="36" customHeight="1" spans="1:8">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -4103,7 +4099,7 @@
       <c r="G276" s="5"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" ht="18" customHeight="1" spans="1:8">
+    <row r="277" ht="36" customHeight="1" spans="1:8">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -4113,7 +4109,7 @@
       <c r="G277" s="5"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" ht="18" customHeight="1" spans="1:8">
+    <row r="278" ht="36" customHeight="1" spans="1:8">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -4123,7 +4119,7 @@
       <c r="G278" s="5"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" ht="18" customHeight="1" spans="1:8">
+    <row r="279" ht="36" customHeight="1" spans="1:8">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -4133,7 +4129,7 @@
       <c r="G279" s="5"/>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" ht="18" customHeight="1"/>
+    <row r="280" ht="36" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A5"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -53,16 +53,16 @@
     <t>说明</t>
   </si>
   <si>
-    <t>250718#000373L5(1)</t>
+    <t>250718#000373L5-1</t>
   </si>
   <si>
-    <t>240825#ST4000NE001-HDD-4T(2)</t>
+    <t>240825#ST4000NE001-HDD-4T-2</t>
   </si>
   <si>
-    <t>1177 GB</t>
+    <t>1.33 TB</t>
   </si>
   <si>
-    <t>2252.8 GB</t>
+    <t>2247 GB</t>
   </si>
   <si>
     <t>全盘备份</t>
@@ -71,14 +71,17 @@
     <t>最常用4T机械备份</t>
   </si>
   <si>
-    <t>250718#000038L5(1)</t>
+    <t>250718#000038L5-1</t>
+  </si>
+  <si>
+    <t>885.3 GB</t>
   </si>
   <si>
     <t>210301#MTFDHBA256TDV-SSD-256G
 210301#SN530-SSD-256G</t>
   </si>
   <si>
-    <t>476 GiB</t>
+    <t>390 GB</t>
   </si>
   <si>
     <t>21年旧笔电的两块固态备份</t>
@@ -1269,7 +1272,7 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1329,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="5">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -1343,11 +1346,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1359,22 +1364,22 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:8">
@@ -1385,7 +1390,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="H5" s="4"/>
     </row>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -53,13 +53,16 @@
     <t>说明</t>
   </si>
   <si>
+    <t>总文件 Hash（SHA256）</t>
+  </si>
+  <si>
     <t>250718#000373L5-1</t>
   </si>
   <si>
     <t>240825#ST4000NE001-HDD-4T-2</t>
   </si>
   <si>
-    <t>1.33 TB</t>
+    <t>1362 GB</t>
   </si>
   <si>
     <t>2247 GB</t>
@@ -68,7 +71,7 @@
     <t>全盘备份</t>
   </si>
   <si>
-    <t>最常用4T机械备份</t>
+    <t>最常用 4T 机械备份</t>
   </si>
   <si>
     <t>250718#000038L5-1</t>
@@ -84,7 +87,77 @@
     <t>390 GB</t>
   </si>
   <si>
-    <t>21年旧笔电的两块固态备份</t>
+    <t>21年旧笔电
+两块 256G 固态备份</t>
+  </si>
+  <si>
+    <t>250718#000054L5-1</t>
+  </si>
+  <si>
+    <t>250223#ST4000NE001-HDD-4T-3</t>
+  </si>
+  <si>
+    <t>1310.72 GB</t>
+  </si>
+  <si>
+    <t>1529.72 GB</t>
+  </si>
+  <si>
+    <t>增量备份</t>
+  </si>
+  <si>
+    <t>4T 机械冷备盘
+机械革命 1T 系统盘备份
+系统盘备份数据日期
+2025-02-23 到 2025-07-23</t>
+  </si>
+  <si>
+    <t>250718#000061L5-1</t>
+  </si>
+  <si>
+    <t>219 GB</t>
+  </si>
+  <si>
+    <t>250223#ST4000NE001-HDD-4T-1</t>
+  </si>
+  <si>
+    <t>~1116 GB</t>
+  </si>
+  <si>
+    <t>~2451 GB</t>
+  </si>
+  <si>
+    <t>台式 4T 机械备份</t>
+  </si>
+  <si>
+    <t>250718#000XXXL5-1</t>
+  </si>
+  <si>
+    <t>~1335 GB</t>
+  </si>
+  <si>
+    <t>240315#DMTC-NVME-512G</t>
+  </si>
+  <si>
+    <t>~512 GB</t>
+  </si>
+  <si>
+    <t>台式 512G 系统盘备份</t>
+  </si>
+  <si>
+    <t>200723#WECLONTNAS-RAID-2T</t>
+  </si>
+  <si>
+    <t>~823 GB</t>
+  </si>
+  <si>
+    <t>~ 2158 GB</t>
+  </si>
+  <si>
+    <t>旧 NAS 2T 机械备份</t>
+  </si>
+  <si>
+    <t>~ 1335 GB</t>
   </si>
 </sst>
 </file>
@@ -714,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +808,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1269,13 +1345,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
@@ -1284,9 +1360,10 @@
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="9" max="9" width="30.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
+    <row r="1" ht="36" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1311,43 +1388,47 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5">
         <v>45861</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -1355,116 +1436,200 @@
         <v>45861</v>
       </c>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:8">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45861</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:9">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5">
         <v>45861</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:9">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>45861</v>
+      </c>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" ht="36" customHeight="1" spans="1:8">
-      <c r="A8" s="4"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:9">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:9">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>45861</v>
+      </c>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" ht="36" customHeight="1" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" ht="36" customHeight="1" spans="1:8">
-      <c r="A11" s="4"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:9">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45861</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:9">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:9">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>45861</v>
+      </c>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" ht="36" customHeight="1" spans="1:8">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1473,8 +1638,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:8">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1483,8 +1649,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:8">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1493,8 +1660,9 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:8">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1503,8 +1671,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:8">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1513,8 +1682,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:8">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1523,8 +1693,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:8">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1533,8 +1704,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:8">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:9">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1543,8 +1715,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:8">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1553,8 +1726,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" ht="36" customHeight="1" spans="1:8">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:9">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1563,8 +1737,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" ht="36" customHeight="1" spans="1:8">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:9">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1573,8 +1748,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" ht="36" customHeight="1" spans="1:8">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:9">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1583,8 +1759,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" ht="36" customHeight="1" spans="1:8">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:9">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1593,8 +1770,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" ht="36" customHeight="1" spans="1:8">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:9">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1603,8 +1781,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" ht="36" customHeight="1" spans="1:8">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" ht="36" customHeight="1" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1613,8 +1792,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" ht="36" customHeight="1" spans="1:8">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" ht="36" customHeight="1" spans="1:9">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1623,8 +1803,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" ht="36" customHeight="1" spans="1:8">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" ht="36" customHeight="1" spans="1:9">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1633,8 +1814,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" ht="36" customHeight="1" spans="1:8">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" ht="36" customHeight="1" spans="1:9">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1643,8 +1825,9 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:8">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1653,8 +1836,9 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" ht="36" customHeight="1" spans="1:8">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" ht="36" customHeight="1" spans="1:9">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1663,8 +1847,9 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" ht="36" customHeight="1" spans="1:8">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" ht="36" customHeight="1" spans="1:9">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1673,8 +1858,9 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" ht="36" customHeight="1" spans="1:8">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="1:9">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1683,8 +1869,9 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" ht="36" customHeight="1" spans="1:8">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:9">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1693,8 +1880,9 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
-    </row>
-    <row r="36" ht="36" customHeight="1" spans="1:8">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:9">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1703,8 +1891,9 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" ht="36" customHeight="1" spans="1:8">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" ht="36" customHeight="1" spans="1:9">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1713,8 +1902,9 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" ht="36" customHeight="1" spans="1:8">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" ht="36" customHeight="1" spans="1:9">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1723,8 +1913,9 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" ht="36" customHeight="1" spans="1:8">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" ht="36" customHeight="1" spans="1:9">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1733,8 +1924,9 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" ht="36" customHeight="1" spans="1:8">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" ht="36" customHeight="1" spans="1:9">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1743,8 +1935,9 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" ht="36" customHeight="1" spans="1:8">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" ht="36" customHeight="1" spans="1:9">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1753,8 +1946,9 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" ht="36" customHeight="1" spans="1:8">
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" ht="36" customHeight="1" spans="1:9">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1763,8 +1957,9 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" ht="36" customHeight="1" spans="1:8">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:9">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1773,8 +1968,9 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
-    </row>
-    <row r="44" ht="36" customHeight="1" spans="1:8">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" ht="36" customHeight="1" spans="1:9">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1783,8 +1979,9 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" ht="36" customHeight="1" spans="1:8">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" ht="36" customHeight="1" spans="1:9">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1793,8 +1990,9 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
-    </row>
-    <row r="46" ht="36" customHeight="1" spans="1:8">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" ht="36" customHeight="1" spans="1:9">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1803,8 +2001,9 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
-    </row>
-    <row r="47" ht="36" customHeight="1" spans="1:8">
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" ht="36" customHeight="1" spans="1:9">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1813,8 +2012,9 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" ht="36" customHeight="1" spans="1:8">
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" ht="36" customHeight="1" spans="1:9">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1823,8 +2023,9 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" ht="36" customHeight="1" spans="1:8">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="1:9">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1833,8 +2034,9 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" ht="36" customHeight="1" spans="1:8">
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" ht="36" customHeight="1" spans="1:9">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1843,8 +2045,9 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" ht="36" customHeight="1" spans="1:8">
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" ht="36" customHeight="1" spans="1:9">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1853,8 +2056,9 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" ht="36" customHeight="1" spans="1:8">
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" ht="36" customHeight="1" spans="1:9">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1863,8 +2067,9 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-    </row>
-    <row r="53" ht="36" customHeight="1" spans="1:8">
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" ht="36" customHeight="1" spans="1:9">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1873,8 +2078,9 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" ht="36" customHeight="1" spans="1:8">
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" ht="36" customHeight="1" spans="1:9">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1883,8 +2089,9 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" ht="36" customHeight="1" spans="1:8">
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="1:9">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1893,8 +2100,9 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
-    </row>
-    <row r="56" ht="36" customHeight="1" spans="1:8">
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" ht="36" customHeight="1" spans="1:9">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1903,8 +2111,9 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" ht="36" customHeight="1" spans="1:8">
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" ht="36" customHeight="1" spans="1:9">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1913,8 +2122,9 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" ht="36" customHeight="1" spans="1:8">
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" ht="36" customHeight="1" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1923,8 +2133,9 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" ht="36" customHeight="1" spans="1:8">
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" ht="36" customHeight="1" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1933,8 +2144,9 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
-    </row>
-    <row r="60" ht="36" customHeight="1" spans="1:8">
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" ht="36" customHeight="1" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1943,8 +2155,9 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" ht="36" customHeight="1" spans="1:8">
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" ht="36" customHeight="1" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1953,8 +2166,9 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" ht="36" customHeight="1" spans="1:8">
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" ht="36" customHeight="1" spans="1:9">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1963,8 +2177,9 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" ht="36" customHeight="1" spans="1:8">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" ht="36" customHeight="1" spans="1:9">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1973,8 +2188,9 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" ht="36" customHeight="1" spans="1:8">
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" ht="36" customHeight="1" spans="1:9">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1983,8 +2199,9 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" ht="36" customHeight="1" spans="1:8">
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" ht="36" customHeight="1" spans="1:9">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1993,8 +2210,9 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" ht="36" customHeight="1" spans="1:8">
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" ht="36" customHeight="1" spans="1:9">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2003,8 +2221,9 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" ht="36" customHeight="1" spans="1:8">
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" ht="36" customHeight="1" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2013,8 +2232,9 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" ht="36" customHeight="1" spans="1:8">
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" ht="36" customHeight="1" spans="1:9">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2023,8 +2243,9 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" ht="36" customHeight="1" spans="1:8">
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" ht="36" customHeight="1" spans="1:9">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2033,8 +2254,9 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-    </row>
-    <row r="70" ht="36" customHeight="1" spans="1:8">
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" ht="36" customHeight="1" spans="1:9">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2043,8 +2265,9 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" ht="36" customHeight="1" spans="1:8">
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" ht="36" customHeight="1" spans="1:9">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2053,8 +2276,9 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" ht="36" customHeight="1" spans="1:8">
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" ht="36" customHeight="1" spans="1:9">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2063,8 +2287,9 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" ht="36" customHeight="1" spans="1:8">
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" ht="36" customHeight="1" spans="1:9">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2073,8 +2298,9 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" ht="36" customHeight="1" spans="1:8">
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" ht="36" customHeight="1" spans="1:9">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2083,8 +2309,9 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
-    </row>
-    <row r="75" ht="36" customHeight="1" spans="1:8">
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" ht="36" customHeight="1" spans="1:9">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2093,8 +2320,9 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" ht="36" customHeight="1" spans="1:8">
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" ht="36" customHeight="1" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2103,8 +2331,9 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
-    </row>
-    <row r="77" ht="36" customHeight="1" spans="1:8">
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" ht="36" customHeight="1" spans="1:9">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2113,8 +2342,9 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" ht="36" customHeight="1" spans="1:8">
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" ht="36" customHeight="1" spans="1:9">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2123,8 +2353,9 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" ht="36" customHeight="1" spans="1:8">
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" ht="36" customHeight="1" spans="1:9">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2133,8 +2364,9 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" ht="36" customHeight="1" spans="1:8">
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" ht="36" customHeight="1" spans="1:9">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2143,8 +2375,9 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" ht="36" customHeight="1" spans="1:8">
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" ht="36" customHeight="1" spans="1:9">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2153,8 +2386,9 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" ht="36" customHeight="1" spans="1:8">
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" ht="36" customHeight="1" spans="1:9">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2163,8 +2397,9 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
-    </row>
-    <row r="83" ht="36" customHeight="1" spans="1:8">
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" ht="36" customHeight="1" spans="1:9">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2173,8 +2408,9 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
-    </row>
-    <row r="84" ht="36" customHeight="1" spans="1:8">
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" ht="36" customHeight="1" spans="1:9">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2183,8 +2419,9 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
-    </row>
-    <row r="85" ht="36" customHeight="1" spans="1:8">
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" ht="36" customHeight="1" spans="1:9">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2193,8 +2430,9 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
-    </row>
-    <row r="86" ht="36" customHeight="1" spans="1:8">
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" ht="36" customHeight="1" spans="1:9">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2203,8 +2441,9 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" ht="36" customHeight="1" spans="1:8">
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" ht="36" customHeight="1" spans="1:9">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2213,8 +2452,9 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
-    </row>
-    <row r="88" ht="36" customHeight="1" spans="1:8">
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" ht="36" customHeight="1" spans="1:9">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2223,8 +2463,9 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
-    </row>
-    <row r="89" ht="36" customHeight="1" spans="1:8">
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" ht="36" customHeight="1" spans="1:9">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2233,8 +2474,9 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
-    </row>
-    <row r="90" ht="36" customHeight="1" spans="1:8">
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" ht="36" customHeight="1" spans="1:9">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2243,8 +2485,9 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
-    </row>
-    <row r="91" ht="36" customHeight="1" spans="1:8">
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" ht="36" customHeight="1" spans="1:9">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2253,8 +2496,9 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
-    </row>
-    <row r="92" ht="36" customHeight="1" spans="1:8">
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" ht="36" customHeight="1" spans="1:9">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2263,8 +2507,9 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
-    </row>
-    <row r="93" ht="36" customHeight="1" spans="1:8">
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" ht="36" customHeight="1" spans="1:9">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2273,8 +2518,9 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
-    </row>
-    <row r="94" ht="36" customHeight="1" spans="1:8">
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" ht="36" customHeight="1" spans="1:9">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2283,8 +2529,9 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
-    </row>
-    <row r="95" ht="36" customHeight="1" spans="1:8">
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" ht="36" customHeight="1" spans="1:9">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2293,8 +2540,9 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
-    </row>
-    <row r="96" ht="36" customHeight="1" spans="1:8">
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" ht="36" customHeight="1" spans="1:9">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2303,8 +2551,9 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
-    </row>
-    <row r="97" ht="36" customHeight="1" spans="1:8">
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" ht="36" customHeight="1" spans="1:9">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2313,8 +2562,9 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
-    </row>
-    <row r="98" ht="36" customHeight="1" spans="1:8">
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" ht="36" customHeight="1" spans="1:9">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2323,8 +2573,9 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="4"/>
-    </row>
-    <row r="99" ht="36" customHeight="1" spans="1:8">
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" ht="36" customHeight="1" spans="1:9">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2333,8 +2584,9 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="4"/>
-    </row>
-    <row r="100" ht="36" customHeight="1" spans="1:8">
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" ht="36" customHeight="1" spans="1:9">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2343,8 +2595,9 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="4"/>
-    </row>
-    <row r="101" ht="36" customHeight="1" spans="1:8">
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" ht="36" customHeight="1" spans="1:9">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2353,8 +2606,9 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="4"/>
-    </row>
-    <row r="102" ht="36" customHeight="1" spans="1:8">
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" ht="36" customHeight="1" spans="1:9">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2363,8 +2617,9 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="4"/>
-    </row>
-    <row r="103" ht="36" customHeight="1" spans="1:8">
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" ht="36" customHeight="1" spans="1:9">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2373,8 +2628,9 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="4"/>
-    </row>
-    <row r="104" ht="36" customHeight="1" spans="1:8">
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" ht="36" customHeight="1" spans="1:9">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2383,8 +2639,9 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
-    </row>
-    <row r="105" ht="36" customHeight="1" spans="1:8">
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" ht="36" customHeight="1" spans="1:9">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2393,8 +2650,9 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="4"/>
-    </row>
-    <row r="106" ht="36" customHeight="1" spans="1:8">
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" ht="36" customHeight="1" spans="1:9">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2403,8 +2661,9 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
-    </row>
-    <row r="107" ht="36" customHeight="1" spans="1:8">
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" ht="36" customHeight="1" spans="1:9">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2413,8 +2672,9 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="4"/>
-    </row>
-    <row r="108" ht="36" customHeight="1" spans="1:8">
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" ht="36" customHeight="1" spans="1:9">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2423,8 +2683,9 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="4"/>
-    </row>
-    <row r="109" ht="36" customHeight="1" spans="1:8">
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" ht="36" customHeight="1" spans="1:9">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2433,8 +2694,9 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="4"/>
-    </row>
-    <row r="110" ht="36" customHeight="1" spans="1:8">
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" ht="36" customHeight="1" spans="1:9">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2443,8 +2705,9 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="4"/>
-    </row>
-    <row r="111" ht="36" customHeight="1" spans="1:8">
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" ht="36" customHeight="1" spans="1:9">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2453,8 +2716,9 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="4"/>
-    </row>
-    <row r="112" ht="36" customHeight="1" spans="1:8">
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" ht="36" customHeight="1" spans="1:9">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2463,8 +2727,9 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="4"/>
-    </row>
-    <row r="113" ht="36" customHeight="1" spans="1:8">
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" ht="36" customHeight="1" spans="1:9">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2473,8 +2738,9 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="4"/>
-    </row>
-    <row r="114" ht="36" customHeight="1" spans="1:8">
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" ht="36" customHeight="1" spans="1:9">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2483,8 +2749,9 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="4"/>
-    </row>
-    <row r="115" ht="36" customHeight="1" spans="1:8">
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" ht="36" customHeight="1" spans="1:9">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2493,8 +2760,9 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="4"/>
-    </row>
-    <row r="116" ht="36" customHeight="1" spans="1:8">
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" ht="36" customHeight="1" spans="1:9">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2503,8 +2771,9 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="4"/>
-    </row>
-    <row r="117" ht="36" customHeight="1" spans="1:8">
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" ht="36" customHeight="1" spans="1:9">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2513,8 +2782,9 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="4"/>
-    </row>
-    <row r="118" ht="36" customHeight="1" spans="1:8">
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" ht="36" customHeight="1" spans="1:9">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2523,8 +2793,9 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="4"/>
-    </row>
-    <row r="119" ht="36" customHeight="1" spans="1:8">
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" ht="36" customHeight="1" spans="1:9">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2533,8 +2804,9 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="4"/>
-    </row>
-    <row r="120" ht="36" customHeight="1" spans="1:8">
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" ht="36" customHeight="1" spans="1:9">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2543,8 +2815,9 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="4"/>
-    </row>
-    <row r="121" ht="36" customHeight="1" spans="1:8">
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" ht="36" customHeight="1" spans="1:9">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2553,8 +2826,9 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="4"/>
-    </row>
-    <row r="122" ht="36" customHeight="1" spans="1:8">
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" ht="36" customHeight="1" spans="1:9">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2563,8 +2837,9 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="4"/>
-    </row>
-    <row r="123" ht="36" customHeight="1" spans="1:8">
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" ht="36" customHeight="1" spans="1:9">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2573,8 +2848,9 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="4"/>
-    </row>
-    <row r="124" ht="36" customHeight="1" spans="1:8">
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" ht="36" customHeight="1" spans="1:9">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2583,8 +2859,9 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="4"/>
-    </row>
-    <row r="125" ht="36" customHeight="1" spans="1:8">
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" ht="36" customHeight="1" spans="1:9">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2593,8 +2870,9 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="4"/>
-    </row>
-    <row r="126" ht="36" customHeight="1" spans="1:8">
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" ht="36" customHeight="1" spans="1:9">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2603,8 +2881,9 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="4"/>
-    </row>
-    <row r="127" ht="36" customHeight="1" spans="1:8">
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" ht="36" customHeight="1" spans="1:9">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2613,8 +2892,9 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="4"/>
-    </row>
-    <row r="128" ht="36" customHeight="1" spans="1:8">
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" ht="36" customHeight="1" spans="1:9">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2623,8 +2903,9 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="4"/>
-    </row>
-    <row r="129" ht="36" customHeight="1" spans="1:8">
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" ht="36" customHeight="1" spans="1:9">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2633,8 +2914,9 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="4"/>
-    </row>
-    <row r="130" ht="36" customHeight="1" spans="1:8">
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" ht="36" customHeight="1" spans="1:9">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2643,8 +2925,9 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="4"/>
-    </row>
-    <row r="131" ht="36" customHeight="1" spans="1:8">
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" ht="36" customHeight="1" spans="1:9">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2653,8 +2936,9 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="4"/>
-    </row>
-    <row r="132" ht="36" customHeight="1" spans="1:8">
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" ht="36" customHeight="1" spans="1:9">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2663,8 +2947,9 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="4"/>
-    </row>
-    <row r="133" ht="36" customHeight="1" spans="1:8">
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" ht="36" customHeight="1" spans="1:9">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2673,8 +2958,9 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="4"/>
-    </row>
-    <row r="134" ht="36" customHeight="1" spans="1:8">
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" ht="36" customHeight="1" spans="1:9">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2683,8 +2969,9 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="4"/>
-    </row>
-    <row r="135" ht="36" customHeight="1" spans="1:8">
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" ht="36" customHeight="1" spans="1:9">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2693,8 +2980,9 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="4"/>
-    </row>
-    <row r="136" ht="36" customHeight="1" spans="1:8">
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" ht="36" customHeight="1" spans="1:9">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2703,8 +2991,9 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="4"/>
-    </row>
-    <row r="137" ht="36" customHeight="1" spans="1:8">
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" ht="36" customHeight="1" spans="1:9">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2713,8 +3002,9 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="4"/>
-    </row>
-    <row r="138" ht="36" customHeight="1" spans="1:8">
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" ht="36" customHeight="1" spans="1:9">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2723,8 +3013,9 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="4"/>
-    </row>
-    <row r="139" ht="36" customHeight="1" spans="1:8">
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" ht="36" customHeight="1" spans="1:9">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2733,8 +3024,9 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="4"/>
-    </row>
-    <row r="140" ht="36" customHeight="1" spans="1:8">
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" ht="36" customHeight="1" spans="1:9">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2743,8 +3035,9 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="4"/>
-    </row>
-    <row r="141" ht="36" customHeight="1" spans="1:8">
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" ht="36" customHeight="1" spans="1:9">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2753,8 +3046,9 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="4"/>
-    </row>
-    <row r="142" ht="36" customHeight="1" spans="1:8">
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" ht="36" customHeight="1" spans="1:9">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2763,8 +3057,9 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="4"/>
-    </row>
-    <row r="143" ht="36" customHeight="1" spans="1:8">
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" ht="36" customHeight="1" spans="1:9">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2773,8 +3068,9 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="4"/>
-    </row>
-    <row r="144" ht="36" customHeight="1" spans="1:8">
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" ht="36" customHeight="1" spans="1:9">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2783,8 +3079,9 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="4"/>
-    </row>
-    <row r="145" ht="36" customHeight="1" spans="1:8">
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" ht="36" customHeight="1" spans="1:9">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2793,8 +3090,9 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="4"/>
-    </row>
-    <row r="146" ht="36" customHeight="1" spans="1:8">
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" ht="36" customHeight="1" spans="1:9">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2803,8 +3101,9 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="4"/>
-    </row>
-    <row r="147" ht="36" customHeight="1" spans="1:8">
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" ht="36" customHeight="1" spans="1:9">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2813,8 +3112,9 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="4"/>
-    </row>
-    <row r="148" ht="36" customHeight="1" spans="1:8">
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" ht="36" customHeight="1" spans="1:9">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2823,8 +3123,9 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="4"/>
-    </row>
-    <row r="149" ht="36" customHeight="1" spans="1:8">
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" ht="36" customHeight="1" spans="1:9">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2833,8 +3134,9 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="4"/>
-    </row>
-    <row r="150" ht="36" customHeight="1" spans="1:8">
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" ht="36" customHeight="1" spans="1:9">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2843,8 +3145,9 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="4"/>
-    </row>
-    <row r="151" ht="36" customHeight="1" spans="1:8">
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" ht="36" customHeight="1" spans="1:9">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2853,8 +3156,9 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="4"/>
-    </row>
-    <row r="152" ht="36" customHeight="1" spans="1:8">
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" ht="36" customHeight="1" spans="1:9">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2863,8 +3167,9 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="4"/>
-    </row>
-    <row r="153" ht="36" customHeight="1" spans="1:8">
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" ht="36" customHeight="1" spans="1:9">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2873,8 +3178,9 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="4"/>
-    </row>
-    <row r="154" ht="36" customHeight="1" spans="1:8">
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" ht="36" customHeight="1" spans="1:9">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2883,8 +3189,9 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="4"/>
-    </row>
-    <row r="155" ht="36" customHeight="1" spans="1:8">
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" ht="36" customHeight="1" spans="1:9">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2893,8 +3200,9 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="4"/>
-    </row>
-    <row r="156" ht="36" customHeight="1" spans="1:8">
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" ht="36" customHeight="1" spans="1:9">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2903,8 +3211,9 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="4"/>
-    </row>
-    <row r="157" ht="36" customHeight="1" spans="1:8">
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" ht="36" customHeight="1" spans="1:9">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2913,8 +3222,9 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="4"/>
-    </row>
-    <row r="158" ht="36" customHeight="1" spans="1:8">
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" ht="36" customHeight="1" spans="1:9">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2923,8 +3233,9 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="4"/>
-    </row>
-    <row r="159" ht="36" customHeight="1" spans="1:8">
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" ht="36" customHeight="1" spans="1:9">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2933,8 +3244,9 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="4"/>
-    </row>
-    <row r="160" ht="36" customHeight="1" spans="1:8">
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" ht="36" customHeight="1" spans="1:9">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2943,8 +3255,9 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="4"/>
-    </row>
-    <row r="161" ht="36" customHeight="1" spans="1:8">
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" ht="36" customHeight="1" spans="1:9">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2953,8 +3266,9 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="4"/>
-    </row>
-    <row r="162" ht="36" customHeight="1" spans="1:8">
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" ht="36" customHeight="1" spans="1:9">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2963,8 +3277,9 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="4"/>
-    </row>
-    <row r="163" ht="36" customHeight="1" spans="1:8">
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" ht="36" customHeight="1" spans="1:9">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2973,8 +3288,9 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="4"/>
-    </row>
-    <row r="164" ht="36" customHeight="1" spans="1:8">
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" ht="36" customHeight="1" spans="1:9">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -2983,8 +3299,9 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="4"/>
-    </row>
-    <row r="165" ht="36" customHeight="1" spans="1:8">
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" ht="36" customHeight="1" spans="1:9">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -2993,8 +3310,9 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
-    </row>
-    <row r="166" ht="36" customHeight="1" spans="1:8">
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" ht="36" customHeight="1" spans="1:9">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3003,8 +3321,9 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="4"/>
-    </row>
-    <row r="167" ht="36" customHeight="1" spans="1:8">
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" ht="36" customHeight="1" spans="1:9">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3013,8 +3332,9 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="4"/>
-    </row>
-    <row r="168" ht="36" customHeight="1" spans="1:8">
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" ht="36" customHeight="1" spans="1:9">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3023,8 +3343,9 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="4"/>
-    </row>
-    <row r="169" ht="36" customHeight="1" spans="1:8">
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" ht="36" customHeight="1" spans="1:9">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3033,8 +3354,9 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="4"/>
-    </row>
-    <row r="170" ht="36" customHeight="1" spans="1:8">
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" ht="36" customHeight="1" spans="1:9">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3043,8 +3365,9 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="4"/>
-    </row>
-    <row r="171" ht="36" customHeight="1" spans="1:8">
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" ht="36" customHeight="1" spans="1:9">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3053,8 +3376,9 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="4"/>
-    </row>
-    <row r="172" ht="36" customHeight="1" spans="1:8">
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" ht="36" customHeight="1" spans="1:9">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3063,8 +3387,9 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="4"/>
-    </row>
-    <row r="173" ht="36" customHeight="1" spans="1:8">
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" ht="36" customHeight="1" spans="1:9">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3073,8 +3398,9 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="4"/>
-    </row>
-    <row r="174" ht="36" customHeight="1" spans="1:8">
+      <c r="I173" s="7"/>
+    </row>
+    <row r="174" ht="36" customHeight="1" spans="1:9">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3083,8 +3409,9 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="4"/>
-    </row>
-    <row r="175" ht="36" customHeight="1" spans="1:8">
+      <c r="I174" s="7"/>
+    </row>
+    <row r="175" ht="36" customHeight="1" spans="1:9">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3093,8 +3420,9 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="4"/>
-    </row>
-    <row r="176" ht="36" customHeight="1" spans="1:8">
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" ht="36" customHeight="1" spans="1:9">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3103,8 +3431,9 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="4"/>
-    </row>
-    <row r="177" ht="36" customHeight="1" spans="1:8">
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" ht="36" customHeight="1" spans="1:9">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3113,8 +3442,9 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="4"/>
-    </row>
-    <row r="178" ht="36" customHeight="1" spans="1:8">
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" ht="36" customHeight="1" spans="1:9">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3123,8 +3453,9 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="4"/>
-    </row>
-    <row r="179" ht="36" customHeight="1" spans="1:8">
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" ht="36" customHeight="1" spans="1:9">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3133,8 +3464,9 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="4"/>
-    </row>
-    <row r="180" ht="36" customHeight="1" spans="1:8">
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" ht="36" customHeight="1" spans="1:9">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3143,8 +3475,9 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="4"/>
-    </row>
-    <row r="181" ht="36" customHeight="1" spans="1:8">
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" ht="36" customHeight="1" spans="1:9">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3153,8 +3486,9 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="4"/>
-    </row>
-    <row r="182" ht="36" customHeight="1" spans="1:8">
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" ht="36" customHeight="1" spans="1:9">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3163,8 +3497,9 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="4"/>
-    </row>
-    <row r="183" ht="36" customHeight="1" spans="1:8">
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" ht="36" customHeight="1" spans="1:9">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3173,8 +3508,9 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="4"/>
-    </row>
-    <row r="184" ht="36" customHeight="1" spans="1:8">
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" ht="36" customHeight="1" spans="1:9">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3183,8 +3519,9 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="4"/>
-    </row>
-    <row r="185" ht="36" customHeight="1" spans="1:8">
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" ht="36" customHeight="1" spans="1:9">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3193,8 +3530,9 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="4"/>
-    </row>
-    <row r="186" ht="36" customHeight="1" spans="1:8">
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" ht="36" customHeight="1" spans="1:9">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3203,8 +3541,9 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="4"/>
-    </row>
-    <row r="187" ht="36" customHeight="1" spans="1:8">
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" ht="36" customHeight="1" spans="1:9">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3213,8 +3552,9 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="4"/>
-    </row>
-    <row r="188" ht="36" customHeight="1" spans="1:8">
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" ht="36" customHeight="1" spans="1:9">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3223,8 +3563,9 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="4"/>
-    </row>
-    <row r="189" ht="36" customHeight="1" spans="1:8">
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" ht="36" customHeight="1" spans="1:9">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3233,8 +3574,9 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="4"/>
-    </row>
-    <row r="190" ht="36" customHeight="1" spans="1:8">
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" ht="36" customHeight="1" spans="1:9">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3243,8 +3585,9 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="4"/>
-    </row>
-    <row r="191" ht="36" customHeight="1" spans="1:8">
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" ht="36" customHeight="1" spans="1:9">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3253,8 +3596,9 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="4"/>
-    </row>
-    <row r="192" ht="36" customHeight="1" spans="1:8">
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" ht="36" customHeight="1" spans="1:9">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3263,8 +3607,9 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="4"/>
-    </row>
-    <row r="193" ht="36" customHeight="1" spans="1:8">
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" ht="36" customHeight="1" spans="1:9">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3273,8 +3618,9 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="4"/>
-    </row>
-    <row r="194" ht="36" customHeight="1" spans="1:8">
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" ht="36" customHeight="1" spans="1:9">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3283,8 +3629,9 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="4"/>
-    </row>
-    <row r="195" ht="36" customHeight="1" spans="1:8">
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" ht="36" customHeight="1" spans="1:9">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3293,8 +3640,9 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="4"/>
-    </row>
-    <row r="196" ht="36" customHeight="1" spans="1:8">
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" ht="36" customHeight="1" spans="1:9">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3303,8 +3651,9 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="4"/>
-    </row>
-    <row r="197" ht="36" customHeight="1" spans="1:8">
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" ht="36" customHeight="1" spans="1:9">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3313,8 +3662,9 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="4"/>
-    </row>
-    <row r="198" ht="36" customHeight="1" spans="1:8">
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" ht="36" customHeight="1" spans="1:9">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3323,8 +3673,9 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="4"/>
-    </row>
-    <row r="199" ht="36" customHeight="1" spans="1:8">
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" ht="36" customHeight="1" spans="1:9">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3333,8 +3684,9 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="4"/>
-    </row>
-    <row r="200" ht="36" customHeight="1" spans="1:8">
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" ht="36" customHeight="1" spans="1:9">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3343,8 +3695,9 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
-    </row>
-    <row r="201" ht="36" customHeight="1" spans="1:8">
+      <c r="I200" s="7"/>
+    </row>
+    <row r="201" ht="36" customHeight="1" spans="1:9">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3353,8 +3706,9 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
-    </row>
-    <row r="202" ht="36" customHeight="1" spans="1:8">
+      <c r="I201" s="7"/>
+    </row>
+    <row r="202" ht="36" customHeight="1" spans="1:9">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -3363,8 +3717,9 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="4"/>
-    </row>
-    <row r="203" ht="36" customHeight="1" spans="1:8">
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" ht="36" customHeight="1" spans="1:9">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -3373,8 +3728,9 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="4"/>
-    </row>
-    <row r="204" ht="36" customHeight="1" spans="1:8">
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" ht="36" customHeight="1" spans="1:9">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -3383,8 +3739,9 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="4"/>
-    </row>
-    <row r="205" ht="36" customHeight="1" spans="1:8">
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" ht="36" customHeight="1" spans="1:9">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -3393,8 +3750,9 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="4"/>
-    </row>
-    <row r="206" ht="36" customHeight="1" spans="1:8">
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" ht="36" customHeight="1" spans="1:9">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -3403,8 +3761,9 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
-    </row>
-    <row r="207" ht="36" customHeight="1" spans="1:8">
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" ht="36" customHeight="1" spans="1:9">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -3413,8 +3772,9 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
-    </row>
-    <row r="208" ht="36" customHeight="1" spans="1:8">
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" ht="36" customHeight="1" spans="1:9">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -3423,8 +3783,9 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
-    </row>
-    <row r="209" ht="36" customHeight="1" spans="1:8">
+      <c r="I208" s="7"/>
+    </row>
+    <row r="209" ht="36" customHeight="1" spans="1:9">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -3433,8 +3794,9 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
-    </row>
-    <row r="210" ht="36" customHeight="1" spans="1:8">
+      <c r="I209" s="7"/>
+    </row>
+    <row r="210" ht="36" customHeight="1" spans="1:9">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -3443,8 +3805,9 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="4"/>
-    </row>
-    <row r="211" ht="36" customHeight="1" spans="1:8">
+      <c r="I210" s="7"/>
+    </row>
+    <row r="211" ht="36" customHeight="1" spans="1:9">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -3453,8 +3816,9 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="4"/>
-    </row>
-    <row r="212" ht="36" customHeight="1" spans="1:8">
+      <c r="I211" s="7"/>
+    </row>
+    <row r="212" ht="36" customHeight="1" spans="1:9">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -3463,8 +3827,9 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="4"/>
-    </row>
-    <row r="213" ht="36" customHeight="1" spans="1:8">
+      <c r="I212" s="7"/>
+    </row>
+    <row r="213" ht="36" customHeight="1" spans="1:9">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -3473,8 +3838,9 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
-    </row>
-    <row r="214" ht="36" customHeight="1" spans="1:8">
+      <c r="I213" s="7"/>
+    </row>
+    <row r="214" ht="36" customHeight="1" spans="1:9">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -3483,8 +3849,9 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="4"/>
-    </row>
-    <row r="215" ht="36" customHeight="1" spans="1:8">
+      <c r="I214" s="7"/>
+    </row>
+    <row r="215" ht="36" customHeight="1" spans="1:9">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -3493,8 +3860,9 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="4"/>
-    </row>
-    <row r="216" ht="36" customHeight="1" spans="1:8">
+      <c r="I215" s="7"/>
+    </row>
+    <row r="216" ht="36" customHeight="1" spans="1:9">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -3503,8 +3871,9 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="4"/>
-    </row>
-    <row r="217" ht="36" customHeight="1" spans="1:8">
+      <c r="I216" s="7"/>
+    </row>
+    <row r="217" ht="36" customHeight="1" spans="1:9">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -3513,8 +3882,9 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="4"/>
-    </row>
-    <row r="218" ht="36" customHeight="1" spans="1:8">
+      <c r="I217" s="7"/>
+    </row>
+    <row r="218" ht="36" customHeight="1" spans="1:9">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -3523,8 +3893,9 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="4"/>
-    </row>
-    <row r="219" ht="36" customHeight="1" spans="1:8">
+      <c r="I218" s="7"/>
+    </row>
+    <row r="219" ht="36" customHeight="1" spans="1:9">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -3533,8 +3904,9 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="4"/>
-    </row>
-    <row r="220" ht="36" customHeight="1" spans="1:8">
+      <c r="I219" s="7"/>
+    </row>
+    <row r="220" ht="36" customHeight="1" spans="1:9">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -3543,8 +3915,9 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="4"/>
-    </row>
-    <row r="221" ht="36" customHeight="1" spans="1:8">
+      <c r="I220" s="7"/>
+    </row>
+    <row r="221" ht="36" customHeight="1" spans="1:9">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -3553,8 +3926,9 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="4"/>
-    </row>
-    <row r="222" ht="36" customHeight="1" spans="1:8">
+      <c r="I221" s="7"/>
+    </row>
+    <row r="222" ht="36" customHeight="1" spans="1:9">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -3563,8 +3937,9 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="4"/>
-    </row>
-    <row r="223" ht="36" customHeight="1" spans="1:8">
+      <c r="I222" s="7"/>
+    </row>
+    <row r="223" ht="36" customHeight="1" spans="1:9">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -3573,8 +3948,9 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="4"/>
-    </row>
-    <row r="224" ht="36" customHeight="1" spans="1:8">
+      <c r="I223" s="7"/>
+    </row>
+    <row r="224" ht="36" customHeight="1" spans="1:9">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -3583,8 +3959,9 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="4"/>
-    </row>
-    <row r="225" ht="36" customHeight="1" spans="1:8">
+      <c r="I224" s="7"/>
+    </row>
+    <row r="225" ht="36" customHeight="1" spans="1:9">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -3593,8 +3970,9 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="4"/>
-    </row>
-    <row r="226" ht="36" customHeight="1" spans="1:8">
+      <c r="I225" s="7"/>
+    </row>
+    <row r="226" ht="36" customHeight="1" spans="1:9">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -3603,8 +3981,9 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
       <c r="H226" s="4"/>
-    </row>
-    <row r="227" ht="36" customHeight="1" spans="1:8">
+      <c r="I226" s="7"/>
+    </row>
+    <row r="227" ht="36" customHeight="1" spans="1:9">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -3613,8 +3992,9 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="4"/>
-    </row>
-    <row r="228" ht="36" customHeight="1" spans="1:8">
+      <c r="I227" s="7"/>
+    </row>
+    <row r="228" ht="36" customHeight="1" spans="1:9">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -3623,8 +4003,9 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="4"/>
-    </row>
-    <row r="229" ht="36" customHeight="1" spans="1:8">
+      <c r="I228" s="7"/>
+    </row>
+    <row r="229" ht="36" customHeight="1" spans="1:9">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -3633,8 +4014,9 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="4"/>
-    </row>
-    <row r="230" ht="36" customHeight="1" spans="1:8">
+      <c r="I229" s="7"/>
+    </row>
+    <row r="230" ht="36" customHeight="1" spans="1:9">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -3643,8 +4025,9 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="4"/>
-    </row>
-    <row r="231" ht="36" customHeight="1" spans="1:8">
+      <c r="I230" s="7"/>
+    </row>
+    <row r="231" ht="36" customHeight="1" spans="1:9">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -3653,8 +4036,9 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="4"/>
-    </row>
-    <row r="232" ht="36" customHeight="1" spans="1:8">
+      <c r="I231" s="7"/>
+    </row>
+    <row r="232" ht="36" customHeight="1" spans="1:9">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -3663,8 +4047,9 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="4"/>
-    </row>
-    <row r="233" ht="36" customHeight="1" spans="1:8">
+      <c r="I232" s="7"/>
+    </row>
+    <row r="233" ht="36" customHeight="1" spans="1:9">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -3673,8 +4058,9 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="4"/>
-    </row>
-    <row r="234" ht="36" customHeight="1" spans="1:8">
+      <c r="I233" s="7"/>
+    </row>
+    <row r="234" ht="36" customHeight="1" spans="1:9">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -3683,8 +4069,9 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="4"/>
-    </row>
-    <row r="235" ht="36" customHeight="1" spans="1:8">
+      <c r="I234" s="7"/>
+    </row>
+    <row r="235" ht="36" customHeight="1" spans="1:9">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -3693,8 +4080,9 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="4"/>
-    </row>
-    <row r="236" ht="36" customHeight="1" spans="1:8">
+      <c r="I235" s="7"/>
+    </row>
+    <row r="236" ht="36" customHeight="1" spans="1:9">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -3703,8 +4091,9 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="4"/>
-    </row>
-    <row r="237" ht="36" customHeight="1" spans="1:8">
+      <c r="I236" s="7"/>
+    </row>
+    <row r="237" ht="36" customHeight="1" spans="1:9">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -3713,8 +4102,9 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="4"/>
-    </row>
-    <row r="238" ht="36" customHeight="1" spans="1:8">
+      <c r="I237" s="7"/>
+    </row>
+    <row r="238" ht="36" customHeight="1" spans="1:9">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -3723,8 +4113,9 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="4"/>
-    </row>
-    <row r="239" ht="36" customHeight="1" spans="1:8">
+      <c r="I238" s="7"/>
+    </row>
+    <row r="239" ht="36" customHeight="1" spans="1:9">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -3733,8 +4124,9 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="4"/>
-    </row>
-    <row r="240" ht="36" customHeight="1" spans="1:8">
+      <c r="I239" s="7"/>
+    </row>
+    <row r="240" ht="36" customHeight="1" spans="1:9">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -3743,8 +4135,9 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
       <c r="H240" s="4"/>
-    </row>
-    <row r="241" ht="36" customHeight="1" spans="1:8">
+      <c r="I240" s="7"/>
+    </row>
+    <row r="241" ht="36" customHeight="1" spans="1:9">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -3753,8 +4146,9 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="4"/>
-    </row>
-    <row r="242" ht="36" customHeight="1" spans="1:8">
+      <c r="I241" s="7"/>
+    </row>
+    <row r="242" ht="36" customHeight="1" spans="1:9">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -3763,8 +4157,9 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="4"/>
-    </row>
-    <row r="243" ht="36" customHeight="1" spans="1:8">
+      <c r="I242" s="7"/>
+    </row>
+    <row r="243" ht="36" customHeight="1" spans="1:9">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -3773,8 +4168,9 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="4"/>
-    </row>
-    <row r="244" ht="36" customHeight="1" spans="1:8">
+      <c r="I243" s="7"/>
+    </row>
+    <row r="244" ht="36" customHeight="1" spans="1:9">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -3783,8 +4179,9 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
       <c r="H244" s="4"/>
-    </row>
-    <row r="245" ht="36" customHeight="1" spans="1:8">
+      <c r="I244" s="7"/>
+    </row>
+    <row r="245" ht="36" customHeight="1" spans="1:9">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -3793,8 +4190,9 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="4"/>
-    </row>
-    <row r="246" ht="36" customHeight="1" spans="1:8">
+      <c r="I245" s="7"/>
+    </row>
+    <row r="246" ht="36" customHeight="1" spans="1:9">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -3803,8 +4201,9 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="4"/>
-    </row>
-    <row r="247" ht="36" customHeight="1" spans="1:8">
+      <c r="I246" s="7"/>
+    </row>
+    <row r="247" ht="36" customHeight="1" spans="1:9">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -3813,8 +4212,9 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="4"/>
-    </row>
-    <row r="248" ht="36" customHeight="1" spans="1:8">
+      <c r="I247" s="7"/>
+    </row>
+    <row r="248" ht="36" customHeight="1" spans="1:9">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -3823,8 +4223,9 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="4"/>
-    </row>
-    <row r="249" ht="36" customHeight="1" spans="1:8">
+      <c r="I248" s="7"/>
+    </row>
+    <row r="249" ht="36" customHeight="1" spans="1:9">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -3833,8 +4234,9 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="4"/>
-    </row>
-    <row r="250" ht="36" customHeight="1" spans="1:8">
+      <c r="I249" s="7"/>
+    </row>
+    <row r="250" ht="36" customHeight="1" spans="1:9">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -3843,8 +4245,9 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="4"/>
-    </row>
-    <row r="251" ht="36" customHeight="1" spans="1:8">
+      <c r="I250" s="7"/>
+    </row>
+    <row r="251" ht="36" customHeight="1" spans="1:9">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -3853,8 +4256,9 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="4"/>
-    </row>
-    <row r="252" ht="36" customHeight="1" spans="1:8">
+      <c r="I251" s="7"/>
+    </row>
+    <row r="252" ht="36" customHeight="1" spans="1:9">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -3863,8 +4267,9 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="4"/>
-    </row>
-    <row r="253" ht="36" customHeight="1" spans="1:8">
+      <c r="I252" s="7"/>
+    </row>
+    <row r="253" ht="36" customHeight="1" spans="1:9">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -3873,8 +4278,9 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
       <c r="H253" s="4"/>
-    </row>
-    <row r="254" ht="36" customHeight="1" spans="1:8">
+      <c r="I253" s="7"/>
+    </row>
+    <row r="254" ht="36" customHeight="1" spans="1:9">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -3883,8 +4289,9 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="4"/>
-    </row>
-    <row r="255" ht="36" customHeight="1" spans="1:8">
+      <c r="I254" s="7"/>
+    </row>
+    <row r="255" ht="36" customHeight="1" spans="1:9">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -3893,8 +4300,9 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="4"/>
-    </row>
-    <row r="256" ht="36" customHeight="1" spans="1:8">
+      <c r="I255" s="7"/>
+    </row>
+    <row r="256" ht="36" customHeight="1" spans="1:9">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -3903,8 +4311,9 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="4"/>
-    </row>
-    <row r="257" ht="36" customHeight="1" spans="1:8">
+      <c r="I256" s="7"/>
+    </row>
+    <row r="257" ht="36" customHeight="1" spans="1:9">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -3913,6 +4322,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="4"/>
+      <c r="I257" s="7"/>
     </row>
     <row r="258" ht="36" customHeight="1" spans="1:8">
       <c r="A258" s="4"/>
@@ -4136,18 +4546,35 @@
     </row>
     <row r="280" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="28">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -121,43 +121,52 @@
     <t>250223#ST4000NE001-HDD-4T-1</t>
   </si>
   <si>
-    <t>~1116 GB</t>
-  </si>
-  <si>
-    <t>~2451 GB</t>
+    <t>1023 GB</t>
   </si>
   <si>
     <t>台式 4T 机械备份</t>
   </si>
   <si>
-    <t>250718#000XXXL5-1</t>
-  </si>
-  <si>
-    <t>~1335 GB</t>
+    <t>250718#000127L5-1</t>
   </si>
   <si>
     <t>240315#DMTC-NVME-512G</t>
   </si>
   <si>
-    <t>~512 GB</t>
+    <t>329 GB</t>
   </si>
   <si>
     <t>台式 512G 系统盘备份</t>
   </si>
   <si>
-    <t>200723#WECLONTNAS-RAID-2T</t>
+    <t>200723#WECLONTNAS-RAID-3T</t>
   </si>
   <si>
-    <t>~823 GB</t>
+    <t>1092 GB</t>
   </si>
   <si>
-    <t>~ 2158 GB</t>
+    <t>2362.32 GB</t>
   </si>
   <si>
-    <t>旧 NAS 2T 机械备份</t>
+    <t>旧 NAS 3T 机械备份</t>
   </si>
   <si>
-    <t>~ 1335 GB</t>
+    <t>250718#000135L5-1</t>
+  </si>
+  <si>
+    <t>1356.32 GB</t>
+  </si>
+  <si>
+    <t>250718#000258L5-1</t>
+  </si>
+  <si>
+    <t>240805#ONEPLUSACE3-UFS-512G</t>
+  </si>
+  <si>
+    <t>~ 512 GB</t>
+  </si>
+  <si>
+    <t>OnePlus Ace 3 手机数据备份</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1530,14 +1539,14 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -1546,44 +1555,48 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="5">
         <v>45861</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:9">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5">
-        <v>45861</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7"/>
     </row>
@@ -1591,23 +1604,19 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>45862</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:9">
@@ -1615,18 +1624,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="5">
-        <v>45861</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>45862</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:9">
@@ -4313,7 +4330,7 @@
       <c r="H256" s="4"/>
       <c r="I256" s="7"/>
     </row>
-    <row r="257" ht="36" customHeight="1" spans="1:9">
+    <row r="257" ht="36" customHeight="1" spans="1:8">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -4322,7 +4339,6 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="4"/>
-      <c r="I257" s="7"/>
     </row>
     <row r="258" ht="36" customHeight="1" spans="1:8">
       <c r="A258" s="4"/>
@@ -4534,47 +4550,34 @@
       <c r="G278" s="5"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" ht="36" customHeight="1" spans="1:8">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="5"/>
-      <c r="G279" s="5"/>
-      <c r="H279" s="4"/>
-    </row>
-    <row r="280" ht="36" customHeight="1"/>
+    <row r="279" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -53,7 +53,10 @@
     <t>说明</t>
   </si>
   <si>
-    <t>总文件 Hash（SHA256）</t>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>SHA256</t>
   </si>
   <si>
     <t>250718#000373L5-1</t>
@@ -157,6 +160,10 @@
     <t>1356.32 GB</t>
   </si>
   <si>
+    <t>此磁带读取速度
+只有 90MB/s</t>
+  </si>
+  <si>
     <t>250718#000258L5-1</t>
   </si>
   <si>
@@ -166,7 +173,8 @@
     <t>~ 512 GB</t>
   </si>
   <si>
-    <t>OnePlus Ace 3 手机数据备份</t>
+    <t>OnePlus Ace 3
+手机数据备份</t>
   </si>
 </sst>
 </file>
@@ -1354,25 +1362,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
-    <col min="9" max="9" width="30.175" customWidth="1"/>
+    <col min="2" max="2" width="21.4916666666667" customWidth="1"/>
+    <col min="3" max="3" width="31.55" customWidth="1"/>
+    <col min="4" max="4" width="14.025" customWidth="1"/>
+    <col min="5" max="5" width="12.8083333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.3416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.0833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6" customWidth="1"/>
+    <col min="9" max="9" width="27.275" customWidth="1"/>
+    <col min="10" max="10" width="10.9666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:9">
+    <row r="1" ht="36" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,44 +1409,48 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5">
         <v>45861</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -1445,32 +1458,34 @@
         <v>45861</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:9">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1479,45 +1494,47 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:9">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:10">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5">
         <v>45861</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:10">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -1525,91 +1542,95 @@
         <v>45861</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" ht="36" customHeight="1" spans="1:9">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:10">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:10">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5">
         <v>45861</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="36" customHeight="1" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:10">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" ht="36" customHeight="1" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:10">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -1617,36 +1638,40 @@
         <v>45862</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:9">
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:10">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5">
         <v>45862</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" ht="36" customHeight="1" spans="1:9">
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1655,9 +1680,10 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:9">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1666,9 +1692,10 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:9">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:10">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1677,9 +1704,10 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:9">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:10">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1688,9 +1716,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:9">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1699,9 +1728,10 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:9">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:10">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1710,9 +1740,10 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:9">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1721,9 +1752,10 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:9">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1732,9 +1764,10 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:9">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1743,9 +1776,10 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" ht="36" customHeight="1" spans="1:9">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1754,9 +1788,10 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" ht="36" customHeight="1" spans="1:9">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1765,9 +1800,10 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" ht="36" customHeight="1" spans="1:9">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1776,9 +1812,10 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" ht="36" customHeight="1" spans="1:9">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1787,9 +1824,10 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" ht="36" customHeight="1" spans="1:9">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1798,9 +1836,10 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" ht="36" customHeight="1" spans="1:9">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" ht="36" customHeight="1" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1809,9 +1848,10 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" ht="36" customHeight="1" spans="1:9">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" ht="36" customHeight="1" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1820,9 +1860,10 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" ht="36" customHeight="1" spans="1:9">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" ht="36" customHeight="1" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1831,9 +1872,10 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" ht="36" customHeight="1" spans="1:9">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" ht="36" customHeight="1" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1842,9 +1884,10 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:9">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:10">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1853,9 +1896,10 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" ht="36" customHeight="1" spans="1:9">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" ht="36" customHeight="1" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1864,9 +1908,10 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" ht="36" customHeight="1" spans="1:9">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" ht="36" customHeight="1" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1875,9 +1920,10 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" ht="36" customHeight="1" spans="1:9">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1886,9 +1932,10 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" ht="36" customHeight="1" spans="1:9">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1897,9 +1944,10 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" ht="36" customHeight="1" spans="1:9">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1908,9 +1956,10 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" ht="36" customHeight="1" spans="1:9">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" ht="36" customHeight="1" spans="1:10">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1919,9 +1968,10 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" ht="36" customHeight="1" spans="1:9">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" ht="36" customHeight="1" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1930,9 +1980,10 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" ht="36" customHeight="1" spans="1:9">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" ht="36" customHeight="1" spans="1:10">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1941,9 +1992,10 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" ht="36" customHeight="1" spans="1:9">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" ht="36" customHeight="1" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1952,9 +2004,10 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" ht="36" customHeight="1" spans="1:9">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" ht="36" customHeight="1" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1963,9 +2016,10 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" ht="36" customHeight="1" spans="1:9">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" ht="36" customHeight="1" spans="1:10">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1974,9 +2028,10 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" ht="36" customHeight="1" spans="1:9">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:10">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1985,9 +2040,10 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" ht="36" customHeight="1" spans="1:9">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" ht="36" customHeight="1" spans="1:10">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1996,9 +2052,10 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" ht="36" customHeight="1" spans="1:9">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" ht="36" customHeight="1" spans="1:10">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2007,9 +2064,10 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" ht="36" customHeight="1" spans="1:9">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" ht="36" customHeight="1" spans="1:10">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2018,9 +2076,10 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" ht="36" customHeight="1" spans="1:9">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" ht="36" customHeight="1" spans="1:10">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2029,9 +2088,10 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" ht="36" customHeight="1" spans="1:9">
+      <c r="I47" s="4"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" ht="36" customHeight="1" spans="1:10">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2040,9 +2100,10 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" ht="36" customHeight="1" spans="1:9">
+      <c r="I48" s="4"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="1:10">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2051,9 +2112,10 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" ht="36" customHeight="1" spans="1:9">
+      <c r="I49" s="4"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" ht="36" customHeight="1" spans="1:10">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2062,9 +2124,10 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" ht="36" customHeight="1" spans="1:9">
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" ht="36" customHeight="1" spans="1:10">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2073,9 +2136,10 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" ht="36" customHeight="1" spans="1:9">
+      <c r="I51" s="4"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" ht="36" customHeight="1" spans="1:10">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2084,9 +2148,10 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" ht="36" customHeight="1" spans="1:9">
+      <c r="I52" s="4"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" ht="36" customHeight="1" spans="1:10">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2095,9 +2160,10 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" ht="36" customHeight="1" spans="1:9">
+      <c r="I53" s="4"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" ht="36" customHeight="1" spans="1:10">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2106,9 +2172,10 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" ht="36" customHeight="1" spans="1:9">
+      <c r="I54" s="4"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="1:10">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2117,9 +2184,10 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" ht="36" customHeight="1" spans="1:9">
+      <c r="I55" s="4"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" ht="36" customHeight="1" spans="1:10">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2128,9 +2196,10 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" ht="36" customHeight="1" spans="1:9">
+      <c r="I56" s="4"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" ht="36" customHeight="1" spans="1:10">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2139,9 +2208,10 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" ht="36" customHeight="1" spans="1:9">
+      <c r="I57" s="4"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" ht="36" customHeight="1" spans="1:10">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2150,9 +2220,10 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" ht="36" customHeight="1" spans="1:9">
+      <c r="I58" s="4"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" ht="36" customHeight="1" spans="1:10">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2161,9 +2232,10 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" ht="36" customHeight="1" spans="1:9">
+      <c r="I59" s="4"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" ht="36" customHeight="1" spans="1:10">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2172,9 +2244,10 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" ht="36" customHeight="1" spans="1:9">
+      <c r="I60" s="4"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" ht="36" customHeight="1" spans="1:10">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2183,9 +2256,10 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" ht="36" customHeight="1" spans="1:9">
+      <c r="I61" s="4"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" ht="36" customHeight="1" spans="1:10">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2194,9 +2268,10 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" ht="36" customHeight="1" spans="1:9">
+      <c r="I62" s="4"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" ht="36" customHeight="1" spans="1:10">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2205,9 +2280,10 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" ht="36" customHeight="1" spans="1:9">
+      <c r="I63" s="4"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" ht="36" customHeight="1" spans="1:10">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2216,9 +2292,10 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" ht="36" customHeight="1" spans="1:9">
+      <c r="I64" s="4"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" ht="36" customHeight="1" spans="1:10">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2227,9 +2304,10 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" ht="36" customHeight="1" spans="1:9">
+      <c r="I65" s="4"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" ht="36" customHeight="1" spans="1:10">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2238,9 +2316,10 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" ht="36" customHeight="1" spans="1:9">
+      <c r="I66" s="4"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" ht="36" customHeight="1" spans="1:10">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2249,9 +2328,10 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" ht="36" customHeight="1" spans="1:9">
+      <c r="I67" s="4"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" ht="36" customHeight="1" spans="1:10">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2260,9 +2340,10 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" ht="36" customHeight="1" spans="1:9">
+      <c r="I68" s="4"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" ht="36" customHeight="1" spans="1:10">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2271,9 +2352,10 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" ht="36" customHeight="1" spans="1:9">
+      <c r="I69" s="4"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" ht="36" customHeight="1" spans="1:10">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2282,9 +2364,10 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" ht="36" customHeight="1" spans="1:9">
+      <c r="I70" s="4"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" ht="36" customHeight="1" spans="1:10">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2293,9 +2376,10 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" ht="36" customHeight="1" spans="1:9">
+      <c r="I71" s="4"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" ht="36" customHeight="1" spans="1:10">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2304,9 +2388,10 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" ht="36" customHeight="1" spans="1:9">
+      <c r="I72" s="4"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" ht="36" customHeight="1" spans="1:10">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2315,9 +2400,10 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" ht="36" customHeight="1" spans="1:9">
+      <c r="I73" s="4"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" ht="36" customHeight="1" spans="1:10">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2326,9 +2412,10 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" ht="36" customHeight="1" spans="1:9">
+      <c r="I74" s="4"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" ht="36" customHeight="1" spans="1:10">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2337,9 +2424,10 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" ht="36" customHeight="1" spans="1:9">
+      <c r="I75" s="4"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" ht="36" customHeight="1" spans="1:10">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2348,9 +2436,10 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" ht="36" customHeight="1" spans="1:9">
+      <c r="I76" s="4"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" ht="36" customHeight="1" spans="1:10">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2359,9 +2448,10 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" ht="36" customHeight="1" spans="1:9">
+      <c r="I77" s="4"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" ht="36" customHeight="1" spans="1:10">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2370,9 +2460,10 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" ht="36" customHeight="1" spans="1:9">
+      <c r="I78" s="4"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" ht="36" customHeight="1" spans="1:10">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2381,9 +2472,10 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" ht="36" customHeight="1" spans="1:9">
+      <c r="I79" s="4"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" ht="36" customHeight="1" spans="1:10">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2392,9 +2484,10 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" ht="36" customHeight="1" spans="1:9">
+      <c r="I80" s="4"/>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" ht="36" customHeight="1" spans="1:10">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2403,9 +2496,10 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" ht="36" customHeight="1" spans="1:9">
+      <c r="I81" s="4"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" ht="36" customHeight="1" spans="1:10">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2414,9 +2508,10 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" ht="36" customHeight="1" spans="1:9">
+      <c r="I82" s="4"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" ht="36" customHeight="1" spans="1:10">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2425,9 +2520,10 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" ht="36" customHeight="1" spans="1:9">
+      <c r="I83" s="4"/>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" ht="36" customHeight="1" spans="1:10">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2436,9 +2532,10 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" ht="36" customHeight="1" spans="1:9">
+      <c r="I84" s="4"/>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" ht="36" customHeight="1" spans="1:10">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2447,9 +2544,10 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" ht="36" customHeight="1" spans="1:9">
+      <c r="I85" s="4"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" ht="36" customHeight="1" spans="1:10">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2458,9 +2556,10 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" ht="36" customHeight="1" spans="1:9">
+      <c r="I86" s="4"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" ht="36" customHeight="1" spans="1:10">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2469,9 +2568,10 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" ht="36" customHeight="1" spans="1:9">
+      <c r="I87" s="4"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" ht="36" customHeight="1" spans="1:10">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2480,9 +2580,10 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" ht="36" customHeight="1" spans="1:9">
+      <c r="I88" s="4"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" ht="36" customHeight="1" spans="1:10">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2491,9 +2592,10 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" ht="36" customHeight="1" spans="1:9">
+      <c r="I89" s="4"/>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" ht="36" customHeight="1" spans="1:10">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2502,9 +2604,10 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" ht="36" customHeight="1" spans="1:9">
+      <c r="I90" s="4"/>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" ht="36" customHeight="1" spans="1:10">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2513,9 +2616,10 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" ht="36" customHeight="1" spans="1:9">
+      <c r="I91" s="4"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" ht="36" customHeight="1" spans="1:10">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2524,9 +2628,10 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" ht="36" customHeight="1" spans="1:9">
+      <c r="I92" s="4"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" ht="36" customHeight="1" spans="1:10">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2535,9 +2640,10 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" ht="36" customHeight="1" spans="1:9">
+      <c r="I93" s="4"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" ht="36" customHeight="1" spans="1:10">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2546,9 +2652,10 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" ht="36" customHeight="1" spans="1:9">
+      <c r="I94" s="4"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" ht="36" customHeight="1" spans="1:10">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2557,9 +2664,10 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" ht="36" customHeight="1" spans="1:9">
+      <c r="I95" s="4"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" ht="36" customHeight="1" spans="1:10">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2568,9 +2676,10 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" ht="36" customHeight="1" spans="1:9">
+      <c r="I96" s="4"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" ht="36" customHeight="1" spans="1:10">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2579,9 +2688,10 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" ht="36" customHeight="1" spans="1:9">
+      <c r="I97" s="4"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" ht="36" customHeight="1" spans="1:10">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2590,9 +2700,10 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" ht="36" customHeight="1" spans="1:9">
+      <c r="I98" s="4"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" ht="36" customHeight="1" spans="1:10">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2601,9 +2712,10 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" ht="36" customHeight="1" spans="1:9">
+      <c r="I99" s="4"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" ht="36" customHeight="1" spans="1:10">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2612,9 +2724,10 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" ht="36" customHeight="1" spans="1:9">
+      <c r="I100" s="4"/>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" ht="36" customHeight="1" spans="1:10">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2623,9 +2736,10 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" ht="36" customHeight="1" spans="1:9">
+      <c r="I101" s="4"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" ht="36" customHeight="1" spans="1:10">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2634,9 +2748,10 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" ht="36" customHeight="1" spans="1:9">
+      <c r="I102" s="4"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" ht="36" customHeight="1" spans="1:10">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2645,9 +2760,10 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" ht="36" customHeight="1" spans="1:9">
+      <c r="I103" s="4"/>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" ht="36" customHeight="1" spans="1:10">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2656,9 +2772,10 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" ht="36" customHeight="1" spans="1:9">
+      <c r="I104" s="4"/>
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" ht="36" customHeight="1" spans="1:10">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2667,9 +2784,10 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" ht="36" customHeight="1" spans="1:9">
+      <c r="I105" s="4"/>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" ht="36" customHeight="1" spans="1:10">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2678,9 +2796,10 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" ht="36" customHeight="1" spans="1:9">
+      <c r="I106" s="4"/>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" ht="36" customHeight="1" spans="1:10">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2689,9 +2808,10 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" ht="36" customHeight="1" spans="1:9">
+      <c r="I107" s="4"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" ht="36" customHeight="1" spans="1:10">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2700,9 +2820,10 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" ht="36" customHeight="1" spans="1:9">
+      <c r="I108" s="4"/>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" ht="36" customHeight="1" spans="1:10">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2711,9 +2832,10 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" ht="36" customHeight="1" spans="1:9">
+      <c r="I109" s="4"/>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" ht="36" customHeight="1" spans="1:10">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2722,9 +2844,10 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" ht="36" customHeight="1" spans="1:9">
+      <c r="I110" s="4"/>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" ht="36" customHeight="1" spans="1:10">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2733,9 +2856,10 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" ht="36" customHeight="1" spans="1:9">
+      <c r="I111" s="4"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" ht="36" customHeight="1" spans="1:10">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2744,9 +2868,10 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" ht="36" customHeight="1" spans="1:9">
+      <c r="I112" s="4"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" ht="36" customHeight="1" spans="1:10">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2755,9 +2880,9 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" ht="36" customHeight="1" spans="1:9">
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" ht="36" customHeight="1" spans="1:10">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2766,9 +2891,9 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" ht="36" customHeight="1" spans="1:9">
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" ht="36" customHeight="1" spans="1:10">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2777,9 +2902,9 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" ht="36" customHeight="1" spans="1:9">
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" ht="36" customHeight="1" spans="1:10">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2788,9 +2913,9 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" ht="36" customHeight="1" spans="1:9">
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" ht="36" customHeight="1" spans="1:10">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2799,9 +2924,9 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" ht="36" customHeight="1" spans="1:9">
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" ht="36" customHeight="1" spans="1:10">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2810,9 +2935,9 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" ht="36" customHeight="1" spans="1:9">
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" ht="36" customHeight="1" spans="1:10">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2821,9 +2946,9 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" ht="36" customHeight="1" spans="1:9">
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" ht="36" customHeight="1" spans="1:10">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2832,9 +2957,9 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" ht="36" customHeight="1" spans="1:9">
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" ht="36" customHeight="1" spans="1:10">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2843,9 +2968,9 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" ht="36" customHeight="1" spans="1:9">
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" ht="36" customHeight="1" spans="1:10">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2854,9 +2979,9 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" ht="36" customHeight="1" spans="1:9">
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" ht="36" customHeight="1" spans="1:10">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2865,9 +2990,9 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" ht="36" customHeight="1" spans="1:9">
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" ht="36" customHeight="1" spans="1:10">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2876,9 +3001,9 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" ht="36" customHeight="1" spans="1:9">
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" ht="36" customHeight="1" spans="1:10">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2887,9 +3012,9 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="7"/>
-    </row>
-    <row r="126" ht="36" customHeight="1" spans="1:9">
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" ht="36" customHeight="1" spans="1:10">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2898,9 +3023,9 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="7"/>
-    </row>
-    <row r="127" ht="36" customHeight="1" spans="1:9">
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" ht="36" customHeight="1" spans="1:10">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2909,9 +3034,9 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" ht="36" customHeight="1" spans="1:9">
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" ht="36" customHeight="1" spans="1:10">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2920,9 +3045,9 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="7"/>
-    </row>
-    <row r="129" ht="36" customHeight="1" spans="1:9">
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" ht="36" customHeight="1" spans="1:10">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2931,9 +3056,9 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" ht="36" customHeight="1" spans="1:9">
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" ht="36" customHeight="1" spans="1:10">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2942,9 +3067,9 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" ht="36" customHeight="1" spans="1:9">
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" ht="36" customHeight="1" spans="1:10">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2953,9 +3078,9 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="7"/>
-    </row>
-    <row r="132" ht="36" customHeight="1" spans="1:9">
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" ht="36" customHeight="1" spans="1:10">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2964,9 +3089,9 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" ht="36" customHeight="1" spans="1:9">
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" ht="36" customHeight="1" spans="1:10">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2975,9 +3100,9 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="7"/>
-    </row>
-    <row r="134" ht="36" customHeight="1" spans="1:9">
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" ht="36" customHeight="1" spans="1:10">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2986,9 +3111,9 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="7"/>
-    </row>
-    <row r="135" ht="36" customHeight="1" spans="1:9">
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" ht="36" customHeight="1" spans="1:10">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2997,9 +3122,9 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" ht="36" customHeight="1" spans="1:9">
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" ht="36" customHeight="1" spans="1:10">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3008,9 +3133,9 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" ht="36" customHeight="1" spans="1:9">
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" ht="36" customHeight="1" spans="1:10">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3019,9 +3144,9 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="7"/>
-    </row>
-    <row r="138" ht="36" customHeight="1" spans="1:9">
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" ht="36" customHeight="1" spans="1:10">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3030,9 +3155,9 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" ht="36" customHeight="1" spans="1:9">
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" ht="36" customHeight="1" spans="1:10">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3041,9 +3166,9 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" ht="36" customHeight="1" spans="1:9">
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" ht="36" customHeight="1" spans="1:10">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3052,9 +3177,9 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" ht="36" customHeight="1" spans="1:9">
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" ht="36" customHeight="1" spans="1:10">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3063,9 +3188,9 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" ht="36" customHeight="1" spans="1:9">
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" ht="36" customHeight="1" spans="1:10">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3074,9 +3199,9 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" ht="36" customHeight="1" spans="1:9">
+      <c r="J142" s="7"/>
+    </row>
+    <row r="143" ht="36" customHeight="1" spans="1:10">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3085,9 +3210,9 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="7"/>
-    </row>
-    <row r="144" ht="36" customHeight="1" spans="1:9">
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" ht="36" customHeight="1" spans="1:10">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3096,9 +3221,9 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="7"/>
-    </row>
-    <row r="145" ht="36" customHeight="1" spans="1:9">
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" ht="36" customHeight="1" spans="1:10">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3107,9 +3232,9 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" ht="36" customHeight="1" spans="1:9">
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" ht="36" customHeight="1" spans="1:10">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3118,9 +3243,9 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" ht="36" customHeight="1" spans="1:9">
+      <c r="J146" s="7"/>
+    </row>
+    <row r="147" ht="36" customHeight="1" spans="1:10">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3129,9 +3254,9 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" ht="36" customHeight="1" spans="1:9">
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" ht="36" customHeight="1" spans="1:10">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3140,9 +3265,9 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" ht="36" customHeight="1" spans="1:9">
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" ht="36" customHeight="1" spans="1:10">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3151,9 +3276,9 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="7"/>
-    </row>
-    <row r="150" ht="36" customHeight="1" spans="1:9">
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" ht="36" customHeight="1" spans="1:10">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3162,9 +3287,9 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" ht="36" customHeight="1" spans="1:9">
+      <c r="J150" s="7"/>
+    </row>
+    <row r="151" ht="36" customHeight="1" spans="1:10">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3173,9 +3298,9 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" ht="36" customHeight="1" spans="1:9">
+      <c r="J151" s="7"/>
+    </row>
+    <row r="152" ht="36" customHeight="1" spans="1:10">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3184,9 +3309,9 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" ht="36" customHeight="1" spans="1:9">
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" ht="36" customHeight="1" spans="1:10">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3195,9 +3320,9 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="7"/>
-    </row>
-    <row r="154" ht="36" customHeight="1" spans="1:9">
+      <c r="J153" s="7"/>
+    </row>
+    <row r="154" ht="36" customHeight="1" spans="1:10">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3206,9 +3331,9 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" ht="36" customHeight="1" spans="1:9">
+      <c r="J154" s="7"/>
+    </row>
+    <row r="155" ht="36" customHeight="1" spans="1:10">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3217,9 +3342,9 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" ht="36" customHeight="1" spans="1:9">
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" ht="36" customHeight="1" spans="1:10">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3228,9 +3353,9 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="7"/>
-    </row>
-    <row r="157" ht="36" customHeight="1" spans="1:9">
+      <c r="J156" s="7"/>
+    </row>
+    <row r="157" ht="36" customHeight="1" spans="1:10">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3239,9 +3364,9 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" ht="36" customHeight="1" spans="1:9">
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" ht="36" customHeight="1" spans="1:10">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3250,9 +3375,9 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="7"/>
-    </row>
-    <row r="159" ht="36" customHeight="1" spans="1:9">
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" ht="36" customHeight="1" spans="1:10">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3261,9 +3386,9 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" ht="36" customHeight="1" spans="1:9">
+      <c r="J159" s="7"/>
+    </row>
+    <row r="160" ht="36" customHeight="1" spans="1:10">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3272,9 +3397,9 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" ht="36" customHeight="1" spans="1:9">
+      <c r="J160" s="7"/>
+    </row>
+    <row r="161" ht="36" customHeight="1" spans="1:10">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -3283,9 +3408,9 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" ht="36" customHeight="1" spans="1:9">
+      <c r="J161" s="7"/>
+    </row>
+    <row r="162" ht="36" customHeight="1" spans="1:10">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3294,9 +3419,9 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" ht="36" customHeight="1" spans="1:9">
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" ht="36" customHeight="1" spans="1:10">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -3305,9 +3430,9 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" ht="36" customHeight="1" spans="1:9">
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" ht="36" customHeight="1" spans="1:10">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -3316,9 +3441,9 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="7"/>
-    </row>
-    <row r="165" ht="36" customHeight="1" spans="1:9">
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" ht="36" customHeight="1" spans="1:10">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -3327,9 +3452,9 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="7"/>
-    </row>
-    <row r="166" ht="36" customHeight="1" spans="1:9">
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" ht="36" customHeight="1" spans="1:10">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3338,9 +3463,9 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="7"/>
-    </row>
-    <row r="167" ht="36" customHeight="1" spans="1:9">
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" ht="36" customHeight="1" spans="1:10">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3349,9 +3474,9 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="4"/>
-      <c r="I167" s="7"/>
-    </row>
-    <row r="168" ht="36" customHeight="1" spans="1:9">
+      <c r="J167" s="7"/>
+    </row>
+    <row r="168" ht="36" customHeight="1" spans="1:10">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3360,9 +3485,9 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" ht="36" customHeight="1" spans="1:9">
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" ht="36" customHeight="1" spans="1:10">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3371,9 +3496,9 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="4"/>
-      <c r="I169" s="7"/>
-    </row>
-    <row r="170" ht="36" customHeight="1" spans="1:9">
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" ht="36" customHeight="1" spans="1:10">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3382,9 +3507,9 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" ht="36" customHeight="1" spans="1:9">
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" ht="36" customHeight="1" spans="1:10">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3393,9 +3518,9 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="4"/>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" ht="36" customHeight="1" spans="1:9">
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" ht="36" customHeight="1" spans="1:10">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3404,9 +3529,9 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" ht="36" customHeight="1" spans="1:9">
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" ht="36" customHeight="1" spans="1:10">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3415,9 +3540,9 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="4"/>
-      <c r="I173" s="7"/>
-    </row>
-    <row r="174" ht="36" customHeight="1" spans="1:9">
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" ht="36" customHeight="1" spans="1:10">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3426,9 +3551,9 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="4"/>
-      <c r="I174" s="7"/>
-    </row>
-    <row r="175" ht="36" customHeight="1" spans="1:9">
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" ht="36" customHeight="1" spans="1:10">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3437,9 +3562,9 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="4"/>
-      <c r="I175" s="7"/>
-    </row>
-    <row r="176" ht="36" customHeight="1" spans="1:9">
+      <c r="J175" s="7"/>
+    </row>
+    <row r="176" ht="36" customHeight="1" spans="1:10">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3448,9 +3573,9 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="7"/>
-    </row>
-    <row r="177" ht="36" customHeight="1" spans="1:9">
+      <c r="J176" s="7"/>
+    </row>
+    <row r="177" ht="36" customHeight="1" spans="1:10">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3459,9 +3584,9 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" ht="36" customHeight="1" spans="1:9">
+      <c r="J177" s="7"/>
+    </row>
+    <row r="178" ht="36" customHeight="1" spans="1:10">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3470,9 +3595,9 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" ht="36" customHeight="1" spans="1:9">
+      <c r="J178" s="7"/>
+    </row>
+    <row r="179" ht="36" customHeight="1" spans="1:10">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3481,9 +3606,9 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" ht="36" customHeight="1" spans="1:9">
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" ht="36" customHeight="1" spans="1:10">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3492,9 +3617,9 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="7"/>
-    </row>
-    <row r="181" ht="36" customHeight="1" spans="1:9">
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181" ht="36" customHeight="1" spans="1:10">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3503,9 +3628,9 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="4"/>
-      <c r="I181" s="7"/>
-    </row>
-    <row r="182" ht="36" customHeight="1" spans="1:9">
+      <c r="J181" s="7"/>
+    </row>
+    <row r="182" ht="36" customHeight="1" spans="1:10">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3514,9 +3639,9 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" ht="36" customHeight="1" spans="1:9">
+      <c r="J182" s="7"/>
+    </row>
+    <row r="183" ht="36" customHeight="1" spans="1:10">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3525,9 +3650,9 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="4"/>
-      <c r="I183" s="7"/>
-    </row>
-    <row r="184" ht="36" customHeight="1" spans="1:9">
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" ht="36" customHeight="1" spans="1:10">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3536,9 +3661,9 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="7"/>
-    </row>
-    <row r="185" ht="36" customHeight="1" spans="1:9">
+      <c r="J184" s="7"/>
+    </row>
+    <row r="185" ht="36" customHeight="1" spans="1:10">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3547,9 +3672,9 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="7"/>
-    </row>
-    <row r="186" ht="36" customHeight="1" spans="1:9">
+      <c r="J185" s="7"/>
+    </row>
+    <row r="186" ht="36" customHeight="1" spans="1:10">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3558,9 +3683,9 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="7"/>
-    </row>
-    <row r="187" ht="36" customHeight="1" spans="1:9">
+      <c r="J186" s="7"/>
+    </row>
+    <row r="187" ht="36" customHeight="1" spans="1:10">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3569,9 +3694,9 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="7"/>
-    </row>
-    <row r="188" ht="36" customHeight="1" spans="1:9">
+      <c r="J187" s="7"/>
+    </row>
+    <row r="188" ht="36" customHeight="1" spans="1:10">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3580,9 +3705,9 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="7"/>
-    </row>
-    <row r="189" ht="36" customHeight="1" spans="1:9">
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" ht="36" customHeight="1" spans="1:10">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3591,9 +3716,9 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="4"/>
-      <c r="I189" s="7"/>
-    </row>
-    <row r="190" ht="36" customHeight="1" spans="1:9">
+      <c r="J189" s="7"/>
+    </row>
+    <row r="190" ht="36" customHeight="1" spans="1:10">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3602,9 +3727,9 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="7"/>
-    </row>
-    <row r="191" ht="36" customHeight="1" spans="1:9">
+      <c r="J190" s="7"/>
+    </row>
+    <row r="191" ht="36" customHeight="1" spans="1:10">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3613,9 +3738,9 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="4"/>
-      <c r="I191" s="7"/>
-    </row>
-    <row r="192" ht="36" customHeight="1" spans="1:9">
+      <c r="J191" s="7"/>
+    </row>
+    <row r="192" ht="36" customHeight="1" spans="1:10">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3624,9 +3749,9 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="4"/>
-      <c r="I192" s="7"/>
-    </row>
-    <row r="193" ht="36" customHeight="1" spans="1:9">
+      <c r="J192" s="7"/>
+    </row>
+    <row r="193" ht="36" customHeight="1" spans="1:10">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3635,9 +3760,9 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="4"/>
-      <c r="I193" s="7"/>
-    </row>
-    <row r="194" ht="36" customHeight="1" spans="1:9">
+      <c r="J193" s="7"/>
+    </row>
+    <row r="194" ht="36" customHeight="1" spans="1:10">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3646,9 +3771,9 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="7"/>
-    </row>
-    <row r="195" ht="36" customHeight="1" spans="1:9">
+      <c r="J194" s="7"/>
+    </row>
+    <row r="195" ht="36" customHeight="1" spans="1:10">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3657,9 +3782,9 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="7"/>
-    </row>
-    <row r="196" ht="36" customHeight="1" spans="1:9">
+      <c r="J195" s="7"/>
+    </row>
+    <row r="196" ht="36" customHeight="1" spans="1:10">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3668,9 +3793,9 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="7"/>
-    </row>
-    <row r="197" ht="36" customHeight="1" spans="1:9">
+      <c r="J196" s="7"/>
+    </row>
+    <row r="197" ht="36" customHeight="1" spans="1:10">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3679,9 +3804,9 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="4"/>
-      <c r="I197" s="7"/>
-    </row>
-    <row r="198" ht="36" customHeight="1" spans="1:9">
+      <c r="J197" s="7"/>
+    </row>
+    <row r="198" ht="36" customHeight="1" spans="1:10">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3690,9 +3815,9 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="7"/>
-    </row>
-    <row r="199" ht="36" customHeight="1" spans="1:9">
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" ht="36" customHeight="1" spans="1:10">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3701,9 +3826,9 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="4"/>
-      <c r="I199" s="7"/>
-    </row>
-    <row r="200" ht="36" customHeight="1" spans="1:9">
+      <c r="J199" s="7"/>
+    </row>
+    <row r="200" ht="36" customHeight="1" spans="1:10">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3712,9 +3837,9 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="7"/>
-    </row>
-    <row r="201" ht="36" customHeight="1" spans="1:9">
+      <c r="J200" s="7"/>
+    </row>
+    <row r="201" ht="36" customHeight="1" spans="1:10">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3723,9 +3848,9 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
-      <c r="I201" s="7"/>
-    </row>
-    <row r="202" ht="36" customHeight="1" spans="1:9">
+      <c r="J201" s="7"/>
+    </row>
+    <row r="202" ht="36" customHeight="1" spans="1:10">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -3734,9 +3859,9 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="4"/>
-      <c r="I202" s="7"/>
-    </row>
-    <row r="203" ht="36" customHeight="1" spans="1:9">
+      <c r="J202" s="7"/>
+    </row>
+    <row r="203" ht="36" customHeight="1" spans="1:10">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -3745,9 +3870,9 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="4"/>
-      <c r="I203" s="7"/>
-    </row>
-    <row r="204" ht="36" customHeight="1" spans="1:9">
+      <c r="J203" s="7"/>
+    </row>
+    <row r="204" ht="36" customHeight="1" spans="1:10">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -3756,9 +3881,9 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="4"/>
-      <c r="I204" s="7"/>
-    </row>
-    <row r="205" ht="36" customHeight="1" spans="1:9">
+      <c r="J204" s="7"/>
+    </row>
+    <row r="205" ht="36" customHeight="1" spans="1:10">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -3767,9 +3892,9 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="4"/>
-      <c r="I205" s="7"/>
-    </row>
-    <row r="206" ht="36" customHeight="1" spans="1:9">
+      <c r="J205" s="7"/>
+    </row>
+    <row r="206" ht="36" customHeight="1" spans="1:10">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -3778,9 +3903,9 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
-      <c r="I206" s="7"/>
-    </row>
-    <row r="207" ht="36" customHeight="1" spans="1:9">
+      <c r="J206" s="7"/>
+    </row>
+    <row r="207" ht="36" customHeight="1" spans="1:10">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -3789,9 +3914,9 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
-      <c r="I207" s="7"/>
-    </row>
-    <row r="208" ht="36" customHeight="1" spans="1:9">
+      <c r="J207" s="7"/>
+    </row>
+    <row r="208" ht="36" customHeight="1" spans="1:10">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -3800,9 +3925,9 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="7"/>
-    </row>
-    <row r="209" ht="36" customHeight="1" spans="1:9">
+      <c r="J208" s="7"/>
+    </row>
+    <row r="209" ht="36" customHeight="1" spans="1:10">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -3811,9 +3936,9 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
-      <c r="I209" s="7"/>
-    </row>
-    <row r="210" ht="36" customHeight="1" spans="1:9">
+      <c r="J209" s="7"/>
+    </row>
+    <row r="210" ht="36" customHeight="1" spans="1:10">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -3822,9 +3947,9 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="4"/>
-      <c r="I210" s="7"/>
-    </row>
-    <row r="211" ht="36" customHeight="1" spans="1:9">
+      <c r="J210" s="7"/>
+    </row>
+    <row r="211" ht="36" customHeight="1" spans="1:10">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -3833,9 +3958,9 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="4"/>
-      <c r="I211" s="7"/>
-    </row>
-    <row r="212" ht="36" customHeight="1" spans="1:9">
+      <c r="J211" s="7"/>
+    </row>
+    <row r="212" ht="36" customHeight="1" spans="1:10">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -3844,9 +3969,9 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="4"/>
-      <c r="I212" s="7"/>
-    </row>
-    <row r="213" ht="36" customHeight="1" spans="1:9">
+      <c r="J212" s="7"/>
+    </row>
+    <row r="213" ht="36" customHeight="1" spans="1:10">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -3855,9 +3980,9 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
-      <c r="I213" s="7"/>
-    </row>
-    <row r="214" ht="36" customHeight="1" spans="1:9">
+      <c r="J213" s="7"/>
+    </row>
+    <row r="214" ht="36" customHeight="1" spans="1:10">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -3866,9 +3991,9 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="7"/>
-    </row>
-    <row r="215" ht="36" customHeight="1" spans="1:9">
+      <c r="J214" s="7"/>
+    </row>
+    <row r="215" ht="36" customHeight="1" spans="1:10">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -3877,9 +4002,9 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="4"/>
-      <c r="I215" s="7"/>
-    </row>
-    <row r="216" ht="36" customHeight="1" spans="1:9">
+      <c r="J215" s="7"/>
+    </row>
+    <row r="216" ht="36" customHeight="1" spans="1:10">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -3888,9 +4013,9 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="4"/>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" ht="36" customHeight="1" spans="1:9">
+      <c r="J216" s="7"/>
+    </row>
+    <row r="217" ht="36" customHeight="1" spans="1:10">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -3899,9 +4024,9 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="4"/>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="218" ht="36" customHeight="1" spans="1:9">
+      <c r="J217" s="7"/>
+    </row>
+    <row r="218" ht="36" customHeight="1" spans="1:10">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -3910,9 +4035,9 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="4"/>
-      <c r="I218" s="7"/>
-    </row>
-    <row r="219" ht="36" customHeight="1" spans="1:9">
+      <c r="J218" s="7"/>
+    </row>
+    <row r="219" ht="36" customHeight="1" spans="1:10">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -3921,9 +4046,9 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="4"/>
-      <c r="I219" s="7"/>
-    </row>
-    <row r="220" ht="36" customHeight="1" spans="1:9">
+      <c r="J219" s="7"/>
+    </row>
+    <row r="220" ht="36" customHeight="1" spans="1:10">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -3932,9 +4057,9 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="4"/>
-      <c r="I220" s="7"/>
-    </row>
-    <row r="221" ht="36" customHeight="1" spans="1:9">
+      <c r="J220" s="7"/>
+    </row>
+    <row r="221" ht="36" customHeight="1" spans="1:10">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -3943,9 +4068,9 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="4"/>
-      <c r="I221" s="7"/>
-    </row>
-    <row r="222" ht="36" customHeight="1" spans="1:9">
+      <c r="J221" s="7"/>
+    </row>
+    <row r="222" ht="36" customHeight="1" spans="1:10">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -3954,9 +4079,9 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="4"/>
-      <c r="I222" s="7"/>
-    </row>
-    <row r="223" ht="36" customHeight="1" spans="1:9">
+      <c r="J222" s="7"/>
+    </row>
+    <row r="223" ht="36" customHeight="1" spans="1:10">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -3965,9 +4090,9 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="4"/>
-      <c r="I223" s="7"/>
-    </row>
-    <row r="224" ht="36" customHeight="1" spans="1:9">
+      <c r="J223" s="7"/>
+    </row>
+    <row r="224" ht="36" customHeight="1" spans="1:10">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -3976,9 +4101,9 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="4"/>
-      <c r="I224" s="7"/>
-    </row>
-    <row r="225" ht="36" customHeight="1" spans="1:9">
+      <c r="J224" s="7"/>
+    </row>
+    <row r="225" ht="36" customHeight="1" spans="1:10">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -3987,9 +4112,9 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="4"/>
-      <c r="I225" s="7"/>
-    </row>
-    <row r="226" ht="36" customHeight="1" spans="1:9">
+      <c r="J225" s="7"/>
+    </row>
+    <row r="226" ht="36" customHeight="1" spans="1:10">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -3998,9 +4123,9 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
       <c r="H226" s="4"/>
-      <c r="I226" s="7"/>
-    </row>
-    <row r="227" ht="36" customHeight="1" spans="1:9">
+      <c r="J226" s="7"/>
+    </row>
+    <row r="227" ht="36" customHeight="1" spans="1:10">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -4009,9 +4134,9 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="4"/>
-      <c r="I227" s="7"/>
-    </row>
-    <row r="228" ht="36" customHeight="1" spans="1:9">
+      <c r="J227" s="7"/>
+    </row>
+    <row r="228" ht="36" customHeight="1" spans="1:10">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -4020,9 +4145,9 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="4"/>
-      <c r="I228" s="7"/>
-    </row>
-    <row r="229" ht="36" customHeight="1" spans="1:9">
+      <c r="J228" s="7"/>
+    </row>
+    <row r="229" ht="36" customHeight="1" spans="1:10">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -4031,9 +4156,9 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="4"/>
-      <c r="I229" s="7"/>
-    </row>
-    <row r="230" ht="36" customHeight="1" spans="1:9">
+      <c r="J229" s="7"/>
+    </row>
+    <row r="230" ht="36" customHeight="1" spans="1:10">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -4042,9 +4167,9 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="4"/>
-      <c r="I230" s="7"/>
-    </row>
-    <row r="231" ht="36" customHeight="1" spans="1:9">
+      <c r="J230" s="7"/>
+    </row>
+    <row r="231" ht="36" customHeight="1" spans="1:10">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -4053,9 +4178,9 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="4"/>
-      <c r="I231" s="7"/>
-    </row>
-    <row r="232" ht="36" customHeight="1" spans="1:9">
+      <c r="J231" s="7"/>
+    </row>
+    <row r="232" ht="36" customHeight="1" spans="1:10">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -4064,9 +4189,9 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="4"/>
-      <c r="I232" s="7"/>
-    </row>
-    <row r="233" ht="36" customHeight="1" spans="1:9">
+      <c r="J232" s="7"/>
+    </row>
+    <row r="233" ht="36" customHeight="1" spans="1:10">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -4075,9 +4200,9 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="4"/>
-      <c r="I233" s="7"/>
-    </row>
-    <row r="234" ht="36" customHeight="1" spans="1:9">
+      <c r="J233" s="7"/>
+    </row>
+    <row r="234" ht="36" customHeight="1" spans="1:10">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -4086,9 +4211,9 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="4"/>
-      <c r="I234" s="7"/>
-    </row>
-    <row r="235" ht="36" customHeight="1" spans="1:9">
+      <c r="J234" s="7"/>
+    </row>
+    <row r="235" ht="36" customHeight="1" spans="1:10">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -4097,9 +4222,9 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="4"/>
-      <c r="I235" s="7"/>
-    </row>
-    <row r="236" ht="36" customHeight="1" spans="1:9">
+      <c r="J235" s="7"/>
+    </row>
+    <row r="236" ht="36" customHeight="1" spans="1:10">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -4108,9 +4233,9 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="4"/>
-      <c r="I236" s="7"/>
-    </row>
-    <row r="237" ht="36" customHeight="1" spans="1:9">
+      <c r="J236" s="7"/>
+    </row>
+    <row r="237" ht="36" customHeight="1" spans="1:10">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -4119,9 +4244,9 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="4"/>
-      <c r="I237" s="7"/>
-    </row>
-    <row r="238" ht="36" customHeight="1" spans="1:9">
+      <c r="J237" s="7"/>
+    </row>
+    <row r="238" ht="36" customHeight="1" spans="1:10">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -4130,9 +4255,9 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="4"/>
-      <c r="I238" s="7"/>
-    </row>
-    <row r="239" ht="36" customHeight="1" spans="1:9">
+      <c r="J238" s="7"/>
+    </row>
+    <row r="239" ht="36" customHeight="1" spans="1:10">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -4141,9 +4266,9 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="4"/>
-      <c r="I239" s="7"/>
-    </row>
-    <row r="240" ht="36" customHeight="1" spans="1:9">
+      <c r="J239" s="7"/>
+    </row>
+    <row r="240" ht="36" customHeight="1" spans="1:10">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -4152,9 +4277,9 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
       <c r="H240" s="4"/>
-      <c r="I240" s="7"/>
-    </row>
-    <row r="241" ht="36" customHeight="1" spans="1:9">
+      <c r="J240" s="7"/>
+    </row>
+    <row r="241" ht="36" customHeight="1" spans="1:10">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -4163,9 +4288,9 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="4"/>
-      <c r="I241" s="7"/>
-    </row>
-    <row r="242" ht="36" customHeight="1" spans="1:9">
+      <c r="J241" s="7"/>
+    </row>
+    <row r="242" ht="36" customHeight="1" spans="1:10">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -4174,9 +4299,9 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="4"/>
-      <c r="I242" s="7"/>
-    </row>
-    <row r="243" ht="36" customHeight="1" spans="1:9">
+      <c r="J242" s="7"/>
+    </row>
+    <row r="243" ht="36" customHeight="1" spans="1:10">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -4185,9 +4310,9 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="4"/>
-      <c r="I243" s="7"/>
-    </row>
-    <row r="244" ht="36" customHeight="1" spans="1:9">
+      <c r="J243" s="7"/>
+    </row>
+    <row r="244" ht="36" customHeight="1" spans="1:10">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -4196,9 +4321,9 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
       <c r="H244" s="4"/>
-      <c r="I244" s="7"/>
-    </row>
-    <row r="245" ht="36" customHeight="1" spans="1:9">
+      <c r="J244" s="7"/>
+    </row>
+    <row r="245" ht="36" customHeight="1" spans="1:10">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -4207,9 +4332,9 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="4"/>
-      <c r="I245" s="7"/>
-    </row>
-    <row r="246" ht="36" customHeight="1" spans="1:9">
+      <c r="J245" s="7"/>
+    </row>
+    <row r="246" ht="36" customHeight="1" spans="1:10">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -4218,9 +4343,9 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="4"/>
-      <c r="I246" s="7"/>
-    </row>
-    <row r="247" ht="36" customHeight="1" spans="1:9">
+      <c r="J246" s="7"/>
+    </row>
+    <row r="247" ht="36" customHeight="1" spans="1:10">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -4229,9 +4354,9 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="4"/>
-      <c r="I247" s="7"/>
-    </row>
-    <row r="248" ht="36" customHeight="1" spans="1:9">
+      <c r="J247" s="7"/>
+    </row>
+    <row r="248" ht="36" customHeight="1" spans="1:10">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -4240,9 +4365,9 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="4"/>
-      <c r="I248" s="7"/>
-    </row>
-    <row r="249" ht="36" customHeight="1" spans="1:9">
+      <c r="J248" s="7"/>
+    </row>
+    <row r="249" ht="36" customHeight="1" spans="1:10">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -4251,9 +4376,9 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="4"/>
-      <c r="I249" s="7"/>
-    </row>
-    <row r="250" ht="36" customHeight="1" spans="1:9">
+      <c r="J249" s="7"/>
+    </row>
+    <row r="250" ht="36" customHeight="1" spans="1:10">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -4262,9 +4387,9 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="4"/>
-      <c r="I250" s="7"/>
-    </row>
-    <row r="251" ht="36" customHeight="1" spans="1:9">
+      <c r="J250" s="7"/>
+    </row>
+    <row r="251" ht="36" customHeight="1" spans="1:10">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -4273,9 +4398,9 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="4"/>
-      <c r="I251" s="7"/>
-    </row>
-    <row r="252" ht="36" customHeight="1" spans="1:9">
+      <c r="J251" s="7"/>
+    </row>
+    <row r="252" ht="36" customHeight="1" spans="1:10">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -4284,9 +4409,9 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="4"/>
-      <c r="I252" s="7"/>
-    </row>
-    <row r="253" ht="36" customHeight="1" spans="1:9">
+      <c r="J252" s="7"/>
+    </row>
+    <row r="253" ht="36" customHeight="1" spans="1:10">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -4295,9 +4420,9 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
       <c r="H253" s="4"/>
-      <c r="I253" s="7"/>
-    </row>
-    <row r="254" ht="36" customHeight="1" spans="1:9">
+      <c r="J253" s="7"/>
+    </row>
+    <row r="254" ht="36" customHeight="1" spans="1:10">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -4306,9 +4431,9 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="4"/>
-      <c r="I254" s="7"/>
-    </row>
-    <row r="255" ht="36" customHeight="1" spans="1:9">
+      <c r="J254" s="7"/>
+    </row>
+    <row r="255" ht="36" customHeight="1" spans="1:10">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -4317,9 +4442,9 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="4"/>
-      <c r="I255" s="7"/>
-    </row>
-    <row r="256" ht="36" customHeight="1" spans="1:9">
+      <c r="J255" s="7"/>
+    </row>
+    <row r="256" ht="36" customHeight="1" spans="1:10">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -4328,7 +4453,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="4"/>
-      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
     </row>
     <row r="257" ht="36" customHeight="1" spans="1:8">
       <c r="A257" s="4"/>
@@ -4552,7 +4677,7 @@
     </row>
     <row r="279" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
@@ -4577,7 +4702,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,57 +27,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>备份源</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>总大小</t>
+  </si>
+  <si>
     <t>磁带编号</t>
   </si>
   <si>
-    <t>备份源</t>
-  </si>
-  <si>
-    <t>已复制数据的大小</t>
-  </si>
-  <si>
-    <t>总大小</t>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>数据大小</t>
+  </si>
+  <si>
+    <t>分段大小</t>
   </si>
   <si>
     <t>最后一次倒带时间</t>
   </si>
   <si>
-    <t>说明</t>
+    <t>SHA256</t>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
-    <t>SHA256</t>
+    <t>240825#ST4000NE001-HDD-4T-2</t>
+  </si>
+  <si>
+    <t>最常用 4T 机械备份</t>
+  </si>
+  <si>
+    <t>全盘备份</t>
+  </si>
+  <si>
+    <t>2247 GB</t>
   </si>
   <si>
     <t>250718#000373L5-1</t>
   </si>
   <si>
-    <t>240825#ST4000NE001-HDD-4T-2</t>
-  </si>
-  <si>
     <t>1362 GB</t>
   </si>
   <si>
-    <t>2247 GB</t>
-  </si>
-  <si>
-    <t>全盘备份</t>
-  </si>
-  <si>
-    <t>最常用 4T 机械备份</t>
+    <t>260db9f2358d96f06556b91778db00c8f63ca508ea35051cab5981eddde1a207</t>
   </si>
   <si>
     <t>250718#000038L5-1</t>
+  </si>
+  <si>
+    <t>1564.3 GB</t>
   </si>
   <si>
     <t>885.3 GB</t>
@@ -87,26 +96,30 @@
 210301#SN530-SSD-256G</t>
   </si>
   <si>
-    <t>390 GB</t>
-  </si>
-  <si>
     <t>21年旧笔电
 两块 256G 固态备份</t>
   </si>
   <si>
-    <t>250718#000054L5-1</t>
+    <t>390 GB</t>
+  </si>
+  <si>
+    <t>974a27036e0053696ff90cc3bd238833767587a8412c140138255a250250e944</t>
+  </si>
+  <si>
+    <t>240805#ONEPLUSACE3-UFS-512G</t>
+  </si>
+  <si>
+    <t>OnePlus Ace 3
+手机数据备份</t>
+  </si>
+  <si>
+    <t>289 GB</t>
+  </si>
+  <si>
+    <t>94f2c6df42d6dfcd2981c05425f293bf178dd56237c2e5c0c9efb6397efe8791</t>
   </si>
   <si>
     <t>250223#ST4000NE001-HDD-4T-3</t>
-  </si>
-  <si>
-    <t>1310.72 GB</t>
-  </si>
-  <si>
-    <t>1529.72 GB</t>
-  </si>
-  <si>
-    <t>增量备份</t>
   </si>
   <si>
     <t>4T 机械冷备盘
@@ -115,66 +128,67 @@
 2025-02-23 到 2025-07-23</t>
   </si>
   <si>
+    <t>增量备份</t>
+  </si>
+  <si>
+    <t>1529.72 GB</t>
+  </si>
+  <si>
+    <t>250718#000054L5-1</t>
+  </si>
+  <si>
+    <t>1310.72 GB</t>
+  </si>
+  <si>
     <t>250718#000061L5-1</t>
   </si>
   <si>
+    <t>1242 GB</t>
+  </si>
+  <si>
     <t>219 GB</t>
   </si>
   <si>
     <t>250223#ST4000NE001-HDD-4T-1</t>
   </si>
   <si>
+    <t>台式 4T 机械备份</t>
+  </si>
+  <si>
     <t>1023 GB</t>
   </si>
   <si>
-    <t>台式 4T 机械备份</t>
+    <t>240315#DMTC-NVME-512G</t>
+  </si>
+  <si>
+    <t>台式 512G 系统盘备份</t>
+  </si>
+  <si>
+    <t>329 GB</t>
   </si>
   <si>
     <t>250718#000127L5-1</t>
   </si>
   <si>
-    <t>240315#DMTC-NVME-512G</t>
-  </si>
-  <si>
-    <t>329 GB</t>
-  </si>
-  <si>
-    <t>台式 512G 系统盘备份</t>
+    <t>1421 GB</t>
   </si>
   <si>
     <t>200723#WECLONTNAS-RAID-3T</t>
   </si>
   <si>
+    <t>旧 NAS 3T 机械备份</t>
+  </si>
+  <si>
+    <t>2362.32 GB</t>
+  </si>
+  <si>
     <t>1092 GB</t>
   </si>
   <si>
-    <t>2362.32 GB</t>
-  </si>
-  <si>
-    <t>旧 NAS 3T 机械备份</t>
-  </si>
-  <si>
     <t>250718#000135L5-1</t>
   </si>
   <si>
     <t>1356.32 GB</t>
-  </si>
-  <si>
-    <t>此磁带读取速度
-只有 90MB/s</t>
-  </si>
-  <si>
-    <t>250718#000258L5-1</t>
-  </si>
-  <si>
-    <t>240805#ONEPLUSACE3-UFS-512G</t>
-  </si>
-  <si>
-    <t>~ 512 GB</t>
-  </si>
-  <si>
-    <t>OnePlus Ace 3
-手机数据备份</t>
   </si>
 </sst>
 </file>
@@ -1362,26 +1376,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J279"/>
+  <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.4916666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.55" customWidth="1"/>
-    <col min="4" max="4" width="14.025" customWidth="1"/>
-    <col min="5" max="5" width="12.8083333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.3416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.0833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6" customWidth="1"/>
-    <col min="9" max="9" width="27.275" customWidth="1"/>
-    <col min="10" max="10" width="10.9666666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.55" customWidth="1"/>
+    <col min="3" max="3" width="25.6" customWidth="1"/>
+    <col min="4" max="4" width="12.3416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" customWidth="1"/>
+    <col min="6" max="6" width="21.4916666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.05" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1" customWidth="1"/>
+    <col min="9" max="9" width="18.2083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="73.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="24.55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" ht="36" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1391,13 +1406,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1406,3302 +1421,3578 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5">
-        <v>45861</v>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45863</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>45861</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45863</v>
+      </c>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:10">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:11">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:10">
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:11">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5">
         <v>45861</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" spans="1:10">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:11">
       <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5">
         <v>45861</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" ht="36" customHeight="1" spans="1:10">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:11">
       <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="1:10">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:11">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45861</v>
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45862</v>
+      </c>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" ht="36" customHeight="1" spans="1:10">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:11">
       <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" ht="36" customHeight="1" spans="1:10">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:11">
       <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="5">
         <v>45862</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:10">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45862</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:11">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" ht="36" customHeight="1" spans="1:10">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:10">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:10">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:10">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:11">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:10">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:10">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:10">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:10">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="36" customHeight="1" spans="1:10">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="36" customHeight="1" spans="1:10">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="36" customHeight="1" spans="1:10">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="4"/>
-    </row>
-    <row r="24" ht="36" customHeight="1" spans="1:10">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:11">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="36" customHeight="1" spans="1:10">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" ht="36" customHeight="1" spans="1:10">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" ht="36" customHeight="1" spans="1:10">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" ht="36" customHeight="1" spans="1:11">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="36" customHeight="1" spans="1:10">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" ht="36" customHeight="1" spans="1:11">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="36" customHeight="1" spans="1:10">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" ht="36" customHeight="1" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" ht="36" customHeight="1" spans="1:10">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" ht="36" customHeight="1" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:10">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:11">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" ht="36" customHeight="1" spans="1:10">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" ht="36" customHeight="1" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" ht="36" customHeight="1" spans="1:10">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" ht="36" customHeight="1" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" ht="36" customHeight="1" spans="1:10">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" ht="36" customHeight="1" spans="1:10">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" ht="36" customHeight="1" spans="1:10">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" ht="36" customHeight="1" spans="1:10">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" ht="36" customHeight="1" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" ht="36" customHeight="1" spans="1:10">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" ht="36" customHeight="1" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" ht="36" customHeight="1" spans="1:10">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" ht="36" customHeight="1" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="4"/>
-    </row>
-    <row r="40" ht="36" customHeight="1" spans="1:10">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" ht="36" customHeight="1" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" ht="36" customHeight="1" spans="1:10">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" ht="36" customHeight="1" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="4"/>
-    </row>
-    <row r="42" ht="36" customHeight="1" spans="1:10">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" ht="36" customHeight="1" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="4"/>
-    </row>
-    <row r="43" ht="36" customHeight="1" spans="1:10">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="4"/>
-    </row>
-    <row r="44" ht="36" customHeight="1" spans="1:10">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" ht="36" customHeight="1" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="4"/>
-    </row>
-    <row r="45" ht="36" customHeight="1" spans="1:10">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" ht="36" customHeight="1" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="4"/>
-    </row>
-    <row r="46" ht="36" customHeight="1" spans="1:10">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" ht="36" customHeight="1" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" ht="36" customHeight="1" spans="1:10">
+      <c r="I46" s="5"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" ht="36" customHeight="1" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="7"/>
-    </row>
-    <row r="48" ht="36" customHeight="1" spans="1:10">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" ht="36" customHeight="1" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="7"/>
-    </row>
-    <row r="49" ht="36" customHeight="1" spans="1:10">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="7"/>
-    </row>
-    <row r="50" ht="36" customHeight="1" spans="1:10">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" ht="36" customHeight="1" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="7"/>
-    </row>
-    <row r="51" ht="36" customHeight="1" spans="1:10">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" ht="36" customHeight="1" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="7"/>
-    </row>
-    <row r="52" ht="36" customHeight="1" spans="1:10">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" ht="36" customHeight="1" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="7"/>
-    </row>
-    <row r="53" ht="36" customHeight="1" spans="1:10">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" ht="36" customHeight="1" spans="1:11">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="7"/>
-    </row>
-    <row r="54" ht="36" customHeight="1" spans="1:10">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" ht="36" customHeight="1" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="7"/>
-    </row>
-    <row r="55" ht="36" customHeight="1" spans="1:10">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="1:11">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="7"/>
-    </row>
-    <row r="56" ht="36" customHeight="1" spans="1:10">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" ht="36" customHeight="1" spans="1:11">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="7"/>
-    </row>
-    <row r="57" ht="36" customHeight="1" spans="1:10">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" ht="36" customHeight="1" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="7"/>
-    </row>
-    <row r="58" ht="36" customHeight="1" spans="1:10">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" ht="36" customHeight="1" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="7"/>
-    </row>
-    <row r="59" ht="36" customHeight="1" spans="1:10">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" ht="36" customHeight="1" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="7"/>
-    </row>
-    <row r="60" ht="36" customHeight="1" spans="1:10">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" ht="36" customHeight="1" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="7"/>
-    </row>
-    <row r="61" ht="36" customHeight="1" spans="1:10">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" ht="36" customHeight="1" spans="1:11">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="7"/>
-    </row>
-    <row r="62" ht="36" customHeight="1" spans="1:10">
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" ht="36" customHeight="1" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="7"/>
-    </row>
-    <row r="63" ht="36" customHeight="1" spans="1:10">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" ht="36" customHeight="1" spans="1:11">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="7"/>
-    </row>
-    <row r="64" ht="36" customHeight="1" spans="1:10">
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" ht="36" customHeight="1" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="I64" s="5"/>
       <c r="J64" s="7"/>
-    </row>
-    <row r="65" ht="36" customHeight="1" spans="1:10">
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" ht="36" customHeight="1" spans="1:11">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="I65" s="5"/>
       <c r="J65" s="7"/>
-    </row>
-    <row r="66" ht="36" customHeight="1" spans="1:10">
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" ht="36" customHeight="1" spans="1:11">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="7"/>
-    </row>
-    <row r="67" ht="36" customHeight="1" spans="1:10">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" ht="36" customHeight="1" spans="1:11">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="5"/>
       <c r="J67" s="7"/>
-    </row>
-    <row r="68" ht="36" customHeight="1" spans="1:10">
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" ht="36" customHeight="1" spans="1:11">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="7"/>
-    </row>
-    <row r="69" ht="36" customHeight="1" spans="1:10">
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" ht="36" customHeight="1" spans="1:11">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="7"/>
-    </row>
-    <row r="70" ht="36" customHeight="1" spans="1:10">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" ht="36" customHeight="1" spans="1:11">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="7"/>
-    </row>
-    <row r="71" ht="36" customHeight="1" spans="1:10">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" ht="36" customHeight="1" spans="1:11">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="7"/>
-    </row>
-    <row r="72" ht="36" customHeight="1" spans="1:10">
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" ht="36" customHeight="1" spans="1:11">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="7"/>
-    </row>
-    <row r="73" ht="36" customHeight="1" spans="1:10">
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" ht="36" customHeight="1" spans="1:11">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="5"/>
       <c r="J73" s="7"/>
-    </row>
-    <row r="74" ht="36" customHeight="1" spans="1:10">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" ht="36" customHeight="1" spans="1:11">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="7"/>
-    </row>
-    <row r="75" ht="36" customHeight="1" spans="1:10">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" ht="36" customHeight="1" spans="1:11">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="5"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="7"/>
-    </row>
-    <row r="76" ht="36" customHeight="1" spans="1:10">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" ht="36" customHeight="1" spans="1:11">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="5"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="I76" s="5"/>
       <c r="J76" s="7"/>
-    </row>
-    <row r="77" ht="36" customHeight="1" spans="1:10">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" ht="36" customHeight="1" spans="1:11">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="5"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="I77" s="5"/>
       <c r="J77" s="7"/>
-    </row>
-    <row r="78" ht="36" customHeight="1" spans="1:10">
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" ht="36" customHeight="1" spans="1:11">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="5"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="I78" s="5"/>
       <c r="J78" s="7"/>
-    </row>
-    <row r="79" ht="36" customHeight="1" spans="1:10">
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" ht="36" customHeight="1" spans="1:11">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="I79" s="5"/>
       <c r="J79" s="7"/>
-    </row>
-    <row r="80" ht="36" customHeight="1" spans="1:10">
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" ht="36" customHeight="1" spans="1:11">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="5"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="I80" s="5"/>
       <c r="J80" s="7"/>
-    </row>
-    <row r="81" ht="36" customHeight="1" spans="1:10">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" ht="36" customHeight="1" spans="1:11">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="5"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="7"/>
-    </row>
-    <row r="82" ht="36" customHeight="1" spans="1:10">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" ht="36" customHeight="1" spans="1:11">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="5"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="7"/>
-    </row>
-    <row r="83" ht="36" customHeight="1" spans="1:10">
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" ht="36" customHeight="1" spans="1:11">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="5"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="I83" s="5"/>
       <c r="J83" s="7"/>
-    </row>
-    <row r="84" ht="36" customHeight="1" spans="1:10">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" ht="36" customHeight="1" spans="1:11">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="5"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="7"/>
-    </row>
-    <row r="85" ht="36" customHeight="1" spans="1:10">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" ht="36" customHeight="1" spans="1:11">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="5"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="7"/>
-    </row>
-    <row r="86" ht="36" customHeight="1" spans="1:10">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" ht="36" customHeight="1" spans="1:11">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="5"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="7"/>
-    </row>
-    <row r="87" ht="36" customHeight="1" spans="1:10">
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" ht="36" customHeight="1" spans="1:11">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="5"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+      <c r="I87" s="5"/>
       <c r="J87" s="7"/>
-    </row>
-    <row r="88" ht="36" customHeight="1" spans="1:10">
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" ht="36" customHeight="1" spans="1:11">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="I88" s="5"/>
       <c r="J88" s="7"/>
-    </row>
-    <row r="89" ht="36" customHeight="1" spans="1:10">
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" ht="36" customHeight="1" spans="1:11">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="I89" s="5"/>
       <c r="J89" s="7"/>
-    </row>
-    <row r="90" ht="36" customHeight="1" spans="1:10">
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" ht="36" customHeight="1" spans="1:11">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
+      <c r="I90" s="5"/>
       <c r="J90" s="7"/>
-    </row>
-    <row r="91" ht="36" customHeight="1" spans="1:10">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" ht="36" customHeight="1" spans="1:11">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
+      <c r="I91" s="5"/>
       <c r="J91" s="7"/>
-    </row>
-    <row r="92" ht="36" customHeight="1" spans="1:10">
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" ht="36" customHeight="1" spans="1:11">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="I92" s="5"/>
       <c r="J92" s="7"/>
-    </row>
-    <row r="93" ht="36" customHeight="1" spans="1:10">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" ht="36" customHeight="1" spans="1:11">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="I93" s="5"/>
       <c r="J93" s="7"/>
-    </row>
-    <row r="94" ht="36" customHeight="1" spans="1:10">
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" ht="36" customHeight="1" spans="1:11">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="5"/>
       <c r="J94" s="7"/>
-    </row>
-    <row r="95" ht="36" customHeight="1" spans="1:10">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" ht="36" customHeight="1" spans="1:11">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="5"/>
       <c r="J95" s="7"/>
-    </row>
-    <row r="96" ht="36" customHeight="1" spans="1:10">
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" ht="36" customHeight="1" spans="1:11">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="5"/>
       <c r="J96" s="7"/>
-    </row>
-    <row r="97" ht="36" customHeight="1" spans="1:10">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" ht="36" customHeight="1" spans="1:11">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="5"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
+      <c r="I97" s="5"/>
       <c r="J97" s="7"/>
-    </row>
-    <row r="98" ht="36" customHeight="1" spans="1:10">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" ht="36" customHeight="1" spans="1:11">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="5"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="5"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
+      <c r="I98" s="5"/>
       <c r="J98" s="7"/>
-    </row>
-    <row r="99" ht="36" customHeight="1" spans="1:10">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" ht="36" customHeight="1" spans="1:11">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="5"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="5"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
+      <c r="I99" s="5"/>
       <c r="J99" s="7"/>
-    </row>
-    <row r="100" ht="36" customHeight="1" spans="1:10">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" ht="36" customHeight="1" spans="1:11">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="5"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+      <c r="I100" s="5"/>
       <c r="J100" s="7"/>
-    </row>
-    <row r="101" ht="36" customHeight="1" spans="1:10">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" ht="36" customHeight="1" spans="1:11">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="5"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="I101" s="5"/>
       <c r="J101" s="7"/>
-    </row>
-    <row r="102" ht="36" customHeight="1" spans="1:10">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" ht="36" customHeight="1" spans="1:11">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="5"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+      <c r="I102" s="5"/>
       <c r="J102" s="7"/>
-    </row>
-    <row r="103" ht="36" customHeight="1" spans="1:10">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" ht="36" customHeight="1" spans="1:11">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="5"/>
+      <c r="F103" s="4"/>
       <c r="G103" s="5"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="I103" s="5"/>
       <c r="J103" s="7"/>
-    </row>
-    <row r="104" ht="36" customHeight="1" spans="1:10">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" ht="36" customHeight="1" spans="1:11">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="5"/>
+      <c r="F104" s="4"/>
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="I104" s="5"/>
       <c r="J104" s="7"/>
-    </row>
-    <row r="105" ht="36" customHeight="1" spans="1:10">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" ht="36" customHeight="1" spans="1:11">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="5"/>
+      <c r="F105" s="4"/>
       <c r="G105" s="5"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="I105" s="5"/>
       <c r="J105" s="7"/>
-    </row>
-    <row r="106" ht="36" customHeight="1" spans="1:10">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" ht="36" customHeight="1" spans="1:11">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="5"/>
+      <c r="F106" s="4"/>
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="5"/>
       <c r="J106" s="7"/>
-    </row>
-    <row r="107" ht="36" customHeight="1" spans="1:10">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" ht="36" customHeight="1" spans="1:11">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="5"/>
+      <c r="F107" s="4"/>
       <c r="G107" s="5"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="I107" s="5"/>
       <c r="J107" s="7"/>
-    </row>
-    <row r="108" ht="36" customHeight="1" spans="1:10">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" ht="36" customHeight="1" spans="1:11">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="5"/>
+      <c r="F108" s="4"/>
       <c r="G108" s="5"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="I108" s="5"/>
       <c r="J108" s="7"/>
-    </row>
-    <row r="109" ht="36" customHeight="1" spans="1:10">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" ht="36" customHeight="1" spans="1:11">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="5"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="5"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="I109" s="5"/>
       <c r="J109" s="7"/>
-    </row>
-    <row r="110" ht="36" customHeight="1" spans="1:10">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" ht="36" customHeight="1" spans="1:11">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="5"/>
+      <c r="F110" s="4"/>
       <c r="G110" s="5"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+      <c r="I110" s="5"/>
       <c r="J110" s="7"/>
-    </row>
-    <row r="111" ht="36" customHeight="1" spans="1:10">
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" ht="36" customHeight="1" spans="1:11">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="5"/>
+      <c r="F111" s="4"/>
       <c r="G111" s="5"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
+      <c r="I111" s="5"/>
       <c r="J111" s="7"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" ht="36" customHeight="1" spans="1:10">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="5"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="I112" s="5"/>
       <c r="J112" s="7"/>
     </row>
     <row r="113" ht="36" customHeight="1" spans="1:10">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="5"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="5"/>
       <c r="H113" s="4"/>
+      <c r="I113" s="5"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" ht="36" customHeight="1" spans="1:10">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="5"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="5"/>
       <c r="H114" s="4"/>
+      <c r="I114" s="5"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" ht="36" customHeight="1" spans="1:10">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="5"/>
+      <c r="F115" s="4"/>
       <c r="G115" s="5"/>
       <c r="H115" s="4"/>
+      <c r="I115" s="5"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" ht="36" customHeight="1" spans="1:10">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="5"/>
       <c r="H116" s="4"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="7"/>
     </row>
     <row r="117" ht="36" customHeight="1" spans="1:10">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="5"/>
       <c r="H117" s="4"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="7"/>
     </row>
     <row r="118" ht="36" customHeight="1" spans="1:10">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="5"/>
       <c r="H118" s="4"/>
+      <c r="I118" s="5"/>
       <c r="J118" s="7"/>
     </row>
     <row r="119" ht="36" customHeight="1" spans="1:10">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="5"/>
+      <c r="F119" s="4"/>
       <c r="G119" s="5"/>
       <c r="H119" s="4"/>
+      <c r="I119" s="5"/>
       <c r="J119" s="7"/>
     </row>
     <row r="120" ht="36" customHeight="1" spans="1:10">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="5"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="5"/>
       <c r="H120" s="4"/>
+      <c r="I120" s="5"/>
       <c r="J120" s="7"/>
     </row>
     <row r="121" ht="36" customHeight="1" spans="1:10">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="5"/>
+      <c r="F121" s="4"/>
       <c r="G121" s="5"/>
       <c r="H121" s="4"/>
+      <c r="I121" s="5"/>
       <c r="J121" s="7"/>
     </row>
     <row r="122" ht="36" customHeight="1" spans="1:10">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="5"/>
+      <c r="F122" s="4"/>
       <c r="G122" s="5"/>
       <c r="H122" s="4"/>
+      <c r="I122" s="5"/>
       <c r="J122" s="7"/>
     </row>
     <row r="123" ht="36" customHeight="1" spans="1:10">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="5"/>
+      <c r="F123" s="4"/>
       <c r="G123" s="5"/>
       <c r="H123" s="4"/>
+      <c r="I123" s="5"/>
       <c r="J123" s="7"/>
     </row>
     <row r="124" ht="36" customHeight="1" spans="1:10">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="5"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="5"/>
       <c r="H124" s="4"/>
+      <c r="I124" s="5"/>
       <c r="J124" s="7"/>
     </row>
     <row r="125" ht="36" customHeight="1" spans="1:10">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="5"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="5"/>
       <c r="H125" s="4"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="7"/>
     </row>
     <row r="126" ht="36" customHeight="1" spans="1:10">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="5"/>
+      <c r="F126" s="4"/>
       <c r="G126" s="5"/>
       <c r="H126" s="4"/>
+      <c r="I126" s="5"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127" ht="36" customHeight="1" spans="1:10">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="5"/>
+      <c r="F127" s="4"/>
       <c r="G127" s="5"/>
       <c r="H127" s="4"/>
+      <c r="I127" s="5"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128" ht="36" customHeight="1" spans="1:10">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="5"/>
+      <c r="F128" s="4"/>
       <c r="G128" s="5"/>
       <c r="H128" s="4"/>
+      <c r="I128" s="5"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129" ht="36" customHeight="1" spans="1:10">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="5"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="5"/>
       <c r="H129" s="4"/>
+      <c r="I129" s="5"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130" ht="36" customHeight="1" spans="1:10">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="5"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="5"/>
       <c r="H130" s="4"/>
+      <c r="I130" s="5"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131" ht="36" customHeight="1" spans="1:10">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="5"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="5"/>
       <c r="H131" s="4"/>
+      <c r="I131" s="5"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132" ht="36" customHeight="1" spans="1:10">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="5"/>
+      <c r="F132" s="4"/>
       <c r="G132" s="5"/>
       <c r="H132" s="4"/>
+      <c r="I132" s="5"/>
       <c r="J132" s="7"/>
     </row>
     <row r="133" ht="36" customHeight="1" spans="1:10">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="5"/>
+      <c r="F133" s="4"/>
       <c r="G133" s="5"/>
       <c r="H133" s="4"/>
+      <c r="I133" s="5"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="36" customHeight="1" spans="1:10">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="5"/>
+      <c r="F134" s="4"/>
       <c r="G134" s="5"/>
       <c r="H134" s="4"/>
+      <c r="I134" s="5"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="36" customHeight="1" spans="1:10">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="5"/>
+      <c r="F135" s="4"/>
       <c r="G135" s="5"/>
       <c r="H135" s="4"/>
+      <c r="I135" s="5"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="36" customHeight="1" spans="1:10">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="5"/>
+      <c r="F136" s="4"/>
       <c r="G136" s="5"/>
       <c r="H136" s="4"/>
+      <c r="I136" s="5"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="36" customHeight="1" spans="1:10">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="5"/>
+      <c r="F137" s="4"/>
       <c r="G137" s="5"/>
       <c r="H137" s="4"/>
+      <c r="I137" s="5"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="36" customHeight="1" spans="1:10">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="5"/>
+      <c r="F138" s="4"/>
       <c r="G138" s="5"/>
       <c r="H138" s="4"/>
+      <c r="I138" s="5"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" ht="36" customHeight="1" spans="1:10">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="5"/>
+      <c r="F139" s="4"/>
       <c r="G139" s="5"/>
       <c r="H139" s="4"/>
+      <c r="I139" s="5"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140" ht="36" customHeight="1" spans="1:10">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="5"/>
+      <c r="F140" s="4"/>
       <c r="G140" s="5"/>
       <c r="H140" s="4"/>
+      <c r="I140" s="5"/>
       <c r="J140" s="7"/>
     </row>
     <row r="141" ht="36" customHeight="1" spans="1:10">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="5"/>
+      <c r="F141" s="4"/>
       <c r="G141" s="5"/>
       <c r="H141" s="4"/>
+      <c r="I141" s="5"/>
       <c r="J141" s="7"/>
     </row>
     <row r="142" ht="36" customHeight="1" spans="1:10">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="5"/>
+      <c r="F142" s="4"/>
       <c r="G142" s="5"/>
       <c r="H142" s="4"/>
+      <c r="I142" s="5"/>
       <c r="J142" s="7"/>
     </row>
     <row r="143" ht="36" customHeight="1" spans="1:10">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="5"/>
+      <c r="F143" s="4"/>
       <c r="G143" s="5"/>
       <c r="H143" s="4"/>
+      <c r="I143" s="5"/>
       <c r="J143" s="7"/>
     </row>
     <row r="144" ht="36" customHeight="1" spans="1:10">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="5"/>
+      <c r="F144" s="4"/>
       <c r="G144" s="5"/>
       <c r="H144" s="4"/>
+      <c r="I144" s="5"/>
       <c r="J144" s="7"/>
     </row>
     <row r="145" ht="36" customHeight="1" spans="1:10">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="5"/>
+      <c r="F145" s="4"/>
       <c r="G145" s="5"/>
       <c r="H145" s="4"/>
+      <c r="I145" s="5"/>
       <c r="J145" s="7"/>
     </row>
     <row r="146" ht="36" customHeight="1" spans="1:10">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="5"/>
+      <c r="F146" s="4"/>
       <c r="G146" s="5"/>
       <c r="H146" s="4"/>
+      <c r="I146" s="5"/>
       <c r="J146" s="7"/>
     </row>
     <row r="147" ht="36" customHeight="1" spans="1:10">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="5"/>
+      <c r="F147" s="4"/>
       <c r="G147" s="5"/>
       <c r="H147" s="4"/>
+      <c r="I147" s="5"/>
       <c r="J147" s="7"/>
     </row>
     <row r="148" ht="36" customHeight="1" spans="1:10">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="5"/>
+      <c r="F148" s="4"/>
       <c r="G148" s="5"/>
       <c r="H148" s="4"/>
+      <c r="I148" s="5"/>
       <c r="J148" s="7"/>
     </row>
     <row r="149" ht="36" customHeight="1" spans="1:10">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="5"/>
+      <c r="F149" s="4"/>
       <c r="G149" s="5"/>
       <c r="H149" s="4"/>
+      <c r="I149" s="5"/>
       <c r="J149" s="7"/>
     </row>
     <row r="150" ht="36" customHeight="1" spans="1:10">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="5"/>
+      <c r="F150" s="4"/>
       <c r="G150" s="5"/>
       <c r="H150" s="4"/>
+      <c r="I150" s="5"/>
       <c r="J150" s="7"/>
     </row>
     <row r="151" ht="36" customHeight="1" spans="1:10">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="5"/>
+      <c r="F151" s="4"/>
       <c r="G151" s="5"/>
       <c r="H151" s="4"/>
+      <c r="I151" s="5"/>
       <c r="J151" s="7"/>
     </row>
     <row r="152" ht="36" customHeight="1" spans="1:10">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="5"/>
+      <c r="F152" s="4"/>
       <c r="G152" s="5"/>
       <c r="H152" s="4"/>
+      <c r="I152" s="5"/>
       <c r="J152" s="7"/>
     </row>
     <row r="153" ht="36" customHeight="1" spans="1:10">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="5"/>
+      <c r="F153" s="4"/>
       <c r="G153" s="5"/>
       <c r="H153" s="4"/>
+      <c r="I153" s="5"/>
       <c r="J153" s="7"/>
     </row>
     <row r="154" ht="36" customHeight="1" spans="1:10">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="5"/>
+      <c r="F154" s="4"/>
       <c r="G154" s="5"/>
       <c r="H154" s="4"/>
+      <c r="I154" s="5"/>
       <c r="J154" s="7"/>
     </row>
     <row r="155" ht="36" customHeight="1" spans="1:10">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="5"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="5"/>
       <c r="H155" s="4"/>
+      <c r="I155" s="5"/>
       <c r="J155" s="7"/>
     </row>
     <row r="156" ht="36" customHeight="1" spans="1:10">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="5"/>
+      <c r="F156" s="4"/>
       <c r="G156" s="5"/>
       <c r="H156" s="4"/>
+      <c r="I156" s="5"/>
       <c r="J156" s="7"/>
     </row>
     <row r="157" ht="36" customHeight="1" spans="1:10">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="5"/>
+      <c r="F157" s="4"/>
       <c r="G157" s="5"/>
       <c r="H157" s="4"/>
+      <c r="I157" s="5"/>
       <c r="J157" s="7"/>
     </row>
     <row r="158" ht="36" customHeight="1" spans="1:10">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="5"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="5"/>
+      <c r="F158" s="4"/>
       <c r="G158" s="5"/>
       <c r="H158" s="4"/>
+      <c r="I158" s="5"/>
       <c r="J158" s="7"/>
     </row>
     <row r="159" ht="36" customHeight="1" spans="1:10">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="5"/>
+      <c r="F159" s="4"/>
       <c r="G159" s="5"/>
       <c r="H159" s="4"/>
+      <c r="I159" s="5"/>
       <c r="J159" s="7"/>
     </row>
     <row r="160" ht="36" customHeight="1" spans="1:10">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="5"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="5"/>
+      <c r="F160" s="4"/>
       <c r="G160" s="5"/>
       <c r="H160" s="4"/>
+      <c r="I160" s="5"/>
       <c r="J160" s="7"/>
     </row>
     <row r="161" ht="36" customHeight="1" spans="1:10">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="5"/>
+      <c r="F161" s="4"/>
       <c r="G161" s="5"/>
       <c r="H161" s="4"/>
+      <c r="I161" s="5"/>
       <c r="J161" s="7"/>
     </row>
     <row r="162" ht="36" customHeight="1" spans="1:10">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="5"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="5"/>
+      <c r="F162" s="4"/>
       <c r="G162" s="5"/>
       <c r="H162" s="4"/>
+      <c r="I162" s="5"/>
       <c r="J162" s="7"/>
     </row>
     <row r="163" ht="36" customHeight="1" spans="1:10">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="5"/>
+      <c r="F163" s="4"/>
       <c r="G163" s="5"/>
       <c r="H163" s="4"/>
+      <c r="I163" s="5"/>
       <c r="J163" s="7"/>
     </row>
     <row r="164" ht="36" customHeight="1" spans="1:10">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="5"/>
+      <c r="F164" s="4"/>
       <c r="G164" s="5"/>
       <c r="H164" s="4"/>
+      <c r="I164" s="5"/>
       <c r="J164" s="7"/>
     </row>
     <row r="165" ht="36" customHeight="1" spans="1:10">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="5"/>
+      <c r="F165" s="4"/>
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
+      <c r="I165" s="5"/>
       <c r="J165" s="7"/>
     </row>
     <row r="166" ht="36" customHeight="1" spans="1:10">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="5"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="5"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="5"/>
       <c r="H166" s="4"/>
+      <c r="I166" s="5"/>
       <c r="J166" s="7"/>
     </row>
     <row r="167" ht="36" customHeight="1" spans="1:10">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="5"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="5"/>
+      <c r="F167" s="4"/>
       <c r="G167" s="5"/>
       <c r="H167" s="4"/>
+      <c r="I167" s="5"/>
       <c r="J167" s="7"/>
     </row>
     <row r="168" ht="36" customHeight="1" spans="1:10">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="5"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="5"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="5"/>
       <c r="H168" s="4"/>
+      <c r="I168" s="5"/>
       <c r="J168" s="7"/>
     </row>
     <row r="169" ht="36" customHeight="1" spans="1:10">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="5"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="5"/>
+      <c r="F169" s="4"/>
       <c r="G169" s="5"/>
       <c r="H169" s="4"/>
+      <c r="I169" s="5"/>
       <c r="J169" s="7"/>
     </row>
     <row r="170" ht="36" customHeight="1" spans="1:10">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="5"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="5"/>
+      <c r="F170" s="4"/>
       <c r="G170" s="5"/>
       <c r="H170" s="4"/>
+      <c r="I170" s="5"/>
       <c r="J170" s="7"/>
     </row>
     <row r="171" ht="36" customHeight="1" spans="1:10">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="5"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="5"/>
+      <c r="F171" s="4"/>
       <c r="G171" s="5"/>
       <c r="H171" s="4"/>
+      <c r="I171" s="5"/>
       <c r="J171" s="7"/>
     </row>
     <row r="172" ht="36" customHeight="1" spans="1:10">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="5"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="5"/>
+      <c r="F172" s="4"/>
       <c r="G172" s="5"/>
       <c r="H172" s="4"/>
+      <c r="I172" s="5"/>
       <c r="J172" s="7"/>
     </row>
     <row r="173" ht="36" customHeight="1" spans="1:10">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="D173" s="5"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="5"/>
+      <c r="F173" s="4"/>
       <c r="G173" s="5"/>
       <c r="H173" s="4"/>
+      <c r="I173" s="5"/>
       <c r="J173" s="7"/>
     </row>
     <row r="174" ht="36" customHeight="1" spans="1:10">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="5"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="5"/>
+      <c r="F174" s="4"/>
       <c r="G174" s="5"/>
       <c r="H174" s="4"/>
+      <c r="I174" s="5"/>
       <c r="J174" s="7"/>
     </row>
     <row r="175" ht="36" customHeight="1" spans="1:10">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="5"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="5"/>
+      <c r="F175" s="4"/>
       <c r="G175" s="5"/>
       <c r="H175" s="4"/>
+      <c r="I175" s="5"/>
       <c r="J175" s="7"/>
     </row>
     <row r="176" ht="36" customHeight="1" spans="1:10">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="5"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="5"/>
+      <c r="F176" s="4"/>
       <c r="G176" s="5"/>
       <c r="H176" s="4"/>
+      <c r="I176" s="5"/>
       <c r="J176" s="7"/>
     </row>
     <row r="177" ht="36" customHeight="1" spans="1:10">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="5"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="5"/>
+      <c r="F177" s="4"/>
       <c r="G177" s="5"/>
       <c r="H177" s="4"/>
+      <c r="I177" s="5"/>
       <c r="J177" s="7"/>
     </row>
     <row r="178" ht="36" customHeight="1" spans="1:10">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="5"/>
       <c r="E178" s="4"/>
-      <c r="F178" s="5"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="5"/>
       <c r="H178" s="4"/>
+      <c r="I178" s="5"/>
       <c r="J178" s="7"/>
     </row>
     <row r="179" ht="36" customHeight="1" spans="1:10">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="5"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="5"/>
+      <c r="F179" s="4"/>
       <c r="G179" s="5"/>
       <c r="H179" s="4"/>
+      <c r="I179" s="5"/>
       <c r="J179" s="7"/>
     </row>
     <row r="180" ht="36" customHeight="1" spans="1:10">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="D180" s="5"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="5"/>
+      <c r="F180" s="4"/>
       <c r="G180" s="5"/>
       <c r="H180" s="4"/>
+      <c r="I180" s="5"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181" ht="36" customHeight="1" spans="1:10">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="D181" s="5"/>
       <c r="E181" s="4"/>
-      <c r="F181" s="5"/>
+      <c r="F181" s="4"/>
       <c r="G181" s="5"/>
       <c r="H181" s="4"/>
+      <c r="I181" s="5"/>
       <c r="J181" s="7"/>
     </row>
     <row r="182" ht="36" customHeight="1" spans="1:10">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="D182" s="5"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="5"/>
+      <c r="F182" s="4"/>
       <c r="G182" s="5"/>
       <c r="H182" s="4"/>
+      <c r="I182" s="5"/>
       <c r="J182" s="7"/>
     </row>
     <row r="183" ht="36" customHeight="1" spans="1:10">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="D183" s="5"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="5"/>
+      <c r="F183" s="4"/>
       <c r="G183" s="5"/>
       <c r="H183" s="4"/>
+      <c r="I183" s="5"/>
       <c r="J183" s="7"/>
     </row>
     <row r="184" ht="36" customHeight="1" spans="1:10">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="D184" s="5"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="5"/>
+      <c r="F184" s="4"/>
       <c r="G184" s="5"/>
       <c r="H184" s="4"/>
+      <c r="I184" s="5"/>
       <c r="J184" s="7"/>
     </row>
     <row r="185" ht="36" customHeight="1" spans="1:10">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="5"/>
+      <c r="F185" s="4"/>
       <c r="G185" s="5"/>
       <c r="H185" s="4"/>
+      <c r="I185" s="5"/>
       <c r="J185" s="7"/>
     </row>
     <row r="186" ht="36" customHeight="1" spans="1:10">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="5"/>
+      <c r="F186" s="4"/>
       <c r="G186" s="5"/>
       <c r="H186" s="4"/>
+      <c r="I186" s="5"/>
       <c r="J186" s="7"/>
     </row>
     <row r="187" ht="36" customHeight="1" spans="1:10">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="5"/>
+      <c r="F187" s="4"/>
       <c r="G187" s="5"/>
       <c r="H187" s="4"/>
+      <c r="I187" s="5"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188" ht="36" customHeight="1" spans="1:10">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="5"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="4"/>
       <c r="G188" s="5"/>
       <c r="H188" s="4"/>
+      <c r="I188" s="5"/>
       <c r="J188" s="7"/>
     </row>
     <row r="189" ht="36" customHeight="1" spans="1:10">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="5"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="5"/>
+      <c r="F189" s="4"/>
       <c r="G189" s="5"/>
       <c r="H189" s="4"/>
+      <c r="I189" s="5"/>
       <c r="J189" s="7"/>
     </row>
     <row r="190" ht="36" customHeight="1" spans="1:10">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="5"/>
       <c r="E190" s="4"/>
-      <c r="F190" s="5"/>
+      <c r="F190" s="4"/>
       <c r="G190" s="5"/>
       <c r="H190" s="4"/>
+      <c r="I190" s="5"/>
       <c r="J190" s="7"/>
     </row>
     <row r="191" ht="36" customHeight="1" spans="1:10">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="5"/>
+      <c r="F191" s="4"/>
       <c r="G191" s="5"/>
       <c r="H191" s="4"/>
+      <c r="I191" s="5"/>
       <c r="J191" s="7"/>
     </row>
     <row r="192" ht="36" customHeight="1" spans="1:10">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="5"/>
+      <c r="F192" s="4"/>
       <c r="G192" s="5"/>
       <c r="H192" s="4"/>
+      <c r="I192" s="5"/>
       <c r="J192" s="7"/>
     </row>
     <row r="193" ht="36" customHeight="1" spans="1:10">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="4"/>
-      <c r="F193" s="5"/>
+      <c r="F193" s="4"/>
       <c r="G193" s="5"/>
       <c r="H193" s="4"/>
+      <c r="I193" s="5"/>
       <c r="J193" s="7"/>
     </row>
     <row r="194" ht="36" customHeight="1" spans="1:10">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="5"/>
+      <c r="F194" s="4"/>
       <c r="G194" s="5"/>
       <c r="H194" s="4"/>
+      <c r="I194" s="5"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195" ht="36" customHeight="1" spans="1:10">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="5"/>
+      <c r="F195" s="4"/>
       <c r="G195" s="5"/>
       <c r="H195" s="4"/>
+      <c r="I195" s="5"/>
       <c r="J195" s="7"/>
     </row>
     <row r="196" ht="36" customHeight="1" spans="1:10">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="5"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="5"/>
+      <c r="F196" s="4"/>
       <c r="G196" s="5"/>
       <c r="H196" s="4"/>
+      <c r="I196" s="5"/>
       <c r="J196" s="7"/>
     </row>
     <row r="197" ht="36" customHeight="1" spans="1:10">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="5"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="5"/>
+      <c r="F197" s="4"/>
       <c r="G197" s="5"/>
       <c r="H197" s="4"/>
+      <c r="I197" s="5"/>
       <c r="J197" s="7"/>
     </row>
     <row r="198" ht="36" customHeight="1" spans="1:10">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="5"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="5"/>
+      <c r="F198" s="4"/>
       <c r="G198" s="5"/>
       <c r="H198" s="4"/>
+      <c r="I198" s="5"/>
       <c r="J198" s="7"/>
     </row>
     <row r="199" ht="36" customHeight="1" spans="1:10">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="5"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="5"/>
+      <c r="F199" s="4"/>
       <c r="G199" s="5"/>
       <c r="H199" s="4"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="7"/>
     </row>
     <row r="200" ht="36" customHeight="1" spans="1:10">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="D200" s="5"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="5"/>
+      <c r="F200" s="4"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
+      <c r="I200" s="5"/>
       <c r="J200" s="7"/>
     </row>
     <row r="201" ht="36" customHeight="1" spans="1:10">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="D201" s="5"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="5"/>
+      <c r="F201" s="4"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
+      <c r="I201" s="5"/>
       <c r="J201" s="7"/>
     </row>
     <row r="202" ht="36" customHeight="1" spans="1:10">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="D202" s="5"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="5"/>
+      <c r="F202" s="4"/>
       <c r="G202" s="5"/>
       <c r="H202" s="4"/>
+      <c r="I202" s="5"/>
       <c r="J202" s="7"/>
     </row>
     <row r="203" ht="36" customHeight="1" spans="1:10">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="5"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="5"/>
+      <c r="F203" s="4"/>
       <c r="G203" s="5"/>
       <c r="H203" s="4"/>
+      <c r="I203" s="5"/>
       <c r="J203" s="7"/>
     </row>
     <row r="204" ht="36" customHeight="1" spans="1:10">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="5"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="5"/>
+      <c r="F204" s="4"/>
       <c r="G204" s="5"/>
       <c r="H204" s="4"/>
+      <c r="I204" s="5"/>
       <c r="J204" s="7"/>
     </row>
     <row r="205" ht="36" customHeight="1" spans="1:10">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="D205" s="5"/>
       <c r="E205" s="4"/>
-      <c r="F205" s="5"/>
+      <c r="F205" s="4"/>
       <c r="G205" s="5"/>
       <c r="H205" s="4"/>
+      <c r="I205" s="5"/>
       <c r="J205" s="7"/>
     </row>
     <row r="206" ht="36" customHeight="1" spans="1:10">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="5"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="5"/>
+      <c r="F206" s="4"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
+      <c r="I206" s="5"/>
       <c r="J206" s="7"/>
     </row>
     <row r="207" ht="36" customHeight="1" spans="1:10">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="D207" s="5"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="5"/>
+      <c r="F207" s="4"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
+      <c r="I207" s="5"/>
       <c r="J207" s="7"/>
     </row>
     <row r="208" ht="36" customHeight="1" spans="1:10">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="D208" s="5"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="5"/>
+      <c r="F208" s="4"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
+      <c r="I208" s="5"/>
       <c r="J208" s="7"/>
     </row>
     <row r="209" ht="36" customHeight="1" spans="1:10">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="D209" s="5"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="5"/>
+      <c r="F209" s="4"/>
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
+      <c r="I209" s="5"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210" ht="36" customHeight="1" spans="1:10">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="D210" s="5"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="5"/>
+      <c r="F210" s="4"/>
       <c r="G210" s="5"/>
       <c r="H210" s="4"/>
+      <c r="I210" s="5"/>
       <c r="J210" s="7"/>
     </row>
     <row r="211" ht="36" customHeight="1" spans="1:10">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="D211" s="5"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="5"/>
+      <c r="F211" s="4"/>
       <c r="G211" s="5"/>
       <c r="H211" s="4"/>
+      <c r="I211" s="5"/>
       <c r="J211" s="7"/>
     </row>
     <row r="212" ht="36" customHeight="1" spans="1:10">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="5"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="5"/>
+      <c r="F212" s="4"/>
       <c r="G212" s="5"/>
       <c r="H212" s="4"/>
+      <c r="I212" s="5"/>
       <c r="J212" s="7"/>
     </row>
     <row r="213" ht="36" customHeight="1" spans="1:10">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="D213" s="5"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="5"/>
+      <c r="F213" s="4"/>
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
+      <c r="I213" s="5"/>
       <c r="J213" s="7"/>
     </row>
     <row r="214" ht="36" customHeight="1" spans="1:10">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="D214" s="5"/>
       <c r="E214" s="4"/>
-      <c r="F214" s="5"/>
+      <c r="F214" s="4"/>
       <c r="G214" s="5"/>
       <c r="H214" s="4"/>
+      <c r="I214" s="5"/>
       <c r="J214" s="7"/>
     </row>
     <row r="215" ht="36" customHeight="1" spans="1:10">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="D215" s="5"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="5"/>
+      <c r="F215" s="4"/>
       <c r="G215" s="5"/>
       <c r="H215" s="4"/>
+      <c r="I215" s="5"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216" ht="36" customHeight="1" spans="1:10">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="D216" s="5"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="5"/>
+      <c r="F216" s="4"/>
       <c r="G216" s="5"/>
       <c r="H216" s="4"/>
+      <c r="I216" s="5"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217" ht="36" customHeight="1" spans="1:10">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="D217" s="5"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="5"/>
+      <c r="F217" s="4"/>
       <c r="G217" s="5"/>
       <c r="H217" s="4"/>
+      <c r="I217" s="5"/>
       <c r="J217" s="7"/>
     </row>
     <row r="218" ht="36" customHeight="1" spans="1:10">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
+      <c r="D218" s="5"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="5"/>
+      <c r="F218" s="4"/>
       <c r="G218" s="5"/>
       <c r="H218" s="4"/>
+      <c r="I218" s="5"/>
       <c r="J218" s="7"/>
     </row>
     <row r="219" ht="36" customHeight="1" spans="1:10">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="D219" s="5"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="5"/>
+      <c r="F219" s="4"/>
       <c r="G219" s="5"/>
       <c r="H219" s="4"/>
+      <c r="I219" s="5"/>
       <c r="J219" s="7"/>
     </row>
     <row r="220" ht="36" customHeight="1" spans="1:10">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="D220" s="5"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="5"/>
+      <c r="F220" s="4"/>
       <c r="G220" s="5"/>
       <c r="H220" s="4"/>
+      <c r="I220" s="5"/>
       <c r="J220" s="7"/>
     </row>
     <row r="221" ht="36" customHeight="1" spans="1:10">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="D221" s="5"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="5"/>
+      <c r="F221" s="4"/>
       <c r="G221" s="5"/>
       <c r="H221" s="4"/>
+      <c r="I221" s="5"/>
       <c r="J221" s="7"/>
     </row>
     <row r="222" ht="36" customHeight="1" spans="1:10">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="D222" s="5"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="5"/>
+      <c r="F222" s="4"/>
       <c r="G222" s="5"/>
       <c r="H222" s="4"/>
+      <c r="I222" s="5"/>
       <c r="J222" s="7"/>
     </row>
     <row r="223" ht="36" customHeight="1" spans="1:10">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="D223" s="5"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="5"/>
+      <c r="F223" s="4"/>
       <c r="G223" s="5"/>
       <c r="H223" s="4"/>
+      <c r="I223" s="5"/>
       <c r="J223" s="7"/>
     </row>
     <row r="224" ht="36" customHeight="1" spans="1:10">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="D224" s="5"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="5"/>
+      <c r="F224" s="4"/>
       <c r="G224" s="5"/>
       <c r="H224" s="4"/>
+      <c r="I224" s="5"/>
       <c r="J224" s="7"/>
     </row>
     <row r="225" ht="36" customHeight="1" spans="1:10">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="D225" s="5"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="5"/>
+      <c r="F225" s="4"/>
       <c r="G225" s="5"/>
       <c r="H225" s="4"/>
+      <c r="I225" s="5"/>
       <c r="J225" s="7"/>
     </row>
     <row r="226" ht="36" customHeight="1" spans="1:10">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="D226" s="5"/>
       <c r="E226" s="4"/>
-      <c r="F226" s="5"/>
+      <c r="F226" s="4"/>
       <c r="G226" s="5"/>
       <c r="H226" s="4"/>
+      <c r="I226" s="5"/>
       <c r="J226" s="7"/>
     </row>
     <row r="227" ht="36" customHeight="1" spans="1:10">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="D227" s="5"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="5"/>
+      <c r="F227" s="4"/>
       <c r="G227" s="5"/>
       <c r="H227" s="4"/>
+      <c r="I227" s="5"/>
       <c r="J227" s="7"/>
     </row>
     <row r="228" ht="36" customHeight="1" spans="1:10">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="D228" s="5"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="5"/>
+      <c r="F228" s="4"/>
       <c r="G228" s="5"/>
       <c r="H228" s="4"/>
+      <c r="I228" s="5"/>
       <c r="J228" s="7"/>
     </row>
     <row r="229" ht="36" customHeight="1" spans="1:10">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="D229" s="5"/>
       <c r="E229" s="4"/>
-      <c r="F229" s="5"/>
+      <c r="F229" s="4"/>
       <c r="G229" s="5"/>
       <c r="H229" s="4"/>
+      <c r="I229" s="5"/>
       <c r="J229" s="7"/>
     </row>
     <row r="230" ht="36" customHeight="1" spans="1:10">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="D230" s="5"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="5"/>
+      <c r="F230" s="4"/>
       <c r="G230" s="5"/>
       <c r="H230" s="4"/>
+      <c r="I230" s="5"/>
       <c r="J230" s="7"/>
     </row>
     <row r="231" ht="36" customHeight="1" spans="1:10">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="D231" s="5"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="5"/>
+      <c r="F231" s="4"/>
       <c r="G231" s="5"/>
       <c r="H231" s="4"/>
+      <c r="I231" s="5"/>
       <c r="J231" s="7"/>
     </row>
     <row r="232" ht="36" customHeight="1" spans="1:10">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="D232" s="5"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="5"/>
+      <c r="F232" s="4"/>
       <c r="G232" s="5"/>
       <c r="H232" s="4"/>
+      <c r="I232" s="5"/>
       <c r="J232" s="7"/>
     </row>
     <row r="233" ht="36" customHeight="1" spans="1:10">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="D233" s="5"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="5"/>
+      <c r="F233" s="4"/>
       <c r="G233" s="5"/>
       <c r="H233" s="4"/>
+      <c r="I233" s="5"/>
       <c r="J233" s="7"/>
     </row>
     <row r="234" ht="36" customHeight="1" spans="1:10">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="D234" s="5"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="5"/>
+      <c r="F234" s="4"/>
       <c r="G234" s="5"/>
       <c r="H234" s="4"/>
+      <c r="I234" s="5"/>
       <c r="J234" s="7"/>
     </row>
     <row r="235" ht="36" customHeight="1" spans="1:10">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="D235" s="5"/>
       <c r="E235" s="4"/>
-      <c r="F235" s="5"/>
+      <c r="F235" s="4"/>
       <c r="G235" s="5"/>
       <c r="H235" s="4"/>
+      <c r="I235" s="5"/>
       <c r="J235" s="7"/>
     </row>
     <row r="236" ht="36" customHeight="1" spans="1:10">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="5"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="5"/>
+      <c r="F236" s="4"/>
       <c r="G236" s="5"/>
       <c r="H236" s="4"/>
+      <c r="I236" s="5"/>
       <c r="J236" s="7"/>
     </row>
     <row r="237" ht="36" customHeight="1" spans="1:10">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="D237" s="5"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="5"/>
+      <c r="F237" s="4"/>
       <c r="G237" s="5"/>
       <c r="H237" s="4"/>
+      <c r="I237" s="5"/>
       <c r="J237" s="7"/>
     </row>
     <row r="238" ht="36" customHeight="1" spans="1:10">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="D238" s="5"/>
       <c r="E238" s="4"/>
-      <c r="F238" s="5"/>
+      <c r="F238" s="4"/>
       <c r="G238" s="5"/>
       <c r="H238" s="4"/>
+      <c r="I238" s="5"/>
       <c r="J238" s="7"/>
     </row>
     <row r="239" ht="36" customHeight="1" spans="1:10">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="D239" s="5"/>
       <c r="E239" s="4"/>
-      <c r="F239" s="5"/>
+      <c r="F239" s="4"/>
       <c r="G239" s="5"/>
       <c r="H239" s="4"/>
+      <c r="I239" s="5"/>
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="36" customHeight="1" spans="1:10">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="D240" s="5"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="5"/>
+      <c r="F240" s="4"/>
       <c r="G240" s="5"/>
       <c r="H240" s="4"/>
+      <c r="I240" s="5"/>
       <c r="J240" s="7"/>
     </row>
     <row r="241" ht="36" customHeight="1" spans="1:10">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="D241" s="5"/>
       <c r="E241" s="4"/>
-      <c r="F241" s="5"/>
+      <c r="F241" s="4"/>
       <c r="G241" s="5"/>
       <c r="H241" s="4"/>
+      <c r="I241" s="5"/>
       <c r="J241" s="7"/>
     </row>
     <row r="242" ht="36" customHeight="1" spans="1:10">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="D242" s="5"/>
       <c r="E242" s="4"/>
-      <c r="F242" s="5"/>
+      <c r="F242" s="4"/>
       <c r="G242" s="5"/>
       <c r="H242" s="4"/>
+      <c r="I242" s="5"/>
       <c r="J242" s="7"/>
     </row>
     <row r="243" ht="36" customHeight="1" spans="1:10">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="D243" s="5"/>
       <c r="E243" s="4"/>
-      <c r="F243" s="5"/>
+      <c r="F243" s="4"/>
       <c r="G243" s="5"/>
       <c r="H243" s="4"/>
+      <c r="I243" s="5"/>
       <c r="J243" s="7"/>
     </row>
     <row r="244" ht="36" customHeight="1" spans="1:10">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="D244" s="5"/>
       <c r="E244" s="4"/>
-      <c r="F244" s="5"/>
+      <c r="F244" s="4"/>
       <c r="G244" s="5"/>
       <c r="H244" s="4"/>
+      <c r="I244" s="5"/>
       <c r="J244" s="7"/>
     </row>
     <row r="245" ht="36" customHeight="1" spans="1:10">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="D245" s="5"/>
       <c r="E245" s="4"/>
-      <c r="F245" s="5"/>
+      <c r="F245" s="4"/>
       <c r="G245" s="5"/>
       <c r="H245" s="4"/>
+      <c r="I245" s="5"/>
       <c r="J245" s="7"/>
     </row>
     <row r="246" ht="36" customHeight="1" spans="1:10">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="D246" s="5"/>
       <c r="E246" s="4"/>
-      <c r="F246" s="5"/>
+      <c r="F246" s="4"/>
       <c r="G246" s="5"/>
       <c r="H246" s="4"/>
+      <c r="I246" s="5"/>
       <c r="J246" s="7"/>
     </row>
     <row r="247" ht="36" customHeight="1" spans="1:10">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="D247" s="5"/>
       <c r="E247" s="4"/>
-      <c r="F247" s="5"/>
+      <c r="F247" s="4"/>
       <c r="G247" s="5"/>
       <c r="H247" s="4"/>
+      <c r="I247" s="5"/>
       <c r="J247" s="7"/>
     </row>
     <row r="248" ht="36" customHeight="1" spans="1:10">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="5"/>
       <c r="E248" s="4"/>
-      <c r="F248" s="5"/>
+      <c r="F248" s="4"/>
       <c r="G248" s="5"/>
       <c r="H248" s="4"/>
+      <c r="I248" s="5"/>
       <c r="J248" s="7"/>
     </row>
     <row r="249" ht="36" customHeight="1" spans="1:10">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="D249" s="5"/>
       <c r="E249" s="4"/>
-      <c r="F249" s="5"/>
+      <c r="F249" s="4"/>
       <c r="G249" s="5"/>
       <c r="H249" s="4"/>
+      <c r="I249" s="5"/>
       <c r="J249" s="7"/>
     </row>
     <row r="250" ht="36" customHeight="1" spans="1:10">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="D250" s="5"/>
       <c r="E250" s="4"/>
-      <c r="F250" s="5"/>
+      <c r="F250" s="4"/>
       <c r="G250" s="5"/>
       <c r="H250" s="4"/>
+      <c r="I250" s="5"/>
       <c r="J250" s="7"/>
     </row>
     <row r="251" ht="36" customHeight="1" spans="1:10">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="D251" s="5"/>
       <c r="E251" s="4"/>
-      <c r="F251" s="5"/>
+      <c r="F251" s="4"/>
       <c r="G251" s="5"/>
       <c r="H251" s="4"/>
+      <c r="I251" s="5"/>
       <c r="J251" s="7"/>
     </row>
     <row r="252" ht="36" customHeight="1" spans="1:10">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="D252" s="5"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="5"/>
+      <c r="F252" s="4"/>
       <c r="G252" s="5"/>
       <c r="H252" s="4"/>
+      <c r="I252" s="5"/>
       <c r="J252" s="7"/>
     </row>
     <row r="253" ht="36" customHeight="1" spans="1:10">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="D253" s="5"/>
       <c r="E253" s="4"/>
-      <c r="F253" s="5"/>
+      <c r="F253" s="4"/>
       <c r="G253" s="5"/>
       <c r="H253" s="4"/>
+      <c r="I253" s="5"/>
       <c r="J253" s="7"/>
     </row>
     <row r="254" ht="36" customHeight="1" spans="1:10">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="D254" s="5"/>
       <c r="E254" s="4"/>
-      <c r="F254" s="5"/>
+      <c r="F254" s="4"/>
       <c r="G254" s="5"/>
       <c r="H254" s="4"/>
+      <c r="I254" s="5"/>
       <c r="J254" s="7"/>
     </row>
     <row r="255" ht="36" customHeight="1" spans="1:10">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="D255" s="5"/>
       <c r="E255" s="4"/>
-      <c r="F255" s="5"/>
+      <c r="F255" s="4"/>
       <c r="G255" s="5"/>
       <c r="H255" s="4"/>
+      <c r="I255" s="5"/>
       <c r="J255" s="7"/>
     </row>
-    <row r="256" ht="36" customHeight="1" spans="1:10">
+    <row r="256" ht="36" customHeight="1" spans="1:9">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="D256" s="5"/>
       <c r="E256" s="4"/>
-      <c r="F256" s="5"/>
+      <c r="F256" s="4"/>
       <c r="G256" s="5"/>
       <c r="H256" s="4"/>
-      <c r="J256" s="7"/>
-    </row>
-    <row r="257" ht="36" customHeight="1" spans="1:8">
+      <c r="I256" s="5"/>
+    </row>
+    <row r="257" ht="36" customHeight="1" spans="1:9">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="5"/>
       <c r="E257" s="4"/>
-      <c r="F257" s="5"/>
+      <c r="F257" s="4"/>
       <c r="G257" s="5"/>
       <c r="H257" s="4"/>
-    </row>
-    <row r="258" ht="36" customHeight="1" spans="1:8">
+      <c r="I257" s="5"/>
+    </row>
+    <row r="258" ht="36" customHeight="1" spans="1:9">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="D258" s="5"/>
       <c r="E258" s="4"/>
-      <c r="F258" s="5"/>
+      <c r="F258" s="4"/>
       <c r="G258" s="5"/>
       <c r="H258" s="4"/>
-    </row>
-    <row r="259" ht="36" customHeight="1" spans="1:8">
+      <c r="I258" s="5"/>
+    </row>
+    <row r="259" ht="36" customHeight="1" spans="1:9">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="D259" s="5"/>
       <c r="E259" s="4"/>
-      <c r="F259" s="5"/>
+      <c r="F259" s="4"/>
       <c r="G259" s="5"/>
       <c r="H259" s="4"/>
-    </row>
-    <row r="260" ht="36" customHeight="1" spans="1:8">
+      <c r="I259" s="5"/>
+    </row>
+    <row r="260" ht="36" customHeight="1" spans="1:9">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="D260" s="5"/>
       <c r="E260" s="4"/>
-      <c r="F260" s="5"/>
+      <c r="F260" s="4"/>
       <c r="G260" s="5"/>
       <c r="H260" s="4"/>
-    </row>
-    <row r="261" ht="36" customHeight="1" spans="1:8">
+      <c r="I260" s="5"/>
+    </row>
+    <row r="261" ht="36" customHeight="1" spans="1:9">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="D261" s="5"/>
       <c r="E261" s="4"/>
-      <c r="F261" s="5"/>
+      <c r="F261" s="4"/>
       <c r="G261" s="5"/>
       <c r="H261" s="4"/>
-    </row>
-    <row r="262" ht="36" customHeight="1" spans="1:8">
+      <c r="I261" s="5"/>
+    </row>
+    <row r="262" ht="36" customHeight="1" spans="1:9">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="D262" s="5"/>
       <c r="E262" s="4"/>
-      <c r="F262" s="5"/>
+      <c r="F262" s="4"/>
       <c r="G262" s="5"/>
       <c r="H262" s="4"/>
-    </row>
-    <row r="263" ht="36" customHeight="1" spans="1:8">
+      <c r="I262" s="5"/>
+    </row>
+    <row r="263" ht="36" customHeight="1" spans="1:9">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="D263" s="5"/>
       <c r="E263" s="4"/>
-      <c r="F263" s="5"/>
+      <c r="F263" s="4"/>
       <c r="G263" s="5"/>
       <c r="H263" s="4"/>
-    </row>
-    <row r="264" ht="36" customHeight="1" spans="1:8">
+      <c r="I263" s="5"/>
+    </row>
+    <row r="264" ht="36" customHeight="1" spans="1:9">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="D264" s="5"/>
       <c r="E264" s="4"/>
-      <c r="F264" s="5"/>
+      <c r="F264" s="4"/>
       <c r="G264" s="5"/>
       <c r="H264" s="4"/>
-    </row>
-    <row r="265" ht="36" customHeight="1" spans="1:8">
+      <c r="I264" s="5"/>
+    </row>
+    <row r="265" ht="36" customHeight="1" spans="1:9">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="D265" s="5"/>
       <c r="E265" s="4"/>
-      <c r="F265" s="5"/>
+      <c r="F265" s="4"/>
       <c r="G265" s="5"/>
       <c r="H265" s="4"/>
-    </row>
-    <row r="266" ht="36" customHeight="1" spans="1:8">
+      <c r="I265" s="5"/>
+    </row>
+    <row r="266" ht="36" customHeight="1" spans="1:9">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="D266" s="5"/>
       <c r="E266" s="4"/>
-      <c r="F266" s="5"/>
+      <c r="F266" s="4"/>
       <c r="G266" s="5"/>
       <c r="H266" s="4"/>
-    </row>
-    <row r="267" ht="36" customHeight="1" spans="1:8">
+      <c r="I266" s="5"/>
+    </row>
+    <row r="267" ht="36" customHeight="1" spans="1:9">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="D267" s="5"/>
       <c r="E267" s="4"/>
-      <c r="F267" s="5"/>
+      <c r="F267" s="4"/>
       <c r="G267" s="5"/>
       <c r="H267" s="4"/>
-    </row>
-    <row r="268" ht="36" customHeight="1" spans="1:8">
+      <c r="I267" s="5"/>
+    </row>
+    <row r="268" ht="36" customHeight="1" spans="1:9">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="D268" s="5"/>
       <c r="E268" s="4"/>
-      <c r="F268" s="5"/>
+      <c r="F268" s="4"/>
       <c r="G268" s="5"/>
       <c r="H268" s="4"/>
-    </row>
-    <row r="269" ht="36" customHeight="1" spans="1:8">
+      <c r="I268" s="5"/>
+    </row>
+    <row r="269" ht="36" customHeight="1" spans="1:9">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="D269" s="5"/>
       <c r="E269" s="4"/>
-      <c r="F269" s="5"/>
+      <c r="F269" s="4"/>
       <c r="G269" s="5"/>
       <c r="H269" s="4"/>
-    </row>
-    <row r="270" ht="36" customHeight="1" spans="1:8">
+      <c r="I269" s="5"/>
+    </row>
+    <row r="270" ht="36" customHeight="1" spans="1:9">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="D270" s="5"/>
       <c r="E270" s="4"/>
-      <c r="F270" s="5"/>
+      <c r="F270" s="4"/>
       <c r="G270" s="5"/>
       <c r="H270" s="4"/>
-    </row>
-    <row r="271" ht="36" customHeight="1" spans="1:8">
+      <c r="I270" s="5"/>
+    </row>
+    <row r="271" ht="36" customHeight="1" spans="1:9">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="D271" s="5"/>
       <c r="E271" s="4"/>
-      <c r="F271" s="5"/>
+      <c r="F271" s="4"/>
       <c r="G271" s="5"/>
       <c r="H271" s="4"/>
-    </row>
-    <row r="272" ht="36" customHeight="1" spans="1:8">
+      <c r="I271" s="5"/>
+    </row>
+    <row r="272" ht="36" customHeight="1" spans="1:9">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="D272" s="5"/>
       <c r="E272" s="4"/>
-      <c r="F272" s="5"/>
+      <c r="F272" s="4"/>
       <c r="G272" s="5"/>
       <c r="H272" s="4"/>
-    </row>
-    <row r="273" ht="36" customHeight="1" spans="1:8">
+      <c r="I272" s="5"/>
+    </row>
+    <row r="273" ht="36" customHeight="1" spans="1:9">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="D273" s="5"/>
       <c r="E273" s="4"/>
-      <c r="F273" s="5"/>
+      <c r="F273" s="4"/>
       <c r="G273" s="5"/>
       <c r="H273" s="4"/>
-    </row>
-    <row r="274" ht="36" customHeight="1" spans="1:8">
+      <c r="I273" s="5"/>
+    </row>
+    <row r="274" ht="36" customHeight="1" spans="1:9">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="D274" s="5"/>
       <c r="E274" s="4"/>
-      <c r="F274" s="5"/>
+      <c r="F274" s="4"/>
       <c r="G274" s="5"/>
       <c r="H274" s="4"/>
-    </row>
-    <row r="275" ht="36" customHeight="1" spans="1:8">
+      <c r="I274" s="5"/>
+    </row>
+    <row r="275" ht="36" customHeight="1" spans="1:9">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="D275" s="5"/>
       <c r="E275" s="4"/>
-      <c r="F275" s="5"/>
+      <c r="F275" s="4"/>
       <c r="G275" s="5"/>
       <c r="H275" s="4"/>
-    </row>
-    <row r="276" ht="36" customHeight="1" spans="1:8">
+      <c r="I275" s="5"/>
+    </row>
+    <row r="276" ht="36" customHeight="1" spans="1:9">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="D276" s="5"/>
       <c r="E276" s="4"/>
-      <c r="F276" s="5"/>
+      <c r="F276" s="4"/>
       <c r="G276" s="5"/>
       <c r="H276" s="4"/>
-    </row>
-    <row r="277" ht="36" customHeight="1" spans="1:8">
+      <c r="I276" s="5"/>
+    </row>
+    <row r="277" ht="36" customHeight="1" spans="1:9">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="D277" s="5"/>
       <c r="E277" s="4"/>
-      <c r="F277" s="5"/>
+      <c r="F277" s="4"/>
       <c r="G277" s="5"/>
       <c r="H277" s="4"/>
-    </row>
-    <row r="278" ht="36" customHeight="1" spans="1:8">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="5"/>
-      <c r="H278" s="4"/>
-    </row>
-    <row r="279" ht="36" customHeight="1"/>
+      <c r="I277" s="5"/>
+    </row>
+    <row r="278" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="21">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -47,12 +47,12 @@
     <t>磁带编号</t>
   </si>
   <si>
-    <t>数据大小</t>
-  </si>
-  <si>
     <t>分段大小</t>
   </si>
   <si>
+    <t>存储容量</t>
+  </si>
+  <si>
     <t>最后一次倒带时间</t>
   </si>
   <si>
@@ -86,10 +86,13 @@
     <t>250718#000038L5-1</t>
   </si>
   <si>
+    <t>885.3 GB</t>
+  </si>
+  <si>
     <t>1564.3 GB</t>
   </si>
   <si>
-    <t>885.3 GB</t>
+    <t>724710626a2bbb38392510d9590710d9787d1f5e10b3dac325330779a5eb2bf3</t>
   </si>
   <si>
     <t>210301#MTFDHBA256TDV-SSD-256G
@@ -140,13 +143,19 @@
     <t>1310.72 GB</t>
   </si>
   <si>
+    <t>d6f2db40e07f4abe01a92798199b3f5231e3bcb108f2e2a1d995d2d78dd1790c</t>
+  </si>
+  <si>
     <t>250718#000061L5-1</t>
   </si>
   <si>
+    <t>219 GB</t>
+  </si>
+  <si>
     <t>1242 GB</t>
   </si>
   <si>
-    <t>219 GB</t>
+    <t>b7fbcefb1f90f3bba20a1928967a795360710b298da12e8a9ce3d6482ce1ce70</t>
   </si>
   <si>
     <t>250223#ST4000NE001-HDD-4T-1</t>
@@ -158,6 +167,9 @@
     <t>1023 GB</t>
   </si>
   <si>
+    <t>64c06ba1cc9414e3d5a9a284ba777151a16a5f863cdf8f0b988d56cf82400d84</t>
+  </si>
+  <si>
     <t>240315#DMTC-NVME-512G</t>
   </si>
   <si>
@@ -173,6 +185,9 @@
     <t>1421 GB</t>
   </si>
   <si>
+    <t>90607a55097d2870de264227b7671294d30c266eab0e4a295ab3dfcd53ba12c5</t>
+  </si>
+  <si>
     <t>200723#WECLONTNAS-RAID-3T</t>
   </si>
   <si>
@@ -185,10 +200,35 @@
     <t>1092 GB</t>
   </si>
   <si>
+    <t>35cd5dc0bd8c540deccf74390d7b209fe5d14141a77922fe19b6a2a4ea2d3a2e</t>
+  </si>
+  <si>
     <t>250718#000135L5-1</t>
   </si>
   <si>
     <t>1356.32 GB</t>
+  </si>
+  <si>
+    <t>db9d1ddaddc806fec92f7da0f7b59cee282378382f09a31d47047509f3fca2b5</t>
+  </si>
+  <si>
+    <t>170601#BILI-AND-TG-BAK-373G</t>
+  </si>
+  <si>
+    <t>哔哩哔哩和 Telegram 的备份
+截止 2025-07-25</t>
+  </si>
+  <si>
+    <t>离线备份</t>
+  </si>
+  <si>
+    <t>373 GB</t>
+  </si>
+  <si>
+    <t>250718#000258L5-1</t>
+  </si>
+  <si>
+    <t>a22da688a1ff216bd2f92e020c957fed1409bfcfe68324dd4f6c32f1bbcb9fe9</t>
   </si>
 </sst>
 </file>
@@ -1378,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1389,8 +1429,8 @@
     <col min="4" max="4" width="12.3416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.8916666666667" customWidth="1"/>
     <col min="6" max="6" width="21.4916666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.05" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1" customWidth="1"/>
+    <col min="7" max="7" width="13.1" customWidth="1"/>
+    <col min="8" max="8" width="12.05" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.2083333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="73.0833333333333" customWidth="1"/>
     <col min="11" max="11" width="24.55" customWidth="1"/>
@@ -1415,10 +1455,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1450,10 +1490,10 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="5">
@@ -1475,16 +1515,18 @@
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="5">
         <v>45863</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:11">
@@ -1492,25 +1534,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1519,25 +1561,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -1546,30 +1588,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="5">
         <v>45861</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:11">
@@ -1581,18 +1625,20 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="I7" s="5">
         <v>45861</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:11">
@@ -1600,24 +1646,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:11">
@@ -1625,30 +1673,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="5">
         <v>45862</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:11">
@@ -1656,24 +1706,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:11">
@@ -1685,31 +1737,53 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="5">
         <v>45862</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="K11" s="6"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45865</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:11">
@@ -1719,8 +1793,8 @@
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1732,8 +1806,8 @@
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1745,8 +1819,8 @@
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1758,8 +1832,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1771,8 +1845,8 @@
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1784,8 +1858,8 @@
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1797,8 +1871,8 @@
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1810,8 +1884,8 @@
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1823,8 +1897,8 @@
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1836,8 +1910,8 @@
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1849,8 +1923,8 @@
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1862,8 +1936,8 @@
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1875,8 +1949,8 @@
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1888,8 +1962,8 @@
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1901,8 +1975,8 @@
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1914,8 +1988,8 @@
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1927,8 +2001,8 @@
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1940,8 +2014,8 @@
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1953,8 +2027,8 @@
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1966,8 +2040,8 @@
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1979,8 +2053,8 @@
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1992,8 +2066,8 @@
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2005,8 +2079,8 @@
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2018,8 +2092,8 @@
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2031,8 +2105,8 @@
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2044,8 +2118,8 @@
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2057,8 +2131,8 @@
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2070,8 +2144,8 @@
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2083,8 +2157,8 @@
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2096,8 +2170,8 @@
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2109,8 +2183,8 @@
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2122,8 +2196,8 @@
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2135,8 +2209,8 @@
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2148,8 +2222,8 @@
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="7"/>
       <c r="K46" s="4"/>
@@ -2161,8 +2235,8 @@
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="7"/>
       <c r="K47" s="4"/>
@@ -2174,8 +2248,8 @@
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="7"/>
       <c r="K48" s="4"/>
@@ -2187,8 +2261,8 @@
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="7"/>
       <c r="K49" s="4"/>
@@ -2200,8 +2274,8 @@
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="7"/>
       <c r="K50" s="4"/>
@@ -2213,8 +2287,8 @@
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="7"/>
       <c r="K51" s="4"/>
@@ -2226,8 +2300,8 @@
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="7"/>
       <c r="K52" s="4"/>
@@ -2239,8 +2313,8 @@
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="7"/>
       <c r="K53" s="4"/>
@@ -2252,8 +2326,8 @@
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="7"/>
       <c r="K54" s="4"/>
@@ -2265,8 +2339,8 @@
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="7"/>
       <c r="K55" s="4"/>
@@ -2278,8 +2352,8 @@
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="7"/>
       <c r="K56" s="4"/>
@@ -2291,8 +2365,8 @@
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="7"/>
       <c r="K57" s="4"/>
@@ -2304,8 +2378,8 @@
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="7"/>
       <c r="K58" s="4"/>
@@ -2317,8 +2391,8 @@
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="7"/>
       <c r="K59" s="4"/>
@@ -2330,8 +2404,8 @@
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="7"/>
       <c r="K60" s="4"/>
@@ -2343,8 +2417,8 @@
       <c r="D61" s="5"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="7"/>
       <c r="K61" s="4"/>
@@ -2356,8 +2430,8 @@
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="7"/>
       <c r="K62" s="4"/>
@@ -2369,8 +2443,8 @@
       <c r="D63" s="5"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="7"/>
       <c r="K63" s="4"/>
@@ -2382,8 +2456,8 @@
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="7"/>
       <c r="K64" s="4"/>
@@ -2395,8 +2469,8 @@
       <c r="D65" s="5"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="7"/>
       <c r="K65" s="4"/>
@@ -2408,8 +2482,8 @@
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="7"/>
       <c r="K66" s="4"/>
@@ -2421,8 +2495,8 @@
       <c r="D67" s="5"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="7"/>
       <c r="K67" s="4"/>
@@ -2434,8 +2508,8 @@
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="7"/>
       <c r="K68" s="4"/>
@@ -2447,8 +2521,8 @@
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="7"/>
       <c r="K69" s="4"/>
@@ -2460,8 +2534,8 @@
       <c r="D70" s="5"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="7"/>
       <c r="K70" s="4"/>
@@ -2473,8 +2547,8 @@
       <c r="D71" s="5"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="7"/>
       <c r="K71" s="4"/>
@@ -2486,8 +2560,8 @@
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="7"/>
       <c r="K72" s="4"/>
@@ -2499,8 +2573,8 @@
       <c r="D73" s="5"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="7"/>
       <c r="K73" s="4"/>
@@ -2512,8 +2586,8 @@
       <c r="D74" s="5"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="7"/>
       <c r="K74" s="4"/>
@@ -2525,8 +2599,8 @@
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="7"/>
       <c r="K75" s="4"/>
@@ -2538,8 +2612,8 @@
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="7"/>
       <c r="K76" s="4"/>
@@ -2551,8 +2625,8 @@
       <c r="D77" s="5"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="7"/>
       <c r="K77" s="4"/>
@@ -2564,8 +2638,8 @@
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="7"/>
       <c r="K78" s="4"/>
@@ -2577,8 +2651,8 @@
       <c r="D79" s="5"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="7"/>
       <c r="K79" s="4"/>
@@ -2590,8 +2664,8 @@
       <c r="D80" s="5"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="7"/>
       <c r="K80" s="4"/>
@@ -2603,8 +2677,8 @@
       <c r="D81" s="5"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="7"/>
       <c r="K81" s="4"/>
@@ -2616,8 +2690,8 @@
       <c r="D82" s="5"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="7"/>
       <c r="K82" s="4"/>
@@ -2629,8 +2703,8 @@
       <c r="D83" s="5"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="7"/>
       <c r="K83" s="4"/>
@@ -2642,8 +2716,8 @@
       <c r="D84" s="5"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="7"/>
       <c r="K84" s="4"/>
@@ -2655,8 +2729,8 @@
       <c r="D85" s="5"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="7"/>
       <c r="K85" s="4"/>
@@ -2668,8 +2742,8 @@
       <c r="D86" s="5"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="7"/>
       <c r="K86" s="4"/>
@@ -2681,8 +2755,8 @@
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="7"/>
       <c r="K87" s="4"/>
@@ -2694,8 +2768,8 @@
       <c r="D88" s="5"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="7"/>
       <c r="K88" s="4"/>
@@ -2707,8 +2781,8 @@
       <c r="D89" s="5"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="7"/>
       <c r="K89" s="4"/>
@@ -2720,8 +2794,8 @@
       <c r="D90" s="5"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="7"/>
       <c r="K90" s="4"/>
@@ -2733,8 +2807,8 @@
       <c r="D91" s="5"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="7"/>
       <c r="K91" s="4"/>
@@ -2746,8 +2820,8 @@
       <c r="D92" s="5"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="7"/>
       <c r="K92" s="4"/>
@@ -2759,8 +2833,8 @@
       <c r="D93" s="5"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="7"/>
       <c r="K93" s="4"/>
@@ -2772,8 +2846,8 @@
       <c r="D94" s="5"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="7"/>
       <c r="K94" s="4"/>
@@ -2785,8 +2859,8 @@
       <c r="D95" s="5"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="7"/>
       <c r="K95" s="4"/>
@@ -2798,8 +2872,8 @@
       <c r="D96" s="5"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="7"/>
       <c r="K96" s="4"/>
@@ -2811,8 +2885,8 @@
       <c r="D97" s="5"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="7"/>
       <c r="K97" s="4"/>
@@ -2824,8 +2898,8 @@
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="7"/>
       <c r="K98" s="4"/>
@@ -2837,8 +2911,8 @@
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="7"/>
       <c r="K99" s="4"/>
@@ -2850,8 +2924,8 @@
       <c r="D100" s="5"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="7"/>
       <c r="K100" s="4"/>
@@ -2863,8 +2937,8 @@
       <c r="D101" s="5"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="7"/>
       <c r="K101" s="4"/>
@@ -2876,8 +2950,8 @@
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="7"/>
       <c r="K102" s="4"/>
@@ -2889,8 +2963,8 @@
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="7"/>
       <c r="K103" s="4"/>
@@ -2902,8 +2976,8 @@
       <c r="D104" s="5"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="7"/>
       <c r="K104" s="4"/>
@@ -2915,8 +2989,8 @@
       <c r="D105" s="5"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="7"/>
       <c r="K105" s="4"/>
@@ -2928,8 +3002,8 @@
       <c r="D106" s="5"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="7"/>
       <c r="K106" s="4"/>
@@ -2941,8 +3015,8 @@
       <c r="D107" s="5"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="7"/>
       <c r="K107" s="4"/>
@@ -2954,8 +3028,8 @@
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="7"/>
       <c r="K108" s="4"/>
@@ -2967,8 +3041,8 @@
       <c r="D109" s="5"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="7"/>
       <c r="K109" s="4"/>
@@ -2980,8 +3054,8 @@
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="7"/>
       <c r="K110" s="4"/>
@@ -2993,8 +3067,8 @@
       <c r="D111" s="5"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="7"/>
       <c r="K111" s="4"/>
@@ -3006,8 +3080,8 @@
       <c r="D112" s="5"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="7"/>
     </row>
@@ -3018,8 +3092,8 @@
       <c r="D113" s="5"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="7"/>
     </row>
@@ -3030,8 +3104,8 @@
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="7"/>
     </row>
@@ -3042,8 +3116,8 @@
       <c r="D115" s="5"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="7"/>
     </row>
@@ -3054,8 +3128,8 @@
       <c r="D116" s="5"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="7"/>
     </row>
@@ -3066,8 +3140,8 @@
       <c r="D117" s="5"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="7"/>
     </row>
@@ -3078,8 +3152,8 @@
       <c r="D118" s="5"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="7"/>
     </row>
@@ -3090,8 +3164,8 @@
       <c r="D119" s="5"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="7"/>
     </row>
@@ -3102,8 +3176,8 @@
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="7"/>
     </row>
@@ -3114,8 +3188,8 @@
       <c r="D121" s="5"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="7"/>
     </row>
@@ -3126,8 +3200,8 @@
       <c r="D122" s="5"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="7"/>
     </row>
@@ -3138,8 +3212,8 @@
       <c r="D123" s="5"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="7"/>
     </row>
@@ -3150,8 +3224,8 @@
       <c r="D124" s="5"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="7"/>
     </row>
@@ -3162,8 +3236,8 @@
       <c r="D125" s="5"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="7"/>
     </row>
@@ -3174,8 +3248,8 @@
       <c r="D126" s="5"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="7"/>
     </row>
@@ -3186,8 +3260,8 @@
       <c r="D127" s="5"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="7"/>
     </row>
@@ -3198,8 +3272,8 @@
       <c r="D128" s="5"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="7"/>
     </row>
@@ -3210,8 +3284,8 @@
       <c r="D129" s="5"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="7"/>
     </row>
@@ -3222,8 +3296,8 @@
       <c r="D130" s="5"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="7"/>
     </row>
@@ -3234,8 +3308,8 @@
       <c r="D131" s="5"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="7"/>
     </row>
@@ -3246,8 +3320,8 @@
       <c r="D132" s="5"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="7"/>
     </row>
@@ -3258,8 +3332,8 @@
       <c r="D133" s="5"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="7"/>
     </row>
@@ -3270,8 +3344,8 @@
       <c r="D134" s="5"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="7"/>
     </row>
@@ -3282,8 +3356,8 @@
       <c r="D135" s="5"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="7"/>
     </row>
@@ -3294,8 +3368,8 @@
       <c r="D136" s="5"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="7"/>
     </row>
@@ -3306,8 +3380,8 @@
       <c r="D137" s="5"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="7"/>
     </row>
@@ -3318,8 +3392,8 @@
       <c r="D138" s="5"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="7"/>
     </row>
@@ -3330,8 +3404,8 @@
       <c r="D139" s="5"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="7"/>
     </row>
@@ -3342,8 +3416,8 @@
       <c r="D140" s="5"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="7"/>
     </row>
@@ -3354,8 +3428,8 @@
       <c r="D141" s="5"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="7"/>
     </row>
@@ -3366,8 +3440,8 @@
       <c r="D142" s="5"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="7"/>
     </row>
@@ -3378,8 +3452,8 @@
       <c r="D143" s="5"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="7"/>
     </row>
@@ -3390,8 +3464,8 @@
       <c r="D144" s="5"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="7"/>
     </row>
@@ -3402,8 +3476,8 @@
       <c r="D145" s="5"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="7"/>
     </row>
@@ -3414,8 +3488,8 @@
       <c r="D146" s="5"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="7"/>
     </row>
@@ -3426,8 +3500,8 @@
       <c r="D147" s="5"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="7"/>
     </row>
@@ -3438,8 +3512,8 @@
       <c r="D148" s="5"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="7"/>
     </row>
@@ -3450,8 +3524,8 @@
       <c r="D149" s="5"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="7"/>
     </row>
@@ -3462,8 +3536,8 @@
       <c r="D150" s="5"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="7"/>
     </row>
@@ -3474,8 +3548,8 @@
       <c r="D151" s="5"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="7"/>
     </row>
@@ -3486,8 +3560,8 @@
       <c r="D152" s="5"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="7"/>
     </row>
@@ -3498,8 +3572,8 @@
       <c r="D153" s="5"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="7"/>
     </row>
@@ -3510,8 +3584,8 @@
       <c r="D154" s="5"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="7"/>
     </row>
@@ -3522,8 +3596,8 @@
       <c r="D155" s="5"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="7"/>
     </row>
@@ -3534,8 +3608,8 @@
       <c r="D156" s="5"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="7"/>
     </row>
@@ -3546,8 +3620,8 @@
       <c r="D157" s="5"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="7"/>
     </row>
@@ -3558,8 +3632,8 @@
       <c r="D158" s="5"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="7"/>
     </row>
@@ -3570,8 +3644,8 @@
       <c r="D159" s="5"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="7"/>
     </row>
@@ -3582,8 +3656,8 @@
       <c r="D160" s="5"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="7"/>
     </row>
@@ -3594,8 +3668,8 @@
       <c r="D161" s="5"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="7"/>
     </row>
@@ -3606,8 +3680,8 @@
       <c r="D162" s="5"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="7"/>
     </row>
@@ -3618,8 +3692,8 @@
       <c r="D163" s="5"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="7"/>
     </row>
@@ -3630,8 +3704,8 @@
       <c r="D164" s="5"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="7"/>
     </row>
@@ -3642,8 +3716,8 @@
       <c r="D165" s="5"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="7"/>
     </row>
@@ -3654,8 +3728,8 @@
       <c r="D166" s="5"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="7"/>
     </row>
@@ -3666,8 +3740,8 @@
       <c r="D167" s="5"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="7"/>
     </row>
@@ -3678,8 +3752,8 @@
       <c r="D168" s="5"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="7"/>
     </row>
@@ -3690,8 +3764,8 @@
       <c r="D169" s="5"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="7"/>
     </row>
@@ -3702,8 +3776,8 @@
       <c r="D170" s="5"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="7"/>
     </row>
@@ -3714,8 +3788,8 @@
       <c r="D171" s="5"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="7"/>
     </row>
@@ -3726,8 +3800,8 @@
       <c r="D172" s="5"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="7"/>
     </row>
@@ -3738,8 +3812,8 @@
       <c r="D173" s="5"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="7"/>
     </row>
@@ -3750,8 +3824,8 @@
       <c r="D174" s="5"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="7"/>
     </row>
@@ -3762,8 +3836,8 @@
       <c r="D175" s="5"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="7"/>
     </row>
@@ -3774,8 +3848,8 @@
       <c r="D176" s="5"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="7"/>
     </row>
@@ -3786,8 +3860,8 @@
       <c r="D177" s="5"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="7"/>
     </row>
@@ -3798,8 +3872,8 @@
       <c r="D178" s="5"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="7"/>
     </row>
@@ -3810,8 +3884,8 @@
       <c r="D179" s="5"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="7"/>
     </row>
@@ -3822,8 +3896,8 @@
       <c r="D180" s="5"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="7"/>
     </row>
@@ -3834,8 +3908,8 @@
       <c r="D181" s="5"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="7"/>
     </row>
@@ -3846,8 +3920,8 @@
       <c r="D182" s="5"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="7"/>
     </row>
@@ -3858,8 +3932,8 @@
       <c r="D183" s="5"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="7"/>
     </row>
@@ -3870,8 +3944,8 @@
       <c r="D184" s="5"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="7"/>
     </row>
@@ -3882,8 +3956,8 @@
       <c r="D185" s="5"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="7"/>
     </row>
@@ -3894,8 +3968,8 @@
       <c r="D186" s="5"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="7"/>
     </row>
@@ -3906,8 +3980,8 @@
       <c r="D187" s="5"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="7"/>
     </row>
@@ -3918,8 +3992,8 @@
       <c r="D188" s="5"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="7"/>
     </row>
@@ -3930,8 +4004,8 @@
       <c r="D189" s="5"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="7"/>
     </row>
@@ -3942,8 +4016,8 @@
       <c r="D190" s="5"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="7"/>
     </row>
@@ -3954,8 +4028,8 @@
       <c r="D191" s="5"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="7"/>
     </row>
@@ -3966,8 +4040,8 @@
       <c r="D192" s="5"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="7"/>
     </row>
@@ -3978,8 +4052,8 @@
       <c r="D193" s="5"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="7"/>
     </row>
@@ -3990,8 +4064,8 @@
       <c r="D194" s="5"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="7"/>
     </row>
@@ -4002,8 +4076,8 @@
       <c r="D195" s="5"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="7"/>
     </row>
@@ -4014,8 +4088,8 @@
       <c r="D196" s="5"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="7"/>
     </row>
@@ -4026,8 +4100,8 @@
       <c r="D197" s="5"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="7"/>
     </row>
@@ -4038,8 +4112,8 @@
       <c r="D198" s="5"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="7"/>
     </row>
@@ -4050,8 +4124,8 @@
       <c r="D199" s="5"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="7"/>
     </row>
@@ -4062,8 +4136,8 @@
       <c r="D200" s="5"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="7"/>
     </row>
@@ -4074,8 +4148,8 @@
       <c r="D201" s="5"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="7"/>
     </row>
@@ -4086,8 +4160,8 @@
       <c r="D202" s="5"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="7"/>
     </row>
@@ -4098,8 +4172,8 @@
       <c r="D203" s="5"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="7"/>
     </row>
@@ -4110,8 +4184,8 @@
       <c r="D204" s="5"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="7"/>
     </row>
@@ -4122,8 +4196,8 @@
       <c r="D205" s="5"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="7"/>
     </row>
@@ -4134,8 +4208,8 @@
       <c r="D206" s="5"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="7"/>
     </row>
@@ -4146,8 +4220,8 @@
       <c r="D207" s="5"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="7"/>
     </row>
@@ -4158,8 +4232,8 @@
       <c r="D208" s="5"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="7"/>
     </row>
@@ -4170,8 +4244,8 @@
       <c r="D209" s="5"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="7"/>
     </row>
@@ -4182,8 +4256,8 @@
       <c r="D210" s="5"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="7"/>
     </row>
@@ -4194,8 +4268,8 @@
       <c r="D211" s="5"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="7"/>
     </row>
@@ -4206,8 +4280,8 @@
       <c r="D212" s="5"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="7"/>
     </row>
@@ -4218,8 +4292,8 @@
       <c r="D213" s="5"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="7"/>
     </row>
@@ -4230,8 +4304,8 @@
       <c r="D214" s="5"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="7"/>
     </row>
@@ -4242,8 +4316,8 @@
       <c r="D215" s="5"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="7"/>
     </row>
@@ -4254,8 +4328,8 @@
       <c r="D216" s="5"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="7"/>
     </row>
@@ -4266,8 +4340,8 @@
       <c r="D217" s="5"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="7"/>
     </row>
@@ -4278,8 +4352,8 @@
       <c r="D218" s="5"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="7"/>
     </row>
@@ -4290,8 +4364,8 @@
       <c r="D219" s="5"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="7"/>
     </row>
@@ -4302,8 +4376,8 @@
       <c r="D220" s="5"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="7"/>
     </row>
@@ -4314,8 +4388,8 @@
       <c r="D221" s="5"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="7"/>
     </row>
@@ -4326,8 +4400,8 @@
       <c r="D222" s="5"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="7"/>
     </row>
@@ -4338,8 +4412,8 @@
       <c r="D223" s="5"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="7"/>
     </row>
@@ -4350,8 +4424,8 @@
       <c r="D224" s="5"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="7"/>
     </row>
@@ -4362,8 +4436,8 @@
       <c r="D225" s="5"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="7"/>
     </row>
@@ -4374,8 +4448,8 @@
       <c r="D226" s="5"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="7"/>
     </row>
@@ -4386,8 +4460,8 @@
       <c r="D227" s="5"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="7"/>
     </row>
@@ -4398,8 +4472,8 @@
       <c r="D228" s="5"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="7"/>
     </row>
@@ -4410,8 +4484,8 @@
       <c r="D229" s="5"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="7"/>
     </row>
@@ -4422,8 +4496,8 @@
       <c r="D230" s="5"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="7"/>
     </row>
@@ -4434,8 +4508,8 @@
       <c r="D231" s="5"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="7"/>
     </row>
@@ -4446,8 +4520,8 @@
       <c r="D232" s="5"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="7"/>
     </row>
@@ -4458,8 +4532,8 @@
       <c r="D233" s="5"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="7"/>
     </row>
@@ -4470,8 +4544,8 @@
       <c r="D234" s="5"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="7"/>
     </row>
@@ -4482,8 +4556,8 @@
       <c r="D235" s="5"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="7"/>
     </row>
@@ -4494,8 +4568,8 @@
       <c r="D236" s="5"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="7"/>
     </row>
@@ -4506,8 +4580,8 @@
       <c r="D237" s="5"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="7"/>
     </row>
@@ -4518,8 +4592,8 @@
       <c r="D238" s="5"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="7"/>
     </row>
@@ -4530,8 +4604,8 @@
       <c r="D239" s="5"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="7"/>
     </row>
@@ -4542,8 +4616,8 @@
       <c r="D240" s="5"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="7"/>
     </row>
@@ -4554,8 +4628,8 @@
       <c r="D241" s="5"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="7"/>
     </row>
@@ -4566,8 +4640,8 @@
       <c r="D242" s="5"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="7"/>
     </row>
@@ -4578,8 +4652,8 @@
       <c r="D243" s="5"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="7"/>
     </row>
@@ -4590,8 +4664,8 @@
       <c r="D244" s="5"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="7"/>
     </row>
@@ -4602,8 +4676,8 @@
       <c r="D245" s="5"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="7"/>
     </row>
@@ -4614,8 +4688,8 @@
       <c r="D246" s="5"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="7"/>
     </row>
@@ -4626,8 +4700,8 @@
       <c r="D247" s="5"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="7"/>
     </row>
@@ -4638,8 +4712,8 @@
       <c r="D248" s="5"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="5"/>
-      <c r="H248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="7"/>
     </row>
@@ -4650,8 +4724,8 @@
       <c r="D249" s="5"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
-      <c r="G249" s="5"/>
-      <c r="H249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="7"/>
     </row>
@@ -4662,8 +4736,8 @@
       <c r="D250" s="5"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="7"/>
     </row>
@@ -4674,8 +4748,8 @@
       <c r="D251" s="5"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="7"/>
     </row>
@@ -4686,8 +4760,8 @@
       <c r="D252" s="5"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
-      <c r="G252" s="5"/>
-      <c r="H252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="7"/>
     </row>
@@ -4698,8 +4772,8 @@
       <c r="D253" s="5"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="7"/>
     </row>
@@ -4710,8 +4784,8 @@
       <c r="D254" s="5"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="7"/>
     </row>
@@ -4722,8 +4796,8 @@
       <c r="D255" s="5"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="7"/>
     </row>
@@ -4734,8 +4808,8 @@
       <c r="D256" s="5"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
-      <c r="G256" s="5"/>
-      <c r="H256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="5"/>
       <c r="I256" s="5"/>
     </row>
     <row r="257" ht="36" customHeight="1" spans="1:9">
@@ -4745,8 +4819,8 @@
       <c r="D257" s="5"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="5"/>
       <c r="I257" s="5"/>
     </row>
     <row r="258" ht="36" customHeight="1" spans="1:9">
@@ -4756,8 +4830,8 @@
       <c r="D258" s="5"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
-      <c r="G258" s="5"/>
-      <c r="H258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
     <row r="259" ht="36" customHeight="1" spans="1:9">
@@ -4767,8 +4841,8 @@
       <c r="D259" s="5"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="4"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
     <row r="260" ht="36" customHeight="1" spans="1:9">
@@ -4778,8 +4852,8 @@
       <c r="D260" s="5"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
-      <c r="G260" s="5"/>
-      <c r="H260" s="4"/>
+      <c r="G260" s="4"/>
+      <c r="H260" s="5"/>
       <c r="I260" s="5"/>
     </row>
     <row r="261" ht="36" customHeight="1" spans="1:9">
@@ -4789,8 +4863,8 @@
       <c r="D261" s="5"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
-      <c r="G261" s="5"/>
-      <c r="H261" s="4"/>
+      <c r="G261" s="4"/>
+      <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
     <row r="262" ht="36" customHeight="1" spans="1:9">
@@ -4800,8 +4874,8 @@
       <c r="D262" s="5"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
-      <c r="G262" s="5"/>
-      <c r="H262" s="4"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="5"/>
       <c r="I262" s="5"/>
     </row>
     <row r="263" ht="36" customHeight="1" spans="1:9">
@@ -4811,8 +4885,8 @@
       <c r="D263" s="5"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="4"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="5"/>
       <c r="I263" s="5"/>
     </row>
     <row r="264" ht="36" customHeight="1" spans="1:9">
@@ -4822,8 +4896,8 @@
       <c r="D264" s="5"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="4"/>
+      <c r="G264" s="4"/>
+      <c r="H264" s="5"/>
       <c r="I264" s="5"/>
     </row>
     <row r="265" ht="36" customHeight="1" spans="1:9">
@@ -4833,8 +4907,8 @@
       <c r="D265" s="5"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="4"/>
+      <c r="G265" s="4"/>
+      <c r="H265" s="5"/>
       <c r="I265" s="5"/>
     </row>
     <row r="266" ht="36" customHeight="1" spans="1:9">
@@ -4844,8 +4918,8 @@
       <c r="D266" s="5"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
-      <c r="G266" s="5"/>
-      <c r="H266" s="4"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="5"/>
       <c r="I266" s="5"/>
     </row>
     <row r="267" ht="36" customHeight="1" spans="1:9">
@@ -4855,8 +4929,8 @@
       <c r="D267" s="5"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="5"/>
       <c r="I267" s="5"/>
     </row>
     <row r="268" ht="36" customHeight="1" spans="1:9">
@@ -4866,8 +4940,8 @@
       <c r="D268" s="5"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
-      <c r="G268" s="5"/>
-      <c r="H268" s="4"/>
+      <c r="G268" s="4"/>
+      <c r="H268" s="5"/>
       <c r="I268" s="5"/>
     </row>
     <row r="269" ht="36" customHeight="1" spans="1:9">
@@ -4877,8 +4951,8 @@
       <c r="D269" s="5"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
-      <c r="G269" s="5"/>
-      <c r="H269" s="4"/>
+      <c r="G269" s="4"/>
+      <c r="H269" s="5"/>
       <c r="I269" s="5"/>
     </row>
     <row r="270" ht="36" customHeight="1" spans="1:9">
@@ -4888,8 +4962,8 @@
       <c r="D270" s="5"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
-      <c r="G270" s="5"/>
-      <c r="H270" s="4"/>
+      <c r="G270" s="4"/>
+      <c r="H270" s="5"/>
       <c r="I270" s="5"/>
     </row>
     <row r="271" ht="36" customHeight="1" spans="1:9">
@@ -4899,8 +4973,8 @@
       <c r="D271" s="5"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="4"/>
+      <c r="G271" s="4"/>
+      <c r="H271" s="5"/>
       <c r="I271" s="5"/>
     </row>
     <row r="272" ht="36" customHeight="1" spans="1:9">
@@ -4910,8 +4984,8 @@
       <c r="D272" s="5"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
-      <c r="G272" s="5"/>
-      <c r="H272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="H272" s="5"/>
       <c r="I272" s="5"/>
     </row>
     <row r="273" ht="36" customHeight="1" spans="1:9">
@@ -4921,8 +4995,8 @@
       <c r="D273" s="5"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="4"/>
+      <c r="G273" s="4"/>
+      <c r="H273" s="5"/>
       <c r="I273" s="5"/>
     </row>
     <row r="274" ht="36" customHeight="1" spans="1:9">
@@ -4932,8 +5006,8 @@
       <c r="D274" s="5"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
-      <c r="G274" s="5"/>
-      <c r="H274" s="4"/>
+      <c r="G274" s="4"/>
+      <c r="H274" s="5"/>
       <c r="I274" s="5"/>
     </row>
     <row r="275" ht="36" customHeight="1" spans="1:9">
@@ -4943,8 +5017,8 @@
       <c r="D275" s="5"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
-      <c r="G275" s="5"/>
-      <c r="H275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="H275" s="5"/>
       <c r="I275" s="5"/>
     </row>
     <row r="276" ht="36" customHeight="1" spans="1:9">
@@ -4954,8 +5028,8 @@
       <c r="D276" s="5"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="4"/>
+      <c r="G276" s="4"/>
+      <c r="H276" s="5"/>
       <c r="I276" s="5"/>
     </row>
     <row r="277" ht="36" customHeight="1" spans="1:9">
@@ -4965,8 +5039,8 @@
       <c r="D277" s="5"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
-      <c r="G277" s="5"/>
-      <c r="H277" s="4"/>
+      <c r="G277" s="4"/>
+      <c r="H277" s="5"/>
       <c r="I277" s="5"/>
     </row>
     <row r="278" ht="36" customHeight="1"/>
@@ -4987,9 +5061,9 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I9:I10"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -68,7 +68,7 @@
     <t>最常用 4T 机械备份</t>
   </si>
   <si>
-    <t>全盘备份</t>
+    <t>热归档①</t>
   </si>
   <si>
     <t>2247 GB</t>
@@ -101,6 +101,9 @@
   <si>
     <t>21年旧笔电
 两块 256G 固态备份</t>
+  </si>
+  <si>
+    <t>冷归档①</t>
   </si>
   <si>
     <t>390 GB</t>
@@ -131,9 +134,6 @@
 2025-02-23 到 2025-07-23</t>
   </si>
   <si>
-    <t>增量备份</t>
-  </si>
-  <si>
     <t>1529.72 GB</t>
   </si>
   <si>
@@ -219,9 +219,6 @@
 截止 2025-07-25</t>
   </si>
   <si>
-    <t>离线备份</t>
-  </si>
-  <si>
     <t>373 GB</t>
   </si>
   <si>
@@ -229,6 +226,33 @@
   </si>
   <si>
     <t>a22da688a1ff216bd2f92e020c957fed1409bfcfe68324dd4f6c32f1bbcb9fe9</t>
+  </si>
+  <si>
+    <t>* 3</t>
+  </si>
+  <si>
+    <t>冷归档②</t>
+  </si>
+  <si>
+    <t>250718#000271L5-1</t>
+  </si>
+  <si>
+    <t>1413 GB</t>
+  </si>
+  <si>
+    <t>* 7</t>
+  </si>
+  <si>
+    <t>* 8</t>
+  </si>
+  <si>
+    <t>250718#000XXXL5-1</t>
+  </si>
+  <si>
+    <t>* 9</t>
+  </si>
+  <si>
+    <t>* 10</t>
   </si>
 </sst>
 </file>
@@ -1418,15 +1442,15 @@
   <sheetPr/>
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="31.55" customWidth="1"/>
     <col min="3" max="3" width="25.6" customWidth="1"/>
-    <col min="4" max="4" width="12.3416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.8916666666667" customWidth="1"/>
     <col min="6" max="6" width="21.4916666666667" customWidth="1"/>
     <col min="7" max="7" width="13.1" customWidth="1"/>
@@ -1540,19 +1564,19 @@
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1561,25 +1585,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -1588,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>33</v>
@@ -1652,7 +1676,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>43</v>
@@ -1679,7 +1703,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>47</v>
@@ -1712,7 +1736,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -1764,91 +1788,183 @@
         <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="5">
         <v>45865</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:11">
+      <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" ht="36" customHeight="1" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45866</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="5">
+        <v>45867</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45869</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" ht="36" customHeight="1" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="5">
+        <v>45869</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" ht="36" customHeight="1" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45870</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" ht="36" customHeight="1" spans="1:11">
@@ -5045,7 +5161,7 @@
     </row>
     <row r="278" ht="36" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
@@ -5061,9 +5177,13 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I9:I10"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -246,13 +246,16 @@
     <t>* 8</t>
   </si>
   <si>
-    <t>250718#000XXXL5-1</t>
+    <t>250718#000272L5-1</t>
   </si>
   <si>
     <t>* 9</t>
   </si>
   <si>
     <t>* 10</t>
+  </si>
+  <si>
+    <t>250718#000374L5-1</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1445,8 @@
   <sheetPr/>
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1836,7 +1839,7 @@
         <v>67</v>
       </c>
       <c r="I13" s="5">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>64</v>
@@ -1898,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="I15" s="5">
-        <v>45869</v>
+        <v>45867</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>69</v>
@@ -1927,7 +1930,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <v>45869</v>
+        <v>45867</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>71</v>
@@ -1951,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>57</v>
@@ -1960,7 +1963,7 @@
         <v>57</v>
       </c>
       <c r="I17" s="5">
-        <v>45870</v>
+        <v>45868</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>72</v>
